--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423E4B1D-539B-4283-A3B0-08FF1EC91ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E06825-2EC9-4AAA-83D9-38E69094584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="819" activeTab="7" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="628" activeTab="4" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId3"/>
     <sheet name="카드 데이터 목록(Card Data List)" sheetId="8" r:id="rId4"/>
     <sheet name="카드 필터 테이블" sheetId="3" r:id="rId5"/>
-    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId6"/>
-    <sheet name="유저 DB" sheetId="9" r:id="rId7"/>
-    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId8"/>
-    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId9"/>
-    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId10"/>
+    <sheet name="고유 키워드 테이블" sheetId="12" r:id="rId6"/>
+    <sheet name="고유 키워드 목록(Origin Ketword List)" sheetId="11" r:id="rId7"/>
+    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId8"/>
+    <sheet name="유저 DB" sheetId="9" r:id="rId9"/>
+    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId10"/>
+    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId11"/>
+    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="387">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,30 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기물 카드 필터 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 카드 필터 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 카드 필터 활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Piece Card Filter Activate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill Card Filter Activate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event Card Filter Activate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,78 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"카드 데이터 테이블/카드 종류(Card Type)" 인덱스 = 0 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/카드 종류(Card Type)" 인덱스 = 1 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/카드 종류(Card Type)" 인덱스 = 2 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 체력(Piece Health Point)"인덱스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 공격력(Piece Attack Point)"인덱스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 체력(Piece Health Point)"인덱스 ≥ "기물 체력_최소(Piece Health Point_Min)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 체력(Piece Health Point)"인덱스 ≤ "기물 체력_최대(Piece Health Ponit_Max)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 공격력(Piece Attack Point)"인덱스 ≥ "기물 공격력_최소(Piece Attack Point_Min)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 공격력(Piece Attack Point)"인덱스 ≤ "기물 공격력_최대(Piece Attack Point_Max)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 사거리(Piece Range Point)"인덱스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 사거리(Piece Range Point)"인덱스 ≥ "기물 사거리_최소(Piece Range Point_Min)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 사거리(Piece Range Point)"인덱스 ≤ "기물 사거리_최대(Piece Range Point_Max)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 이동 속도(Piece Speed Point)"인덱스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 이동 속도(Piece Speed Point)"인덱스 ≥ "기물 이동 속도_최소(Piece Speed Point_Min)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/기물 이동 속도(Piece Speed Point)"인덱스 ≤ "기물 이동 속도_최대(Piece Speed Point_Max)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/스킬 사거리(Skill Range Point)"인덱스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/스킬 사거리(Skill Range Point)"인덱스 ≥ "기물 사거리_최소(Skill Range Point_Min)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"카드 데이터 테이블/스킬 사거리(Skill Range Point)"인덱스 ≤ "기물 사거리_최대(Skill Range Point_Max)" 인지 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Origin Keyword_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1520,6 +1426,117 @@
   </si>
   <si>
     <t>Silver Rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Type Filter Activate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 종류 필터 활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 카드 = 0, 스킬 카드 = 1, 이벤트 카드 = 2</t>
+  </si>
+  <si>
+    <t>"카드 필터 설정/기물 체력_최소(Piece Health Point_Min)" ≤ "카드 데이터 테이블/기물 체력(Piece Health Point)" ≤ "카드 필터 설정/기물 체력_최대(Piece Health Ponit_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/카드 종류(Card Type)" = "카드 필터 설정/카드 종류(Card Type)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 필터 설정/기물 공격력_최소(Piece Attack Point_Min)" ≤ "카드 데이터 테이블/기물 공격력(Piece Attack Point)" ≤ "카드 필터 설정/기물 공격력_최대(Piece Attack Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 필터 설정/기물 사거리_최소(Piece Range Point_Min)" ≤ "카드 데이터 테이블/기물 사거리(Piece Range Point)" ≤ "기물 사거리_최대(Piece Range Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 필터 설정/기물 이동 속도_최소(Piece Speed Point_Min)" ≤ "카드 데이터 테이블/기물 이동 속도(Piece Speed Point)" ≤ "카드 필터 설정/기물 이동 속도_최대(Piece Speed Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 필터 설정/기물 사거리_최소(Skill Range Point_Min)" ≤ "카드 데이터 테이블/스킬 사거리(Skill Range Point)" ≤ "카드 필터 설정/기물 사거리_최대(Skill Range Point_Max)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/종족(Tribe)" = "카드 필터 설정/종족(Tribe)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/소속(Affiliation)" = "카드 필터 설정/소속(Affiliation)" 인지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/효과 텍스트(Effect Text)"에 "카드 필터 설정/고유 키워드_1(Origin Keyword_1)"을 포함하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/효과 텍스트(Effect Text)"에 "카드 필터 설정/고유 키워드_2(Origin Keyword_2)"을 포함하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/효과 텍스트(Effect Text)"에 "카드 필터 설정/고유 키워드_3(Origin Keyword_3)"을 포함하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/효과 텍스트(Effect Text)"에 "카드 필터 설정/고유 키워드_4(Origin Keyword_4)"을 포함하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/효과 텍스트(Effect Text)"에 "카드 필터 설정/고유 키워드_5(Origin Keyword_5)"을 포함하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"카드 데이터 테이블/효과 텍스트(Effect Text)"에 "카드 필터 설정/고유 키워드_6(Origin Keyword_6)"을 포함하는지 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Keyword Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Keyword ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Keyword Explanation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(128자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(4자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드 ID 규칙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시즌별 생성 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,7 +1544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1552,6 +1569,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1561,7 +1586,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1660,46 +1685,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1770,13 +1755,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1816,184 +1825,208 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3216,13 +3249,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="60" t="s">
+      <c r="E27" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="60" t="s">
+      <c r="G27" s="56" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3234,16 +3267,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="K27" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="57" t="s">
+      <c r="L27" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="54" t="s">
+      <c r="M27" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="56"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3252,9 +3285,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3264,9 +3297,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="57" t="s">
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="53" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3280,9 +3313,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3292,9 +3325,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3306,21 +3339,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="60"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3332,11 +3365,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="60"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="56"/>
+      <c r="F31" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="60" t="s">
+      <c r="G31" s="56" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3348,9 +3381,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3362,9 +3395,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3374,14 +3407,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="57" t="s">
+      <c r="K32" s="54"/>
+      <c r="L32" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="54" t="s">
+      <c r="M32" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="56"/>
+      <c r="N32" s="52"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3390,9 +3423,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3402,12 +3435,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="58"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="54" t="s">
+      <c r="K33" s="54"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="56"/>
+      <c r="N33" s="52"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3416,9 +3449,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3428,25 +3461,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="58"/>
-      <c r="L34" s="57" t="s">
+      <c r="K34" s="54"/>
+      <c r="L34" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="54" t="s">
+      <c r="M34" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="56"/>
+      <c r="N34" s="52"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="61" t="s">
+      <c r="P34" s="57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3456,21 +3489,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="54" t="s">
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="56"/>
+      <c r="N35" s="52"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="61"/>
+      <c r="P35" s="57"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60" t="s">
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3482,21 +3515,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="58"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="54" t="s">
+      <c r="K36" s="54"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="56"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="61"/>
+      <c r="P36" s="57"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3506,8 +3539,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="57" t="s">
+      <c r="K37" s="54"/>
+      <c r="L37" s="53" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3524,9 +3557,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60" t="s">
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3538,8 +3571,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="58"/>
-      <c r="L38" s="59"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="55"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3554,9 +3587,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3566,12 +3599,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="59"/>
-      <c r="L39" s="54" t="s">
+      <c r="K39" s="55"/>
+      <c r="L39" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="52"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3580,14 +3613,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="60"/>
-      <c r="F40" s="60" t="s">
+      <c r="E40" s="56"/>
+      <c r="F40" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="60" t="s">
+      <c r="G40" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="60"/>
+      <c r="H40" s="56"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3596,12 +3629,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60" t="s">
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="60"/>
+      <c r="H41" s="56"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3610,8 +3643,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="60"/>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3628,8 +3661,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3644,12 +3677,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="60"/>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3693,6 +3726,1435 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16">
+        <v>0</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" ref="G4:G35" si="0">B4+C4+D4+E4+F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="16">
+        <v>99</v>
+      </c>
+      <c r="C5" s="16">
+        <v>99</v>
+      </c>
+      <c r="D5" s="16">
+        <v>99</v>
+      </c>
+      <c r="E5" s="16">
+        <v>99</v>
+      </c>
+      <c r="F5" s="16">
+        <v>99</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="16">
+        <v>0</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="16">
+        <v>0</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <v>0</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>0</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="16">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B29" s="16">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B30" s="16">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B31" s="16">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33" s="16">
+        <v>0</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>0</v>
+      </c>
+      <c r="G33" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="16">
+        <v>0</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34" s="16">
+        <v>0</v>
+      </c>
+      <c r="E34" s="16">
+        <v>0</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="16">
+        <v>0</v>
+      </c>
+      <c r="E35" s="16">
+        <v>0</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="16">
+        <v>0</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0</v>
+      </c>
+      <c r="D36" s="16">
+        <v>0</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0</v>
+      </c>
+      <c r="F36" s="16">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" ref="G36:G56" si="1">B36+C36+D36+E36+F36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B37" s="16">
+        <v>0</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
+        <v>0</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0</v>
+      </c>
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="16">
+        <v>0</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
+        <v>0</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="16">
+        <v>0</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0</v>
+      </c>
+      <c r="D39" s="16">
+        <v>0</v>
+      </c>
+      <c r="E39" s="16">
+        <v>0</v>
+      </c>
+      <c r="F39" s="16">
+        <v>0</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B40" s="16">
+        <v>0</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0</v>
+      </c>
+      <c r="D40" s="16">
+        <v>0</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0</v>
+      </c>
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" s="16">
+        <v>0</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0</v>
+      </c>
+      <c r="D41" s="16">
+        <v>0</v>
+      </c>
+      <c r="E41" s="16">
+        <v>0</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="16">
+        <v>0</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0</v>
+      </c>
+      <c r="D42" s="16">
+        <v>0</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0</v>
+      </c>
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="16">
+        <v>0</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0</v>
+      </c>
+      <c r="D43" s="16">
+        <v>0</v>
+      </c>
+      <c r="E43" s="16">
+        <v>0</v>
+      </c>
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="16">
+        <v>0</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0</v>
+      </c>
+      <c r="D44" s="16">
+        <v>0</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0</v>
+      </c>
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0</v>
+      </c>
+      <c r="D45" s="16">
+        <v>0</v>
+      </c>
+      <c r="E45" s="16">
+        <v>0</v>
+      </c>
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B46" s="16">
+        <v>0</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0</v>
+      </c>
+      <c r="D46" s="16">
+        <v>0</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0</v>
+      </c>
+      <c r="F46" s="16">
+        <v>0</v>
+      </c>
+      <c r="G46" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B47" s="16">
+        <v>0</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0</v>
+      </c>
+      <c r="D47" s="16">
+        <v>0</v>
+      </c>
+      <c r="E47" s="16">
+        <v>0</v>
+      </c>
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0</v>
+      </c>
+      <c r="G48" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="16">
+        <v>0</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="16">
+        <v>0</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="G50" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B51" s="16">
+        <v>0</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0</v>
+      </c>
+      <c r="D51" s="16">
+        <v>0</v>
+      </c>
+      <c r="E51" s="16">
+        <v>0</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0</v>
+      </c>
+      <c r="G51" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="16">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="16">
+        <v>0</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0</v>
+      </c>
+      <c r="G53" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" s="16">
+        <v>0</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0</v>
+      </c>
+      <c r="D54" s="16">
+        <v>0</v>
+      </c>
+      <c r="E54" s="16">
+        <v>0</v>
+      </c>
+      <c r="F54" s="16">
+        <v>0</v>
+      </c>
+      <c r="G54" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="16">
+        <v>0</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0</v>
+      </c>
+      <c r="E55" s="16">
+        <v>0</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0</v>
+      </c>
+      <c r="G55" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="16">
+        <v>0</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+      <c r="G56" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC383F5-4855-4EBE-B9F7-715B010D4044}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -3702,407 +5164,407 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="42"/>
-    <col min="3" max="3" width="18.625" style="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="42" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="72"/>
-    <col min="6" max="6" width="14.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="12.375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="29"/>
+    <col min="3" max="3" width="18.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="44"/>
+    <col min="6" max="6" width="14.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="E9" s="44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="I12" s="42"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" s="42"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="42" t="s">
+      <c r="D15" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>347</v>
+      </c>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D16" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>350</v>
+      </c>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>356</v>
+      </c>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="E2" s="72" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="E3" s="72" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="E4" s="72" t="s">
+      <c r="E25" s="44" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="E5" s="72" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>336</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>337</v>
-      </c>
-      <c r="E8" s="72" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>299</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="E9" s="72" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>300</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>351</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="I11" s="70"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>313</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>338</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>340</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="I14" s="70"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="I15" s="70"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="69" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>342</v>
-      </c>
-      <c r="E16" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="I16" s="70"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" s="70"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="69" t="s">
-        <v>325</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="E18" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="I18" s="70"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>328</v>
-      </c>
-      <c r="B19" s="69" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>345</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="I19" s="70"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>348</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="I20" s="70"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="E21" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="I21" s="70"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="44" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>302</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="I22" s="70"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="I24" s="70"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>306</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>353</v>
-      </c>
-      <c r="E25" s="72" t="s">
-        <v>381</v>
-      </c>
-      <c r="I25" s="70"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I26" s="70"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I27" s="70"/>
+      <c r="I27" s="42"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4130,53 +5592,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="D1" s="21"/>
+        <v>241</v>
+      </c>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="31" t="s">
-        <v>260</v>
+      <c r="B3" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="31" t="s">
-        <v>261</v>
+      <c r="B4" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="31" t="s">
-        <v>262</v>
+      <c r="B5" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="31" t="s">
-        <v>263</v>
+      <c r="B6" s="18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="31" t="s">
-        <v>259</v>
+      <c r="B7" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4188,8 +5650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72153495-9548-4082-9176-2E3A9CF38348}">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:D29"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4205,10 +5667,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -4216,22 +5678,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="63"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -4252,10 +5714,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="58" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -4265,7 +5727,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>56</v>
@@ -4274,12 +5736,12 @@
         <v>56</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -4296,12 +5758,12 @@
         <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +5781,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -4341,8 +5803,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -4363,8 +5825,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -4382,8 +5844,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -4401,8 +5863,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -4420,8 +5882,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="58" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -4444,8 +5906,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -4466,8 +5928,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -4488,8 +5950,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -4510,8 +5972,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="63" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -4531,8 +5993,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -4550,8 +6012,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -4569,8 +6031,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -4588,7 +6050,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -4633,308 +6095,308 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17.875" style="38" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.75" style="38" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="38" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="6.125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:18" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="48" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:18" s="35" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="48" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:18" s="35" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="53" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
+    <row r="4" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="52" t="s">
+      <c r="J4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="52" t="s">
+      <c r="L4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="52" t="s">
+      <c r="N4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="52" t="s">
+      <c r="P4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="Q4" s="52" t="s">
+      <c r="Q4" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="39" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="48" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:18" s="35" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="H5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="34" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4946,698 +6408,900 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5928B3-5658-40D5-928F-81A696B143DF}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="116.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57.875" style="17" customWidth="1"/>
-    <col min="10" max="10" width="74.625" customWidth="1"/>
-    <col min="11" max="11" width="41.375" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="166.875" style="70" customWidth="1"/>
+    <col min="9" max="9" width="57.875" style="47" customWidth="1"/>
+    <col min="10" max="10" width="28.125" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.375" style="47" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="67">
+        <v>0</v>
+      </c>
+      <c r="F3" s="67">
+        <v>0</v>
+      </c>
+      <c r="G3" s="67">
+        <v>3</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="66"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="66"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="67">
+        <v>0</v>
+      </c>
+      <c r="F6" s="67">
+        <v>0</v>
+      </c>
+      <c r="G6" s="67">
+        <v>24</v>
+      </c>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="67">
+        <v>0</v>
+      </c>
+      <c r="F7" s="67">
+        <v>0</v>
+      </c>
+      <c r="G7" s="67">
+        <v>24</v>
+      </c>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="D8" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E8" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G8" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
-      <c r="B3" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="H8" s="71" t="s">
+        <v>364</v>
+      </c>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="67">
+        <v>0</v>
+      </c>
+      <c r="F9" s="67">
+        <v>0</v>
+      </c>
+      <c r="G9" s="67">
+        <v>12</v>
+      </c>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="67">
+        <v>0</v>
+      </c>
+      <c r="F10" s="67">
+        <v>0</v>
+      </c>
+      <c r="G10" s="67">
+        <v>12</v>
+      </c>
+      <c r="J10" s="66"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="E11" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G11" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
-      <c r="B4" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="23" t="s">
+      <c r="H11" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="J11" s="66"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="67">
+        <v>0</v>
+      </c>
+      <c r="F12" s="67">
+        <v>0</v>
+      </c>
+      <c r="G12" s="67">
+        <v>12</v>
+      </c>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="67">
+        <v>0</v>
+      </c>
+      <c r="F13" s="67">
+        <v>0</v>
+      </c>
+      <c r="G13" s="67">
+        <v>12</v>
+      </c>
+      <c r="J13" s="66"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E14" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G14" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="H14" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="J14" s="66"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="67">
+        <v>0</v>
+      </c>
+      <c r="F15" s="67">
+        <v>0</v>
+      </c>
+      <c r="G15" s="67">
+        <v>12</v>
+      </c>
+      <c r="J15" s="66"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="67">
+        <v>0</v>
+      </c>
+      <c r="G16" s="67">
+        <v>12</v>
+      </c>
+      <c r="J16" s="66"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E17" s="67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G17" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="H17" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="J17" s="66"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="67">
+        <v>0</v>
+      </c>
+      <c r="F18" s="67">
+        <v>0</v>
+      </c>
+      <c r="G18" s="67">
+        <v>12</v>
+      </c>
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="67">
+        <v>0</v>
+      </c>
+      <c r="F19" s="67">
+        <v>0</v>
+      </c>
+      <c r="G19" s="67">
+        <v>12</v>
+      </c>
+      <c r="J19" s="66"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="49">
+        <v>0</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0</v>
+      </c>
+      <c r="G20" s="68">
+        <v>99</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="I20" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="66"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="67">
+        <v>0</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0</v>
+      </c>
+      <c r="G21" s="68">
+        <v>99</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="66"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="F22" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="67"/>
-      <c r="B7" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="12">
-        <v>24</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="23">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23">
-        <v>24</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="G22" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H22" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="J22" s="66"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <v>12</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="14">
-        <v>0</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0</v>
-      </c>
-      <c r="G11" s="23">
-        <v>12</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="F23" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G23" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <v>12</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23">
-        <v>12</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="I14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12" t="s">
+      <c r="H23" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="J23" s="66"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="F24" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-      <c r="G16" s="12">
-        <v>12</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="23">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23">
-        <v>12</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="G24" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="H24" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="J24" s="66"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0</v>
-      </c>
-      <c r="G19" s="12">
-        <v>12</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="67"/>
-      <c r="B20" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="14">
-        <v>0</v>
-      </c>
-      <c r="F20" s="23">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23">
-        <v>12</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="28">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>99</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="14">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27">
-        <v>99</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="66" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="17" t="s">
+      <c r="F25" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="J25" s="66"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="C26" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="E26" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="F26" s="67" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="67"/>
-      <c r="B24" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="17" t="s">
+      <c r="G26" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="J26" s="66"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="65"/>
+      <c r="B27" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="C27" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="E27" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="F27" s="67" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="12" t="s">
+      <c r="G27" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26"/>
-      <c r="F26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H26" s="25"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="26"/>
+      <c r="H27" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="J27" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5993F062-1B6D-42AC-8A51-B80D4F3A6590}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="72" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="76" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3" s="72" t="s">
+        <v>379</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="78"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="80" t="s">
+        <v>385</v>
+      </c>
+      <c r="I10" s="80" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBDA5C5-1E84-4FC4-BA50-59C258431472}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4BDA6-A75A-4CD0-B541-2D711F682760}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -5647,128 +7311,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="35" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="37" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.125" style="29" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.875" style="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="33"/>
+    <col min="1" max="1" width="23.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="22" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="C2" s="35" t="s">
+    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="37"/>
-    </row>
-    <row r="3" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>269</v>
-      </c>
-      <c r="C3" s="36" t="s">
+      <c r="C8" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D4" s="37"/>
-    </row>
-    <row r="5" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="36" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="A10" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="E12">
         <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!G6:G56)</f>
@@ -5777,7 +7441,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="E13">
         <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!F6:F56)</f>
@@ -5786,7 +7450,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="E14">
         <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!E6:E56)</f>
@@ -5794,8 +7458,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>284</v>
+      <c r="A15" s="17" t="s">
+        <v>260</v>
       </c>
       <c r="E15">
         <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!D6:D56)</f>
@@ -5803,8 +7467,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>285</v>
+      <c r="A16" s="17" t="s">
+        <v>261</v>
       </c>
       <c r="E16">
         <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!C6:F56)</f>
@@ -5812,8 +7476,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>286</v>
+      <c r="A17" s="17" t="s">
+        <v>262</v>
       </c>
       <c r="E17">
         <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!B6:B56)</f>
@@ -5821,19 +7485,19 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="34"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="34"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="34"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="34"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="34"/>
+      <c r="K26" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5844,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72089A79-3CDA-403E-B10C-170E55E77B53}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -5854,1519 +7518,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="40"/>
-    <col min="7" max="7" width="18.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="40"/>
-    <col min="11" max="11" width="14.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="21.375" style="40" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="8.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="27"/>
+    <col min="7" max="7" width="18.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="27"/>
+    <col min="11" max="11" width="14.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="21.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>279</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>288</v>
+      <c r="A1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>286</v>
+        <v>259</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>289</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
-  <dimension ref="A1:G56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="B3" s="29">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="E3" s="29">
-        <v>0</v>
-      </c>
-      <c r="F3" s="29">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="29">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="29">
-        <v>0</v>
-      </c>
-      <c r="F4" s="29">
-        <v>0</v>
-      </c>
-      <c r="G4" s="33">
-        <f t="shared" ref="G4:G35" si="0">B4+C4+D4+E4+F4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B5" s="29">
-        <v>99</v>
-      </c>
-      <c r="C5" s="29">
-        <v>99</v>
-      </c>
-      <c r="D5" s="29">
-        <v>99</v>
-      </c>
-      <c r="E5" s="29">
-        <v>99</v>
-      </c>
-      <c r="F5" s="29">
-        <v>99</v>
-      </c>
-      <c r="G5" s="33">
-        <f t="shared" si="0"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="29">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="G6" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="29">
-        <v>0</v>
-      </c>
-      <c r="C7" s="29">
-        <v>0</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0</v>
-      </c>
-      <c r="E7" s="29">
-        <v>0</v>
-      </c>
-      <c r="F7" s="29">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="29">
-        <v>0</v>
-      </c>
-      <c r="C8" s="29">
-        <v>0</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0</v>
-      </c>
-      <c r="E8" s="29">
-        <v>0</v>
-      </c>
-      <c r="F8" s="29">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="29">
-        <v>0</v>
-      </c>
-      <c r="C9" s="29">
-        <v>0</v>
-      </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="29">
-        <v>0</v>
-      </c>
-      <c r="F9" s="29">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>205</v>
-      </c>
-      <c r="B10" s="29">
-        <v>0</v>
-      </c>
-      <c r="C10" s="29">
-        <v>0</v>
-      </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="29">
-        <v>0</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-      <c r="G10" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B11" s="29">
-        <v>0</v>
-      </c>
-      <c r="C11" s="29">
-        <v>0</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0</v>
-      </c>
-      <c r="E11" s="29">
-        <v>0</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="29">
-        <v>0</v>
-      </c>
-      <c r="C12" s="29">
-        <v>0</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0</v>
-      </c>
-      <c r="E12" s="29">
-        <v>0</v>
-      </c>
-      <c r="F12" s="29">
-        <v>0</v>
-      </c>
-      <c r="G12" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B13" s="29">
-        <v>0</v>
-      </c>
-      <c r="C13" s="29">
-        <v>0</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="29">
-        <v>0</v>
-      </c>
-      <c r="F13" s="29">
-        <v>0</v>
-      </c>
-      <c r="G13" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="29">
-        <v>0</v>
-      </c>
-      <c r="C14" s="29">
-        <v>0</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0</v>
-      </c>
-      <c r="E14" s="29">
-        <v>0</v>
-      </c>
-      <c r="F14" s="29">
-        <v>0</v>
-      </c>
-      <c r="G14" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="29">
-        <v>0</v>
-      </c>
-      <c r="C15" s="29">
-        <v>0</v>
-      </c>
-      <c r="D15" s="29">
-        <v>0</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <v>0</v>
-      </c>
-      <c r="G15" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="29">
-        <v>0</v>
-      </c>
-      <c r="C16" s="29">
-        <v>0</v>
-      </c>
-      <c r="D16" s="29">
-        <v>0</v>
-      </c>
-      <c r="E16" s="29">
-        <v>0</v>
-      </c>
-      <c r="F16" s="29">
-        <v>0</v>
-      </c>
-      <c r="G16" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="B17" s="29">
-        <v>0</v>
-      </c>
-      <c r="C17" s="29">
-        <v>0</v>
-      </c>
-      <c r="D17" s="29">
-        <v>0</v>
-      </c>
-      <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29">
-        <v>0</v>
-      </c>
-      <c r="G17" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="B18" s="29">
-        <v>0</v>
-      </c>
-      <c r="C18" s="29">
-        <v>0</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0</v>
-      </c>
-      <c r="F18" s="29">
-        <v>0</v>
-      </c>
-      <c r="G18" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="B19" s="29">
-        <v>0</v>
-      </c>
-      <c r="C19" s="29">
-        <v>0</v>
-      </c>
-      <c r="D19" s="29">
-        <v>0</v>
-      </c>
-      <c r="E19" s="29">
-        <v>0</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="G19" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B20" s="29">
-        <v>0</v>
-      </c>
-      <c r="C20" s="29">
-        <v>0</v>
-      </c>
-      <c r="D20" s="29">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29">
-        <v>0</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0</v>
-      </c>
-      <c r="G20" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="29">
-        <v>0</v>
-      </c>
-      <c r="C21" s="29">
-        <v>0</v>
-      </c>
-      <c r="D21" s="29">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29">
-        <v>0</v>
-      </c>
-      <c r="F21" s="29">
-        <v>0</v>
-      </c>
-      <c r="G21" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="29">
-        <v>0</v>
-      </c>
-      <c r="C22" s="29">
-        <v>0</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0</v>
-      </c>
-      <c r="E22" s="29">
-        <v>0</v>
-      </c>
-      <c r="F22" s="29">
-        <v>0</v>
-      </c>
-      <c r="G22" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="30" t="s">
-        <v>218</v>
-      </c>
-      <c r="B23" s="29">
-        <v>0</v>
-      </c>
-      <c r="C23" s="29">
-        <v>0</v>
-      </c>
-      <c r="D23" s="29">
-        <v>0</v>
-      </c>
-      <c r="E23" s="29">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B24" s="29">
-        <v>0</v>
-      </c>
-      <c r="C24" s="29">
-        <v>0</v>
-      </c>
-      <c r="D24" s="29">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29">
-        <v>0</v>
-      </c>
-      <c r="F24" s="29">
-        <v>0</v>
-      </c>
-      <c r="G24" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
-        <v>220</v>
-      </c>
-      <c r="B25" s="29">
-        <v>0</v>
-      </c>
-      <c r="C25" s="29">
-        <v>0</v>
-      </c>
-      <c r="D25" s="29">
-        <v>0</v>
-      </c>
-      <c r="E25" s="29">
-        <v>0</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0</v>
-      </c>
-      <c r="G25" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B26" s="29">
-        <v>0</v>
-      </c>
-      <c r="C26" s="29">
-        <v>0</v>
-      </c>
-      <c r="D26" s="29">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29">
-        <v>0</v>
-      </c>
-      <c r="F26" s="29">
-        <v>0</v>
-      </c>
-      <c r="G26" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B27" s="29">
-        <v>0</v>
-      </c>
-      <c r="C27" s="29">
-        <v>0</v>
-      </c>
-      <c r="D27" s="29">
-        <v>0</v>
-      </c>
-      <c r="E27" s="29">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29">
-        <v>0</v>
-      </c>
-      <c r="G27" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="B28" s="29">
-        <v>0</v>
-      </c>
-      <c r="C28" s="29">
-        <v>0</v>
-      </c>
-      <c r="D28" s="29">
-        <v>0</v>
-      </c>
-      <c r="E28" s="29">
-        <v>0</v>
-      </c>
-      <c r="F28" s="29">
-        <v>0</v>
-      </c>
-      <c r="G28" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B29" s="29">
-        <v>0</v>
-      </c>
-      <c r="C29" s="29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="B30" s="29">
-        <v>0</v>
-      </c>
-      <c r="C30" s="29">
-        <v>0</v>
-      </c>
-      <c r="D30" s="29">
-        <v>0</v>
-      </c>
-      <c r="E30" s="29">
-        <v>0</v>
-      </c>
-      <c r="F30" s="29">
-        <v>0</v>
-      </c>
-      <c r="G30" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="B31" s="29">
-        <v>0</v>
-      </c>
-      <c r="C31" s="29">
-        <v>0</v>
-      </c>
-      <c r="D31" s="29">
-        <v>0</v>
-      </c>
-      <c r="E31" s="29">
-        <v>0</v>
-      </c>
-      <c r="F31" s="29">
-        <v>0</v>
-      </c>
-      <c r="G31" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="B32" s="29">
-        <v>0</v>
-      </c>
-      <c r="C32" s="29">
-        <v>0</v>
-      </c>
-      <c r="D32" s="29">
-        <v>0</v>
-      </c>
-      <c r="E32" s="29">
-        <v>0</v>
-      </c>
-      <c r="F32" s="29">
-        <v>0</v>
-      </c>
-      <c r="G32" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B33" s="29">
-        <v>0</v>
-      </c>
-      <c r="C33" s="29">
-        <v>0</v>
-      </c>
-      <c r="D33" s="29">
-        <v>0</v>
-      </c>
-      <c r="E33" s="29">
-        <v>0</v>
-      </c>
-      <c r="F33" s="29">
-        <v>0</v>
-      </c>
-      <c r="G33" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="30" t="s">
-        <v>229</v>
-      </c>
-      <c r="B34" s="29">
-        <v>0</v>
-      </c>
-      <c r="C34" s="29">
-        <v>0</v>
-      </c>
-      <c r="D34" s="29">
-        <v>0</v>
-      </c>
-      <c r="E34" s="29">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29">
-        <v>0</v>
-      </c>
-      <c r="G34" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="29">
-        <v>0</v>
-      </c>
-      <c r="C35" s="29">
-        <v>0</v>
-      </c>
-      <c r="D35" s="29">
-        <v>0</v>
-      </c>
-      <c r="E35" s="29">
-        <v>0</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0</v>
-      </c>
-      <c r="G35" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B36" s="29">
-        <v>0</v>
-      </c>
-      <c r="C36" s="29">
-        <v>0</v>
-      </c>
-      <c r="D36" s="29">
-        <v>0</v>
-      </c>
-      <c r="E36" s="29">
-        <v>0</v>
-      </c>
-      <c r="F36" s="29">
-        <v>0</v>
-      </c>
-      <c r="G36" s="33">
-        <f t="shared" ref="G36:G56" si="1">B36+C36+D36+E36+F36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" s="29">
-        <v>0</v>
-      </c>
-      <c r="C37" s="29">
-        <v>0</v>
-      </c>
-      <c r="D37" s="29">
-        <v>0</v>
-      </c>
-      <c r="E37" s="29">
-        <v>0</v>
-      </c>
-      <c r="F37" s="29">
-        <v>0</v>
-      </c>
-      <c r="G37" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="B38" s="29">
-        <v>0</v>
-      </c>
-      <c r="C38" s="29">
-        <v>0</v>
-      </c>
-      <c r="D38" s="29">
-        <v>0</v>
-      </c>
-      <c r="E38" s="29">
-        <v>0</v>
-      </c>
-      <c r="F38" s="29">
-        <v>0</v>
-      </c>
-      <c r="G38" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="29">
-        <v>0</v>
-      </c>
-      <c r="C39" s="29">
-        <v>0</v>
-      </c>
-      <c r="D39" s="29">
-        <v>0</v>
-      </c>
-      <c r="E39" s="29">
-        <v>0</v>
-      </c>
-      <c r="F39" s="29">
-        <v>0</v>
-      </c>
-      <c r="G39" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="B40" s="29">
-        <v>0</v>
-      </c>
-      <c r="C40" s="29">
-        <v>0</v>
-      </c>
-      <c r="D40" s="29">
-        <v>0</v>
-      </c>
-      <c r="E40" s="29">
-        <v>0</v>
-      </c>
-      <c r="F40" s="29">
-        <v>0</v>
-      </c>
-      <c r="G40" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="B41" s="29">
-        <v>0</v>
-      </c>
-      <c r="C41" s="29">
-        <v>0</v>
-      </c>
-      <c r="D41" s="29">
-        <v>0</v>
-      </c>
-      <c r="E41" s="29">
-        <v>0</v>
-      </c>
-      <c r="F41" s="29">
-        <v>0</v>
-      </c>
-      <c r="G41" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="B42" s="29">
-        <v>0</v>
-      </c>
-      <c r="C42" s="29">
-        <v>0</v>
-      </c>
-      <c r="D42" s="29">
-        <v>0</v>
-      </c>
-      <c r="E42" s="29">
-        <v>0</v>
-      </c>
-      <c r="F42" s="29">
-        <v>0</v>
-      </c>
-      <c r="G42" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B43" s="29">
-        <v>0</v>
-      </c>
-      <c r="C43" s="29">
-        <v>0</v>
-      </c>
-      <c r="D43" s="29">
-        <v>0</v>
-      </c>
-      <c r="E43" s="29">
-        <v>0</v>
-      </c>
-      <c r="F43" s="29">
-        <v>0</v>
-      </c>
-      <c r="G43" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>239</v>
-      </c>
-      <c r="B44" s="29">
-        <v>0</v>
-      </c>
-      <c r="C44" s="29">
-        <v>0</v>
-      </c>
-      <c r="D44" s="29">
-        <v>0</v>
-      </c>
-      <c r="E44" s="29">
-        <v>0</v>
-      </c>
-      <c r="F44" s="29">
-        <v>0</v>
-      </c>
-      <c r="G44" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="B45" s="29">
-        <v>0</v>
-      </c>
-      <c r="C45" s="29">
-        <v>0</v>
-      </c>
-      <c r="D45" s="29">
-        <v>0</v>
-      </c>
-      <c r="E45" s="29">
-        <v>0</v>
-      </c>
-      <c r="F45" s="29">
-        <v>0</v>
-      </c>
-      <c r="G45" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="B46" s="29">
-        <v>0</v>
-      </c>
-      <c r="C46" s="29">
-        <v>0</v>
-      </c>
-      <c r="D46" s="29">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29">
-        <v>0</v>
-      </c>
-      <c r="F46" s="29">
-        <v>0</v>
-      </c>
-      <c r="G46" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B47" s="29">
-        <v>0</v>
-      </c>
-      <c r="C47" s="29">
-        <v>0</v>
-      </c>
-      <c r="D47" s="29">
-        <v>0</v>
-      </c>
-      <c r="E47" s="29">
-        <v>0</v>
-      </c>
-      <c r="F47" s="29">
-        <v>0</v>
-      </c>
-      <c r="G47" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B48" s="29">
-        <v>0</v>
-      </c>
-      <c r="C48" s="29">
-        <v>0</v>
-      </c>
-      <c r="D48" s="29">
-        <v>0</v>
-      </c>
-      <c r="E48" s="29">
-        <v>0</v>
-      </c>
-      <c r="F48" s="29">
-        <v>0</v>
-      </c>
-      <c r="G48" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" s="29">
-        <v>0</v>
-      </c>
-      <c r="C49" s="29">
-        <v>0</v>
-      </c>
-      <c r="D49" s="29">
-        <v>0</v>
-      </c>
-      <c r="E49" s="29">
-        <v>0</v>
-      </c>
-      <c r="F49" s="29">
-        <v>0</v>
-      </c>
-      <c r="G49" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="B50" s="29">
-        <v>0</v>
-      </c>
-      <c r="C50" s="29">
-        <v>0</v>
-      </c>
-      <c r="D50" s="29">
-        <v>0</v>
-      </c>
-      <c r="E50" s="29">
-        <v>0</v>
-      </c>
-      <c r="F50" s="29">
-        <v>0</v>
-      </c>
-      <c r="G50" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="B51" s="29">
-        <v>0</v>
-      </c>
-      <c r="C51" s="29">
-        <v>0</v>
-      </c>
-      <c r="D51" s="29">
-        <v>0</v>
-      </c>
-      <c r="E51" s="29">
-        <v>0</v>
-      </c>
-      <c r="F51" s="29">
-        <v>0</v>
-      </c>
-      <c r="G51" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="B52" s="29">
-        <v>0</v>
-      </c>
-      <c r="C52" s="29">
-        <v>0</v>
-      </c>
-      <c r="D52" s="29">
-        <v>0</v>
-      </c>
-      <c r="E52" s="29">
-        <v>0</v>
-      </c>
-      <c r="F52" s="29">
-        <v>0</v>
-      </c>
-      <c r="G52" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="B53" s="29">
-        <v>0</v>
-      </c>
-      <c r="C53" s="29">
-        <v>0</v>
-      </c>
-      <c r="D53" s="29">
-        <v>0</v>
-      </c>
-      <c r="E53" s="29">
-        <v>0</v>
-      </c>
-      <c r="F53" s="29">
-        <v>0</v>
-      </c>
-      <c r="G53" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" s="29">
-        <v>0</v>
-      </c>
-      <c r="C54" s="29">
-        <v>0</v>
-      </c>
-      <c r="D54" s="29">
-        <v>0</v>
-      </c>
-      <c r="E54" s="29">
-        <v>0</v>
-      </c>
-      <c r="F54" s="29">
-        <v>0</v>
-      </c>
-      <c r="G54" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
-        <v>250</v>
-      </c>
-      <c r="B55" s="29">
-        <v>0</v>
-      </c>
-      <c r="C55" s="29">
-        <v>0</v>
-      </c>
-      <c r="D55" s="29">
-        <v>0</v>
-      </c>
-      <c r="E55" s="29">
-        <v>0</v>
-      </c>
-      <c r="F55" s="29">
-        <v>0</v>
-      </c>
-      <c r="G55" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="B56" s="29">
-        <v>0</v>
-      </c>
-      <c r="C56" s="29">
-        <v>0</v>
-      </c>
-      <c r="D56" s="29">
-        <v>0</v>
-      </c>
-      <c r="E56" s="29">
-        <v>0</v>
-      </c>
-      <c r="F56" s="29">
-        <v>0</v>
-      </c>
-      <c r="G56" s="33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC383F5-4855-4EBE-B9F7-715B010D4044}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>365</v>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E06825-2EC9-4AAA-83D9-38E69094584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0963D4-9F6C-448A-837F-AACC0749EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="628" activeTab="4" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="628" firstSheet="1" activeTab="4" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -1936,15 +1936,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1954,12 +2011,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1972,58 +2023,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3249,13 +3249,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="56" t="s">
+      <c r="E27" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="56" t="s">
+      <c r="G27" s="67" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3267,16 +3267,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="K27" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="53" t="s">
+      <c r="L27" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="50" t="s">
+      <c r="M27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="52"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3285,9 +3285,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3297,9 +3297,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="53" t="s">
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="72" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3313,9 +3313,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3325,9 +3325,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,21 +3339,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="56"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3365,11 +3365,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="56"/>
-      <c r="F31" s="56" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="56" t="s">
+      <c r="G31" s="67" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3381,9 +3381,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="54"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3395,9 +3395,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3407,14 +3407,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="54"/>
-      <c r="L32" s="53" t="s">
+      <c r="K32" s="73"/>
+      <c r="L32" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="50" t="s">
+      <c r="M32" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="52"/>
+      <c r="N32" s="70"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3423,9 +3423,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3435,12 +3435,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="54"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="50" t="s">
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="52"/>
+      <c r="N33" s="70"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3449,9 +3449,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3461,25 +3461,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="54"/>
-      <c r="L34" s="53" t="s">
+      <c r="K34" s="73"/>
+      <c r="L34" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="50" t="s">
+      <c r="M34" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="52"/>
+      <c r="N34" s="70"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="57" t="s">
+      <c r="P34" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3489,21 +3489,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="50" t="s">
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="52"/>
+      <c r="N35" s="70"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="57"/>
+      <c r="P35" s="68"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56" t="s">
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3515,21 +3515,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="54"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="50" t="s">
+      <c r="K36" s="73"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="52"/>
+      <c r="N36" s="70"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="57"/>
+      <c r="P36" s="68"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="54"/>
-      <c r="L37" s="53" t="s">
+      <c r="K37" s="73"/>
+      <c r="L37" s="72" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3557,9 +3557,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3571,8 +3571,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="55"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="74"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3587,9 +3587,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3599,12 +3599,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="55"/>
-      <c r="L39" s="50" t="s">
+      <c r="K39" s="74"/>
+      <c r="L39" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="51"/>
-      <c r="N39" s="52"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3613,14 +3613,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="56"/>
-      <c r="F40" s="56" t="s">
+      <c r="E40" s="67"/>
+      <c r="F40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="56" t="s">
+      <c r="G40" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="56"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3629,12 +3629,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="56"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3643,8 +3643,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="56"/>
-      <c r="F42" s="56" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="67" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3661,8 +3661,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3677,12 +3677,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="56"/>
-      <c r="F44" s="56" t="s">
+      <c r="E44" s="67"/>
+      <c r="F44" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3692,6 +3692,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -3708,17 +3719,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5667,10 +5667,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -5678,22 +5678,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -5714,10 +5714,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5740,8 +5740,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -5762,8 +5762,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -5781,8 +5781,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -5803,8 +5803,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -5825,8 +5825,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -5844,8 +5844,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -5863,8 +5863,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -5882,8 +5882,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5906,8 +5906,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -5928,8 +5928,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -5950,8 +5950,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -5972,8 +5972,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="76" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5993,8 +5993,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -6012,8 +6012,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -6031,8 +6031,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -6050,7 +6050,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="58"/>
+      <c r="A29" s="75"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -6411,681 +6411,681 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.625" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.125" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="166.875" style="70" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="166.875" style="57" customWidth="1"/>
     <col min="9" max="9" width="57.875" style="47" customWidth="1"/>
     <col min="10" max="10" width="28.125" style="47" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="41.375" style="47" customWidth="1"/>
     <col min="12" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="H1" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="63"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="53" t="s">
         <v>360</v>
       </c>
       <c r="C2" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="67" t="s">
+      <c r="E2" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="54" t="s">
         <v>56</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>363</v>
       </c>
-      <c r="J2" s="66"/>
+      <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
       <c r="C3" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="67">
-        <v>0</v>
-      </c>
-      <c r="F3" s="67">
-        <v>0</v>
-      </c>
-      <c r="G3" s="67">
+      <c r="E3" s="54">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54">
         <v>3</v>
       </c>
       <c r="I3" s="47" t="s">
         <v>361</v>
       </c>
-      <c r="J3" s="66"/>
+      <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="79" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="53" t="s">
         <v>141</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="66"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
       <c r="C5" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="J5" s="66"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="67">
-        <v>0</v>
-      </c>
-      <c r="F6" s="67">
-        <v>0</v>
-      </c>
-      <c r="G6" s="67">
+      <c r="E6" s="54">
+        <v>0</v>
+      </c>
+      <c r="F6" s="54">
+        <v>0</v>
+      </c>
+      <c r="G6" s="54">
         <v>24</v>
       </c>
-      <c r="J6" s="66"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66" t="s">
+      <c r="A7" s="79"/>
+      <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="67">
-        <v>0</v>
-      </c>
-      <c r="F7" s="67">
-        <v>0</v>
-      </c>
-      <c r="G7" s="67">
+      <c r="E7" s="54">
+        <v>0</v>
+      </c>
+      <c r="F7" s="54">
+        <v>0</v>
+      </c>
+      <c r="G7" s="54">
         <v>24</v>
       </c>
-      <c r="J7" s="66"/>
+      <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
       <c r="C8" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="67" t="s">
+      <c r="E8" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="58" t="s">
         <v>364</v>
       </c>
-      <c r="J8" s="66"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="67">
-        <v>0</v>
-      </c>
-      <c r="F9" s="67">
-        <v>0</v>
-      </c>
-      <c r="G9" s="67">
+      <c r="E9" s="54">
+        <v>0</v>
+      </c>
+      <c r="F9" s="54">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54">
         <v>12</v>
       </c>
-      <c r="J9" s="66"/>
+      <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="67">
-        <v>0</v>
-      </c>
-      <c r="F10" s="67">
-        <v>0</v>
-      </c>
-      <c r="G10" s="67">
+      <c r="E10" s="54">
+        <v>0</v>
+      </c>
+      <c r="F10" s="54">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54">
         <v>12</v>
       </c>
-      <c r="J10" s="66"/>
+      <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="67" t="s">
+      <c r="E11" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="J11" s="66"/>
+      <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
       <c r="C12" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="67">
-        <v>0</v>
-      </c>
-      <c r="F12" s="67">
-        <v>0</v>
-      </c>
-      <c r="G12" s="67">
+      <c r="E12" s="54">
+        <v>0</v>
+      </c>
+      <c r="F12" s="54">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54">
         <v>12</v>
       </c>
-      <c r="J12" s="66"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="79"/>
+      <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="67">
-        <v>0</v>
-      </c>
-      <c r="F13" s="67">
-        <v>0</v>
-      </c>
-      <c r="G13" s="67">
+      <c r="E13" s="54">
+        <v>0</v>
+      </c>
+      <c r="F13" s="54">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54">
         <v>12</v>
       </c>
-      <c r="J13" s="66"/>
+      <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" s="67" t="s">
+      <c r="E14" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="J14" s="66"/>
+      <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="67">
-        <v>0</v>
-      </c>
-      <c r="F15" s="67">
-        <v>0</v>
-      </c>
-      <c r="G15" s="67">
+      <c r="E15" s="54">
+        <v>0</v>
+      </c>
+      <c r="F15" s="54">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54">
         <v>12</v>
       </c>
-      <c r="J15" s="66"/>
+      <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="67">
-        <v>0</v>
-      </c>
-      <c r="G16" s="67">
+      <c r="F16" s="54">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54">
         <v>12</v>
       </c>
-      <c r="J16" s="66"/>
+      <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="53" t="s">
         <v>151</v>
       </c>
       <c r="C17" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" s="67" t="s">
+      <c r="E17" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="67" t="s">
+      <c r="G17" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="H17" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="J17" s="66"/>
+      <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="67">
-        <v>0</v>
-      </c>
-      <c r="F18" s="67">
-        <v>0</v>
-      </c>
-      <c r="G18" s="67">
+      <c r="E18" s="54">
+        <v>0</v>
+      </c>
+      <c r="F18" s="54">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54">
         <v>12</v>
       </c>
-      <c r="J18" s="66"/>
+      <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="67">
-        <v>0</v>
-      </c>
-      <c r="F19" s="67">
-        <v>0</v>
-      </c>
-      <c r="G19" s="67">
+      <c r="E19" s="54">
+        <v>0</v>
+      </c>
+      <c r="F19" s="54">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54">
         <v>12</v>
       </c>
-      <c r="J19" s="66"/>
+      <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="53" t="s">
         <v>107</v>
       </c>
       <c r="C20" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="54" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="49">
         <v>0</v>
       </c>
-      <c r="F20" s="68">
-        <v>0</v>
-      </c>
-      <c r="G20" s="68">
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
         <v>99</v>
       </c>
-      <c r="H20" s="70" t="s">
+      <c r="H20" s="57" t="s">
         <v>368</v>
       </c>
       <c r="I20" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="66"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="66" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="67">
-        <v>0</v>
-      </c>
-      <c r="F21" s="68">
-        <v>0</v>
-      </c>
-      <c r="G21" s="68">
+      <c r="E21" s="54">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
         <v>99</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="H21" s="57" t="s">
         <v>369</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="J21" s="66"/>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="66" t="s">
+      <c r="B22" s="53" t="s">
         <v>155</v>
       </c>
       <c r="C22" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="67" t="s">
+      <c r="E22" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="H22" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="J22" s="66"/>
+      <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="67" t="s">
+      <c r="F23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="67" t="s">
+      <c r="G23" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="H23" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="J23" s="66"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
       <c r="C24" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="67" t="s">
+      <c r="F24" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="67" t="s">
+      <c r="G24" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="H24" s="57" t="s">
         <v>372</v>
       </c>
-      <c r="J24" s="66"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
       <c r="C25" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D25" s="67" t="s">
+      <c r="D25" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="67" t="s">
+      <c r="E25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="67" t="s">
+      <c r="F25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="67" t="s">
+      <c r="G25" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="H25" s="57" t="s">
         <v>373</v>
       </c>
-      <c r="J25" s="66"/>
+      <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="66" t="s">
+      <c r="A26" s="79"/>
+      <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
       <c r="C26" s="47" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="67" t="s">
+      <c r="E26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H26" s="70" t="s">
+      <c r="H26" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="J26" s="66"/>
+      <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
       <c r="C27" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D27" s="67" t="s">
+      <c r="D27" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="70" t="s">
+      <c r="H27" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="J27" s="66"/>
+      <c r="J27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7112,7 +7112,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="72" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="46" bestFit="1" customWidth="1"/>
@@ -7122,23 +7122,23 @@
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="76" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:11" s="63" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="62" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7146,7 +7146,7 @@
       <c r="A2" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="59" t="s">
         <v>377</v>
       </c>
       <c r="C2" s="46" t="s">
@@ -7166,7 +7166,7 @@
       <c r="A3" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="59" t="s">
         <v>379</v>
       </c>
       <c r="C3" s="46" t="s">
@@ -7186,7 +7186,7 @@
       <c r="A4" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="59" t="s">
         <v>381</v>
       </c>
       <c r="C4" s="46" t="s">
@@ -7201,28 +7201,28 @@
       <c r="F4" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="69"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="78" t="s">
+      <c r="H8" s="80" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="80"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="65" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="66" t="s">
         <v>386</v>
       </c>
     </row>
@@ -7254,7 +7254,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="64" t="s">
         <v>116</v>
       </c>
       <c r="B1" s="41" t="s">

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0963D4-9F6C-448A-837F-AACC0749EC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD436B-ECD6-4269-9EF5-CC307FB49864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="628" firstSheet="1" activeTab="4" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="628" firstSheet="2" activeTab="6" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -1987,29 +1987,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3249,13 +3249,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="67" t="s">
+      <c r="E27" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="73" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3267,16 +3267,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="69" t="s">
+      <c r="M27" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="70"/>
+      <c r="N27" s="69"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3285,9 +3285,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3297,9 +3297,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="72" t="s">
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="70" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3313,9 +3313,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3325,9 +3325,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,21 +3339,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67" t="s">
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="67"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3365,11 +3365,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="67"/>
-      <c r="F31" s="67" t="s">
+      <c r="E31" s="73"/>
+      <c r="F31" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="73" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3381,9 +3381,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3395,9 +3395,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3407,14 +3407,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="72" t="s">
+      <c r="K32" s="71"/>
+      <c r="L32" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="69" t="s">
+      <c r="M32" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="70"/>
+      <c r="N32" s="69"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3423,9 +3423,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3435,12 +3435,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="69" t="s">
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="70"/>
+      <c r="N33" s="69"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3449,9 +3449,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3461,25 +3461,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="72" t="s">
+      <c r="K34" s="71"/>
+      <c r="L34" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="69" t="s">
+      <c r="M34" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="70"/>
+      <c r="N34" s="69"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="68" t="s">
+      <c r="P34" s="74" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3489,21 +3489,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="69" t="s">
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="70"/>
+      <c r="N35" s="69"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="68"/>
+      <c r="P35" s="74"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3515,21 +3515,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="69" t="s">
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="70"/>
+      <c r="N36" s="69"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="68"/>
+      <c r="P36" s="74"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="72" t="s">
+      <c r="K37" s="71"/>
+      <c r="L37" s="70" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3557,9 +3557,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3571,8 +3571,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="73"/>
-      <c r="L38" s="74"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3587,9 +3587,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3599,12 +3599,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="69" t="s">
+      <c r="K39" s="72"/>
+      <c r="L39" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="71"/>
-      <c r="N39" s="70"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="69"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3613,14 +3613,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="67"/>
-      <c r="F40" s="67" t="s">
+      <c r="E40" s="73"/>
+      <c r="F40" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="67" t="s">
+      <c r="G40" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="67"/>
+      <c r="H40" s="73"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3629,12 +3629,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67" t="s">
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="67"/>
+      <c r="H41" s="73"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3643,8 +3643,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="67"/>
-      <c r="F42" s="67" t="s">
+      <c r="E42" s="73"/>
+      <c r="F42" s="73" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3661,8 +3661,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3677,12 +3677,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="67"/>
-      <c r="F44" s="67" t="s">
+      <c r="E44" s="73"/>
+      <c r="F44" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3692,17 +3692,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -3719,6 +3708,17 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6410,8 +6410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5928B3-5658-40D5-928F-81A696B143DF}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7106,7 +7106,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7240,8 +7240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBDA5C5-1E84-4FC4-BA50-59C258431472}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD436B-ECD6-4269-9EF5-CC307FB49864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F902E2E-B29F-4184-824E-FBC4DEF380D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="628" firstSheet="2" activeTab="6" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="898" firstSheet="2" activeTab="5" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -1987,15 +1987,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2004,12 +2010,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3249,13 +3249,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="73" t="s">
+      <c r="E27" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="67" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3267,16 +3267,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="70" t="s">
+      <c r="K27" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="70" t="s">
+      <c r="L27" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="67" t="s">
+      <c r="M27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="69"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3285,9 +3285,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3297,9 +3297,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="70" t="s">
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="72" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3313,9 +3313,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3325,9 +3325,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,21 +3339,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73" t="s">
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3365,11 +3365,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="73"/>
-      <c r="F31" s="73" t="s">
+      <c r="E31" s="67"/>
+      <c r="F31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="67" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3381,9 +3381,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3395,9 +3395,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3407,14 +3407,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="71"/>
-      <c r="L32" s="70" t="s">
+      <c r="K32" s="73"/>
+      <c r="L32" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="67" t="s">
+      <c r="M32" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="69"/>
+      <c r="N32" s="70"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3423,9 +3423,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3435,12 +3435,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="67" t="s">
+      <c r="K33" s="73"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="69"/>
+      <c r="N33" s="70"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3449,9 +3449,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3461,25 +3461,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="70" t="s">
+      <c r="K34" s="73"/>
+      <c r="L34" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="M34" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="69"/>
+      <c r="N34" s="70"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="74" t="s">
+      <c r="P34" s="68" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="67"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3489,21 +3489,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="67" t="s">
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="69"/>
+      <c r="N35" s="70"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="74"/>
+      <c r="P35" s="68"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73" t="s">
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3515,21 +3515,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="67" t="s">
+      <c r="K36" s="73"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="69"/>
+      <c r="N36" s="70"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="74"/>
+      <c r="P36" s="68"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3539,8 +3539,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="70" t="s">
+      <c r="K37" s="73"/>
+      <c r="L37" s="72" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3557,9 +3557,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3571,8 +3571,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="71"/>
-      <c r="L38" s="72"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="74"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3587,9 +3587,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3599,12 +3599,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="72"/>
-      <c r="L39" s="67" t="s">
+      <c r="K39" s="74"/>
+      <c r="L39" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="68"/>
-      <c r="N39" s="69"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3613,14 +3613,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="73"/>
-      <c r="F40" s="73" t="s">
+      <c r="E40" s="67"/>
+      <c r="F40" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="73"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3629,12 +3629,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="73"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3643,8 +3643,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="73"/>
-      <c r="F42" s="73" t="s">
+      <c r="E42" s="67"/>
+      <c r="F42" s="67" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3661,8 +3661,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3677,12 +3677,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="73"/>
-      <c r="F44" s="73" t="s">
+      <c r="E44" s="67"/>
+      <c r="F44" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3692,6 +3692,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -3708,17 +3719,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5651,7 +5651,7 @@
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7105,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5993F062-1B6D-42AC-8A51-B80D4F3A6590}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7240,7 +7240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBDA5C5-1E84-4FC4-BA50-59C258431472}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F902E2E-B29F-4184-824E-FBC4DEF380D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA534968-A95B-4F30-9DED-1BE061A398E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="898" firstSheet="2" activeTab="5" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-4365" yWindow="555" windowWidth="19260" windowHeight="14100" tabRatio="898" firstSheet="2" activeTab="2" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,13 @@
     <sheet name="카드 필터 테이블" sheetId="3" r:id="rId5"/>
     <sheet name="고유 키워드 테이블" sheetId="12" r:id="rId6"/>
     <sheet name="고유 키워드 목록(Origin Ketword List)" sheetId="11" r:id="rId7"/>
-    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId8"/>
-    <sheet name="유저 DB" sheetId="9" r:id="rId9"/>
-    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId10"/>
-    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId11"/>
-    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId12"/>
+    <sheet name="종족 테이블" sheetId="13" r:id="rId8"/>
+    <sheet name="소속 테이블" sheetId="14" r:id="rId9"/>
+    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId10"/>
+    <sheet name="유저 DB" sheetId="9" r:id="rId11"/>
+    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId12"/>
+    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId13"/>
+    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="393">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1537,6 +1539,30 @@
   </si>
   <si>
     <t>시즌별 생성 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe/Affiliation Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe/Affiliation Setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족설정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1785,7 +1811,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,30 +2013,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2028,6 +2060,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3249,13 +3287,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="67" t="s">
+      <c r="E27" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="67" t="s">
+      <c r="G27" s="75" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3276,7 +3314,7 @@
       <c r="M27" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="70"/>
+      <c r="N27" s="71"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3285,9 +3323,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3313,9 +3351,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3339,12 +3377,12 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67" t="s">
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="67"/>
+      <c r="H30" s="75"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
@@ -3365,11 +3403,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="67"/>
-      <c r="F31" s="67" t="s">
+      <c r="E31" s="75"/>
+      <c r="F31" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="67" t="s">
+      <c r="G31" s="75" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3395,9 +3433,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3414,7 +3452,7 @@
       <c r="M32" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="70"/>
+      <c r="N32" s="71"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3423,9 +3461,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3440,7 +3478,7 @@
       <c r="M33" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="70"/>
+      <c r="N33" s="71"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3449,9 +3487,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3468,18 +3506,18 @@
       <c r="M34" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="70"/>
+      <c r="N34" s="71"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="68" t="s">
+      <c r="P34" s="76" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3494,16 +3532,16 @@
       <c r="M35" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="70"/>
+      <c r="N35" s="71"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="68"/>
+      <c r="P35" s="76"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3520,16 +3558,16 @@
       <c r="M36" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="70"/>
+      <c r="N36" s="71"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="68"/>
+      <c r="P36" s="76"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3557,9 +3595,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3587,9 +3625,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3603,8 +3641,8 @@
       <c r="L39" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="71"/>
-      <c r="N39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3613,14 +3651,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="67"/>
-      <c r="F40" s="67" t="s">
+      <c r="E40" s="75"/>
+      <c r="F40" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="67" t="s">
+      <c r="G40" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="67"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3629,12 +3667,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67" t="s">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="67"/>
+      <c r="H41" s="75"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3643,8 +3681,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="67"/>
-      <c r="F42" s="67" t="s">
+      <c r="E42" s="75"/>
+      <c r="F42" s="75" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3661,8 +3699,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3677,12 +3715,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="67"/>
-      <c r="F44" s="67" t="s">
+      <c r="E44" s="75"/>
+      <c r="F44" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3692,17 +3730,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -3719,6 +3746,17 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3726,6 +3764,315 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4BDA6-A75A-4CD0-B541-2D711F682760}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="22" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!G6:G56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!F6:F56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!E6:E56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!D6:D56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="E16">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!C6:F56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17">
+        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!B6:B56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E13:E15 E17" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72089A79-3CDA-403E-B10C-170E55E77B53}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="27"/>
+    <col min="7" max="7" width="18.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="27"/>
+    <col min="11" max="11" width="14.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="21.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
   <dimension ref="A1:G56"/>
   <sheetViews>
@@ -5091,7 +5438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC383F5-4855-4EBE-B9F7-715B010D4044}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5154,7 +5501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -5650,8 +5997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72153495-9548-4082-9176-2E3A9CF38348}">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5667,10 +6014,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -5678,22 +6025,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -5714,10 +6061,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75" t="s">
+      <c r="A13" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="75" t="s">
+      <c r="B13" s="77" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -5740,8 +6087,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -5762,8 +6109,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -5781,8 +6128,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -5803,8 +6150,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -5825,8 +6172,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -5844,8 +6191,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -5863,8 +6210,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -5882,8 +6229,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -5906,8 +6253,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="77"/>
+      <c r="B22" s="78"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -5928,8 +6275,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -5950,8 +6297,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -5972,8 +6319,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="78" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -5993,8 +6340,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="78"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -6012,8 +6359,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="78"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -6031,8 +6378,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="77"/>
+      <c r="B28" s="78"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -6050,7 +6397,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
+      <c r="A29" s="77"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -6095,7 +6442,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6458,7 +6805,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="81" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -6485,7 +6832,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -6510,7 +6857,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="81" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -6534,7 +6881,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -6559,7 +6906,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -6581,7 +6928,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="79"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -6603,7 +6950,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="79"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -6628,7 +6975,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -6650,7 +6997,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="79"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -6672,7 +7019,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="79"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -6697,7 +7044,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="79"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -6719,7 +7066,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="79"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -6741,7 +7088,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -6766,7 +7113,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -6788,7 +7135,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -6807,7 +7154,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="81" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -6834,7 +7181,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -6856,7 +7203,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -6878,7 +7225,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="81" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -6908,7 +7255,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -6936,7 +7283,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="81" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -6963,7 +7310,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
+      <c r="A23" s="81"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -6988,7 +7335,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -7013,7 +7360,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
+      <c r="A25" s="81"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -7038,7 +7385,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
+      <c r="A26" s="81"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -7063,7 +7410,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
+      <c r="A27" s="81"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -7105,8 +7452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5993F062-1B6D-42AC-8A51-B80D4F3A6590}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7205,10 +7552,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="82" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="80"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">
@@ -7302,307 +7649,220 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4BDA6-A75A-4CD0-B541-2D711F682760}">
-  <dimension ref="A1:K26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC2B69-7636-4277-9E5D-AA8DB636965C}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="22" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="24" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="84" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:7" s="67" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="23" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="24"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="D2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="68" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E12">
-        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!G6:G56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13">
-        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!F6:F56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E14">
-        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!E6:E56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E15">
-        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!D6:D56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E16">
-        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!C6:F56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17">
-        <f>SUM('유저 DB_보유 카드 목록(Held Card List)'!B6:B56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K26" s="21"/>
+      <c r="D3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="68">
+        <v>0</v>
+      </c>
+      <c r="F3" s="68">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E13:E15 E17" formulaRange="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72089A79-3CDA-403E-B10C-170E55E77B53}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66DDCA0-CAA8-48DF-83E9-F0C266CF081C}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="27"/>
-    <col min="7" max="7" width="18.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="27"/>
-    <col min="11" max="11" width="14.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="21.375" style="27" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="27"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>265</v>
-      </c>
+    <row r="1" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="84"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="68">
+        <v>0</v>
+      </c>
+      <c r="F3" s="68">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B4" s="84" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="84"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA534968-A95B-4F30-9DED-1BE061A398E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFAC4C-706E-409E-9D7E-1E49AF5AA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4365" yWindow="555" windowWidth="19260" windowHeight="14100" tabRatio="898" firstSheet="2" activeTab="2" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-3570" yWindow="975" windowWidth="19260" windowHeight="14100" tabRatio="898" firstSheet="2" activeTab="2" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -2019,6 +2019,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2060,12 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3287,13 +3287,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="75" t="s">
+      <c r="E27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="77" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3305,16 +3305,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="72" t="s">
+      <c r="K27" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="72" t="s">
+      <c r="L27" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="69" t="s">
+      <c r="M27" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="71"/>
+      <c r="N27" s="73"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3323,9 +3323,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3335,9 +3335,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="72" t="s">
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="74" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3351,9 +3351,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3363,9 +3363,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="73"/>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3377,21 +3377,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="75"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="73"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3403,11 +3403,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="75"/>
-      <c r="F31" s="75" t="s">
+      <c r="E31" s="77"/>
+      <c r="F31" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="75" t="s">
+      <c r="G31" s="77" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3419,9 +3419,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="73"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3433,9 +3433,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3445,14 +3445,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="73"/>
-      <c r="L32" s="72" t="s">
+      <c r="K32" s="75"/>
+      <c r="L32" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="69" t="s">
+      <c r="M32" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="71"/>
+      <c r="N32" s="73"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3461,9 +3461,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3473,12 +3473,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="73"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="69" t="s">
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="71"/>
+      <c r="N33" s="73"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3487,9 +3487,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3499,25 +3499,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="73"/>
-      <c r="L34" s="72" t="s">
+      <c r="K34" s="75"/>
+      <c r="L34" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="69" t="s">
+      <c r="M34" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="71"/>
+      <c r="N34" s="73"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="76" t="s">
+      <c r="P34" s="78" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3527,21 +3527,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="73"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="69" t="s">
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="71"/>
+      <c r="N35" s="73"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="76"/>
+      <c r="P35" s="78"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75" t="s">
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3553,21 +3553,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="69" t="s">
+      <c r="K36" s="75"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="71"/>
+      <c r="N36" s="73"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="76"/>
+      <c r="P36" s="78"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3577,8 +3577,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="72" t="s">
+      <c r="K37" s="75"/>
+      <c r="L37" s="74" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3595,9 +3595,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75" t="s">
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3609,8 +3609,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="73"/>
-      <c r="L38" s="74"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="76"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3625,9 +3625,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3637,12 +3637,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="74"/>
-      <c r="L39" s="69" t="s">
+      <c r="K39" s="76"/>
+      <c r="L39" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="70"/>
-      <c r="N39" s="71"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3651,14 +3651,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="75"/>
-      <c r="F40" s="75" t="s">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="75" t="s">
+      <c r="G40" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="75"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3667,12 +3667,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75" t="s">
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="75"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3681,8 +3681,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="75"/>
-      <c r="F42" s="75" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="77" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3699,8 +3699,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3715,12 +3715,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="75"/>
-      <c r="F44" s="75" t="s">
+      <c r="E44" s="77"/>
+      <c r="F44" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -5998,7 +5998,7 @@
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:H11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6014,10 +6014,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -6025,22 +6025,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -6061,10 +6061,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="79" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6087,8 +6087,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -6109,8 +6109,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -6128,8 +6128,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -6150,8 +6150,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -6172,8 +6172,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -6191,8 +6191,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -6210,8 +6210,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -6229,8 +6229,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="79" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6253,8 +6253,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -6275,8 +6275,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -6297,8 +6297,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -6319,8 +6319,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6340,8 +6340,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -6359,8 +6359,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -6378,8 +6378,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -6397,7 +6397,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
+      <c r="A29" s="79"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -6805,7 +6805,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="83" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -6832,7 +6832,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="81"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -6857,7 +6857,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -6881,7 +6881,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="81"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -6906,7 +6906,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="81"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -6950,7 +6950,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -6975,7 +6975,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -6997,7 +6997,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="81"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -7019,7 +7019,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -7044,7 +7044,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="81"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="81"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -7088,7 +7088,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -7113,7 +7113,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -7135,7 +7135,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -7154,7 +7154,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="83" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -7181,7 +7181,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -7203,7 +7203,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
+      <c r="A19" s="83"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -7225,7 +7225,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="83" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -7255,7 +7255,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
+      <c r="A21" s="83"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="83" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -7310,7 +7310,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
+      <c r="A23" s="83"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -7335,7 +7335,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
+      <c r="A24" s="83"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -7360,7 +7360,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
+      <c r="A25" s="83"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -7385,7 +7385,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -7410,7 +7410,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -7552,10 +7552,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="82"/>
+      <c r="I8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">
@@ -7664,7 +7664,7 @@
     <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="84" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="67" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7780,7 +7780,7 @@
       <c r="A1" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="69" t="s">
         <v>52</v>
       </c>
       <c r="C1" s="62" t="s">
@@ -7803,7 +7803,7 @@
       <c r="A2" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="70" t="s">
         <v>387</v>
       </c>
       <c r="C2" s="68" t="s">
@@ -7818,7 +7818,7 @@
       <c r="F2" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="84"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -7847,7 +7847,7 @@
       <c r="A4" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="70" t="s">
         <v>388</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -7862,7 +7862,7 @@
       <c r="F4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="84"/>
+      <c r="G4" s="70"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFFAC4C-706E-409E-9D7E-1E49AF5AA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35406391-86F6-404E-B45E-58C5A72D282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3570" yWindow="975" windowWidth="19260" windowHeight="14100" tabRatio="898" firstSheet="2" activeTab="2" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" firstSheet="2" activeTab="12" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,11 @@
     <sheet name="소속 테이블" sheetId="14" r:id="rId9"/>
     <sheet name="유저 DB 테이블" sheetId="4" r:id="rId10"/>
     <sheet name="유저 DB" sheetId="9" r:id="rId11"/>
-    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId12"/>
-    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId13"/>
-    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId14"/>
+    <sheet name="유저 Card 테이블" sheetId="16" r:id="rId12"/>
+    <sheet name="유저 Card DB" sheetId="15" r:id="rId13"/>
+    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId14"/>
+    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId15"/>
+    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="401">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1563,6 +1565,38 @@
   </si>
   <si>
     <t>종족설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 보유 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Holding Check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 보유량' ≥ 1 시 True</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 시 True, 확인 시 False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀 레어, 실버 레어, 골드 레어, 슈퍼 레어, 울트라 레어 보유량의 총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자(4자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,7 +1845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2025,13 +2059,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2042,12 +2088,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2066,6 +2106,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3287,13 +3330,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="77" t="s">
+      <c r="E27" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="73" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3305,16 +3348,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="74" t="s">
+      <c r="K27" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="71" t="s">
+      <c r="M27" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="73"/>
+      <c r="N27" s="76"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -3323,9 +3366,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3335,9 +3378,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="74" t="s">
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="78" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3351,9 +3394,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3363,9 +3406,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3377,21 +3420,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77" t="s">
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="73"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3403,11 +3446,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="77"/>
-      <c r="F31" s="77" t="s">
+      <c r="E31" s="73"/>
+      <c r="F31" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="73" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3419,9 +3462,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3433,9 +3476,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3445,14 +3488,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="74" t="s">
+      <c r="K32" s="79"/>
+      <c r="L32" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="71" t="s">
+      <c r="M32" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="73"/>
+      <c r="N32" s="76"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -3461,9 +3504,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3473,12 +3516,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="71" t="s">
+      <c r="K33" s="79"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="73"/>
+      <c r="N33" s="76"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -3487,9 +3530,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3499,25 +3542,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="75"/>
-      <c r="L34" s="74" t="s">
+      <c r="K34" s="79"/>
+      <c r="L34" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="71" t="s">
+      <c r="M34" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="73"/>
+      <c r="N34" s="76"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="78" t="s">
+      <c r="P34" s="74" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3527,21 +3570,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="71" t="s">
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="73"/>
+      <c r="N35" s="76"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="78"/>
+      <c r="P35" s="74"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77" t="s">
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3553,21 +3596,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="75"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="71" t="s">
+      <c r="K36" s="79"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="73"/>
+      <c r="N36" s="76"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="78"/>
+      <c r="P36" s="74"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3577,8 +3620,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="75"/>
-      <c r="L37" s="74" t="s">
+      <c r="K37" s="79"/>
+      <c r="L37" s="78" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3595,9 +3638,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77" t="s">
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3609,8 +3652,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="75"/>
-      <c r="L38" s="76"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="80"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3625,9 +3668,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3637,12 +3680,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="76"/>
-      <c r="L39" s="71" t="s">
+      <c r="K39" s="80"/>
+      <c r="L39" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="73"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="76"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -3651,14 +3694,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="77"/>
-      <c r="F40" s="77" t="s">
+      <c r="E40" s="73"/>
+      <c r="F40" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="77" t="s">
+      <c r="G40" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="77"/>
+      <c r="H40" s="73"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3667,12 +3710,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77" t="s">
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="77"/>
+      <c r="H41" s="73"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3681,8 +3724,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="77"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="73"/>
+      <c r="F42" s="73" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3699,8 +3742,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3715,12 +3758,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="77"/>
-      <c r="F44" s="77" t="s">
+      <c r="E44" s="73"/>
+      <c r="F44" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3730,6 +3773,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -3746,17 +3800,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4073,11 +4116,5831 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8C9F-ED82-4199-A277-15B9B10D1C28}">
+  <dimension ref="A1:G1032203"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" style="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="23"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>400</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="2"/>
+      <c r="G21" s="71"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="2"/>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="2"/>
+      <c r="G23" s="71"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="2"/>
+      <c r="G24" s="71"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="2"/>
+      <c r="G25" s="71"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="2"/>
+      <c r="G26" s="71"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="2"/>
+      <c r="G27" s="71"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="2"/>
+      <c r="G28" s="71"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="2"/>
+      <c r="G29" s="71"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="2"/>
+      <c r="G30" s="71"/>
+    </row>
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="2"/>
+      <c r="G31" s="71"/>
+    </row>
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="2"/>
+      <c r="G32" s="71"/>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="2"/>
+      <c r="G33" s="71"/>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="2"/>
+      <c r="G34" s="71"/>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35" s="2"/>
+      <c r="G35" s="71"/>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36" s="2"/>
+      <c r="G36" s="71"/>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="2"/>
+      <c r="G37" s="71"/>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="2"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="16386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16386" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16386" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16387" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16387" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16388" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B16388" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16389" s="16"/>
+      <c r="B16389" s="23"/>
+    </row>
+    <row r="16390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16390" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16390" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16391" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16391" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16392" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16392" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16393" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16393" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16394" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16394" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16395" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16395" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32770" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32770" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32771" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32771" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32772" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32772" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32773" s="16"/>
+      <c r="B32773" s="23"/>
+    </row>
+    <row r="32774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32774" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B32774" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32775" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32775" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32776" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32776" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32777" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32777" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32778" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B32778" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32779" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32779" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49154" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49154" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49155" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B49155" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="49156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49156" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B49156" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49157" s="16"/>
+      <c r="B49157" s="23"/>
+    </row>
+    <row r="49158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49158" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B49158" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49159" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49159" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49160" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49160" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="49161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49161" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49161" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49162" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B49162" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49163" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49163" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65538" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65538" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65539" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B65539" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="65540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65540" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65540" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65541" s="16"/>
+      <c r="B65541" s="23"/>
+    </row>
+    <row r="65542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65542" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B65542" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65543" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B65543" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65544" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B65544" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65545" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65545" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65546" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65546" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65547" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65547" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81922" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81922" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81923" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B81923" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81924" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81924" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="81925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81925" s="16"/>
+      <c r="B81925" s="23"/>
+    </row>
+    <row r="81926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81926" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81926" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81927" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B81927" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="81928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81928" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81928" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="81929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81929" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81929" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81930" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B81930" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81931" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81931" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98306" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98306" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98307" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B98307" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="98308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98308" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B98308" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="98309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98309" s="16"/>
+      <c r="B98309" s="23"/>
+    </row>
+    <row r="98310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98310" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98310" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98311" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B98311" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="98312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98312" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B98312" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="98313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98313" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98313" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98314" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B98314" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98315" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98315" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114690" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B114690" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114691" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B114691" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="114692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114692" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B114692" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="114693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114693" s="16"/>
+      <c r="B114693" s="23"/>
+    </row>
+    <row r="114694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114694" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114694" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="114695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114695" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B114695" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="114696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114696" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114696" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114697" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B114697" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114698" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114698" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114699" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B114699" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131074" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B131074" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="131075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131075" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131075" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="131076" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131076" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B131076" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="131077" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131077" s="16"/>
+      <c r="B131077" s="23"/>
+    </row>
+    <row r="131078" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131078" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131078" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="131079" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131079" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131079" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="131080" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131080" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B131080" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131081" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131081" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B131081" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="131082" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131082" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131082" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131083" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131083" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B131083" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147458" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B147458" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="147459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147459" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B147459" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="147460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147460" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B147460" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147461" s="16"/>
+      <c r="B147461" s="23"/>
+    </row>
+    <row r="147462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147462" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147462" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="147463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147463" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147463" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147464" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B147464" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147465" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B147465" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147466" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147466" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147467" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B147467" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="163842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163842" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163842" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163843" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B163843" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="163844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163844" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B163844" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163845" s="16"/>
+      <c r="B163845" s="23"/>
+    </row>
+    <row r="163846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163846" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163846" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="163847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163847" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163847" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="163848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163848" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B163848" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="163849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163849" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163849" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163850" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163850" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="163851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163851" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163851" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180226" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B180226" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="180227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180227" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180227" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="180228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180228" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B180228" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="180229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180229" s="16"/>
+      <c r="B180229" s="23"/>
+    </row>
+    <row r="180230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180230" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B180230" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="180231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180231" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B180231" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="180232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180232" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B180232" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180233" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B180233" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180234" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B180234" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180235" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B180235" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196610" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196610" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="196611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196611" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B196611" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="196612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196612" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B196612" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="196613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196613" s="16"/>
+      <c r="B196613" s="23"/>
+    </row>
+    <row r="196614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196614" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B196614" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="196615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196615" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B196615" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="196616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196616" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B196616" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="196617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196617" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B196617" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="196618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196618" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B196618" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="196619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196619" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B196619" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="212994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212994" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B212994" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212995" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B212995" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="212996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212996" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B212996" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212997" s="16"/>
+      <c r="B212997" s="23"/>
+    </row>
+    <row r="212998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212998" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B212998" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212999" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B212999" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="213000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213000" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B213000" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="213001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213001" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B213001" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="213002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213002" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B213002" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="213003" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213003" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B213003" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="229378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229378" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B229378" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="229379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229379" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B229379" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="229380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229380" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B229380" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="229381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229381" s="16"/>
+      <c r="B229381" s="23"/>
+    </row>
+    <row r="229382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229382" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B229382" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="229383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229383" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B229383" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="229384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229384" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B229384" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="229385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229385" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B229385" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="229386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229386" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B229386" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="229387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229387" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B229387" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="245762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245762" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B245762" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="245763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245763" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B245763" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="245764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245764" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B245764" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="245765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245765" s="16"/>
+      <c r="B245765" s="23"/>
+    </row>
+    <row r="245766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245766" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B245766" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="245767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245767" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B245767" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="245768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245768" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B245768" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="245769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245769" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B245769" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="245770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245770" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B245770" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="245771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245771" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B245771" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="262146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262146" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B262146" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262147" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B262147" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="262148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262148" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B262148" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="262149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262149" s="16"/>
+      <c r="B262149" s="23"/>
+    </row>
+    <row r="262150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262150" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B262150" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="262151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262151" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B262151" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="262152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262152" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B262152" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="262153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262153" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B262153" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="262154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262154" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B262154" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="262155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262155" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B262155" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="278530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278530" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B278530" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="278531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278531" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B278531" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="278532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278532" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B278532" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="278533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278533" s="16"/>
+      <c r="B278533" s="23"/>
+    </row>
+    <row r="278534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278534" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B278534" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="278535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278535" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B278535" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="278536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278536" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B278536" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="278537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278537" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B278537" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="278538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278538" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B278538" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="278539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278539" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B278539" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="294914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294914" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B294914" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="294915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294915" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B294915" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="294916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294916" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B294916" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="294917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294917" s="16"/>
+      <c r="B294917" s="23"/>
+    </row>
+    <row r="294918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294918" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B294918" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="294919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294919" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B294919" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="294920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294920" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B294920" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="294921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294921" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B294921" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="294922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294922" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B294922" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="294923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294923" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B294923" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="311298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311298" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B311298" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="311299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311299" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B311299" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="311300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311300" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B311300" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="311301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311301" s="16"/>
+      <c r="B311301" s="23"/>
+    </row>
+    <row r="311302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311302" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B311302" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="311303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311303" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B311303" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="311304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311304" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B311304" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="311305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311305" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B311305" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="311306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311306" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B311306" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="311307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311307" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B311307" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="327682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327682" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B327682" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="327683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327683" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B327683" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="327684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327684" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B327684" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="327685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327685" s="16"/>
+      <c r="B327685" s="23"/>
+    </row>
+    <row r="327686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327686" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B327686" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="327687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327687" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B327687" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="327688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327688" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B327688" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="327689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327689" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B327689" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="327690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327690" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B327690" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="327691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327691" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B327691" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="344066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344066" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B344066" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="344067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344067" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B344067" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="344068" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344068" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B344068" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="344069" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344069" s="16"/>
+      <c r="B344069" s="23"/>
+    </row>
+    <row r="344070" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344070" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B344070" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="344071" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344071" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B344071" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="344072" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344072" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B344072" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="344073" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344073" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B344073" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="344074" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344074" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B344074" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="344075" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344075" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B344075" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="360450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360450" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B360450" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="360451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360451" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B360451" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="360452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360452" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B360452" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="360453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360453" s="16"/>
+      <c r="B360453" s="23"/>
+    </row>
+    <row r="360454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360454" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B360454" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="360455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360455" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B360455" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360456" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B360456" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="360457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360457" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B360457" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="360458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360458" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B360458" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="360459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360459" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B360459" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="376834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376834" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B376834" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="376835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376835" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B376835" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="376836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376836" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B376836" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="376837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376837" s="16"/>
+      <c r="B376837" s="23"/>
+    </row>
+    <row r="376838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376838" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B376838" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="376839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376839" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B376839" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="376840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376840" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B376840" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="376841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376841" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B376841" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="376842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376842" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B376842" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="376843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376843" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B376843" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="393218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393218" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B393218" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="393219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393219" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393219" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="393220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393220" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393220" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="393221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393221" s="16"/>
+      <c r="B393221" s="23"/>
+    </row>
+    <row r="393222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393222" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B393222" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="393223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393223" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B393223" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="393224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393224" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B393224" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="393225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393225" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B393225" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="393226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393226" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B393226" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="393227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393227" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B393227" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="409602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409602" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B409602" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="409603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409603" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B409603" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="409604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409604" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B409604" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="409605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409605" s="16"/>
+      <c r="B409605" s="23"/>
+    </row>
+    <row r="409606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409606" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B409606" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="409607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409607" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B409607" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="409608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409608" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B409608" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="409609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409609" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B409609" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="409610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409610" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B409610" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="409611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409611" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B409611" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="425986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425986" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B425986" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="425987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425987" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B425987" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="425988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425988" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B425988" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="425989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425989" s="16"/>
+      <c r="B425989" s="23"/>
+    </row>
+    <row r="425990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425990" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B425990" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="425991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425991" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B425991" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="425992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425992" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B425992" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="425993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425993" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B425993" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="425994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425994" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B425994" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="425995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425995" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B425995" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="442370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442370" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B442370" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="442371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442371" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B442371" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="442372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442372" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B442372" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="442373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442373" s="16"/>
+      <c r="B442373" s="23"/>
+    </row>
+    <row r="442374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442374" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B442374" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="442375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442375" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B442375" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="442376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442376" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B442376" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="442377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442377" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B442377" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="442378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442378" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B442378" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="442379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442379" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B442379" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="458754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458754" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B458754" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="458755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458755" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B458755" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="458756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458756" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B458756" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="458757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458757" s="16"/>
+      <c r="B458757" s="23"/>
+    </row>
+    <row r="458758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458758" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B458758" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="458759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458759" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B458759" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="458760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458760" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B458760" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="458761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458761" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B458761" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="458762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458762" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B458762" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="458763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458763" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B458763" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="475138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475138" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B475138" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="475139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475139" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B475139" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="475140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475140" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B475140" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="475141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475141" s="16"/>
+      <c r="B475141" s="23"/>
+    </row>
+    <row r="475142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475142" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B475142" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="475143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475143" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B475143" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="475144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475144" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B475144" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="475145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475145" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B475145" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="475146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475146" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B475146" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="475147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475147" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B475147" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="491522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491522" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B491522" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="491523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491523" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B491523" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="491524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491524" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B491524" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="491525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491525" s="16"/>
+      <c r="B491525" s="23"/>
+    </row>
+    <row r="491526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491526" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B491526" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="491527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491527" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B491527" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="491528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491528" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B491528" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="491529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491529" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B491529" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="491530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491530" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B491530" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="491531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491531" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B491531" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="507906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507906" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B507906" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="507907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507907" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B507907" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="507908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507908" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B507908" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="507909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507909" s="16"/>
+      <c r="B507909" s="23"/>
+    </row>
+    <row r="507910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507910" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B507910" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="507911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507911" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B507911" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="507912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507912" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B507912" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="507913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507913" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B507913" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="507914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507914" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B507914" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="507915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507915" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B507915" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="524290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524290" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B524290" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="524291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524291" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B524291" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="524292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524292" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B524292" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="524293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524293" s="16"/>
+      <c r="B524293" s="23"/>
+    </row>
+    <row r="524294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524294" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B524294" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="524295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524295" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B524295" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="524296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524296" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B524296" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="524297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524297" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B524297" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="524298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524298" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B524298" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="524299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524299" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B524299" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="540674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540674" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B540674" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="540675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540675" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B540675" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="540676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540676" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B540676" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="540677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540677" s="16"/>
+      <c r="B540677" s="23"/>
+    </row>
+    <row r="540678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540678" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B540678" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="540679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540679" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B540679" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="540680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540680" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B540680" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="540681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540681" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B540681" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="540682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540682" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B540682" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="540683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540683" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B540683" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="557058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557058" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B557058" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="557059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557059" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B557059" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="557060" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557060" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B557060" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="557061" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557061" s="16"/>
+      <c r="B557061" s="23"/>
+    </row>
+    <row r="557062" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557062" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B557062" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="557063" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557063" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B557063" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="557064" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557064" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B557064" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="557065" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557065" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B557065" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="557066" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557066" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B557066" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="557067" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557067" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B557067" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="573442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573442" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B573442" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="573443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573443" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B573443" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="573444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573444" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B573444" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="573445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573445" s="16"/>
+      <c r="B573445" s="23"/>
+    </row>
+    <row r="573446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573446" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B573446" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="573447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573447" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B573447" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="573448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573448" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B573448" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="573449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573449" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B573449" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="573450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573450" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B573450" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="573451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573451" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B573451" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="589826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589826" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B589826" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="589827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589827" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B589827" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="589828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589828" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B589828" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="589829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589829" s="16"/>
+      <c r="B589829" s="23"/>
+    </row>
+    <row r="589830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589830" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B589830" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="589831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589831" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B589831" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="589832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589832" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B589832" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="589833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589833" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B589833" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="589834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589834" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B589834" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="589835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589835" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B589835" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="606210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606210" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B606210" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="606211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606211" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B606211" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="606212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606212" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B606212" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="606213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606213" s="16"/>
+      <c r="B606213" s="23"/>
+    </row>
+    <row r="606214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606214" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B606214" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="606215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606215" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B606215" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="606216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606216" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B606216" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="606217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606217" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B606217" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="606218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606218" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B606218" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="606219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606219" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B606219" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="622594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622594" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B622594" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="622595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622595" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B622595" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="622596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622596" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B622596" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="622597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622597" s="16"/>
+      <c r="B622597" s="23"/>
+    </row>
+    <row r="622598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622598" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B622598" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="622599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622599" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B622599" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="622600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622600" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B622600" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="622601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622601" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B622601" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="622602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622602" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B622602" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="622603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622603" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B622603" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="638978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638978" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B638978" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="638979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638979" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B638979" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="638980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638980" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B638980" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="638981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638981" s="16"/>
+      <c r="B638981" s="23"/>
+    </row>
+    <row r="638982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638982" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B638982" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="638983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638983" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B638983" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="638984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638984" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B638984" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="638985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638985" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B638985" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="638986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638986" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B638986" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="638987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638987" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B638987" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="655362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655362" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B655362" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="655363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655363" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B655363" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="655364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655364" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B655364" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="655365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655365" s="16"/>
+      <c r="B655365" s="23"/>
+    </row>
+    <row r="655366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655366" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B655366" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="655367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655367" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B655367" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="655368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655368" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B655368" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="655369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655369" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B655369" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="655370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655370" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B655370" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="655371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655371" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B655371" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="671746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671746" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B671746" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="671747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671747" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B671747" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="671748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671748" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B671748" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="671749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671749" s="16"/>
+      <c r="B671749" s="23"/>
+    </row>
+    <row r="671750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671750" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B671750" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="671751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671751" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B671751" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="671752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671752" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B671752" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="671753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671753" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B671753" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="671754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671754" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B671754" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="671755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671755" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B671755" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="688130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688130" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B688130" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="688131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688131" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B688131" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="688132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688132" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B688132" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="688133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688133" s="16"/>
+      <c r="B688133" s="23"/>
+    </row>
+    <row r="688134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688134" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B688134" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="688135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688135" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B688135" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="688136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688136" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B688136" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="688137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688137" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B688137" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="688138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688138" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B688138" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="688139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688139" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B688139" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="704514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704514" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B704514" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="704515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704515" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B704515" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="704516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704516" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B704516" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="704517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704517" s="16"/>
+      <c r="B704517" s="23"/>
+    </row>
+    <row r="704518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704518" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B704518" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="704519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704519" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B704519" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="704520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704520" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B704520" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="704521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704521" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B704521" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="704522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704522" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B704522" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="704523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704523" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B704523" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="720898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720898" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B720898" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="720899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720899" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B720899" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="720900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720900" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B720900" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="720901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720901" s="16"/>
+      <c r="B720901" s="23"/>
+    </row>
+    <row r="720902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720902" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B720902" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="720903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720903" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B720903" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="720904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720904" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B720904" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="720905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720905" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B720905" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="720906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720906" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B720906" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="720907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720907" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B720907" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="737282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737282" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B737282" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="737283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737283" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B737283" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="737284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737284" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B737284" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="737285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737285" s="16"/>
+      <c r="B737285" s="23"/>
+    </row>
+    <row r="737286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737286" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B737286" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="737287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737287" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B737287" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="737288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737288" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B737288" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="737289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737289" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B737289" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="737290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737290" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B737290" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="737291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737291" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B737291" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="753666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753666" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B753666" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="753667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753667" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B753667" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="753668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753668" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B753668" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="753669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753669" s="16"/>
+      <c r="B753669" s="23"/>
+    </row>
+    <row r="753670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753670" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B753670" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="753671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753671" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B753671" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="753672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753672" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B753672" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="753673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753673" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B753673" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="753674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753674" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B753674" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="753675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753675" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B753675" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="770050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770050" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B770050" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="770051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770051" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B770051" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="770052" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770052" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B770052" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="770053" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770053" s="16"/>
+      <c r="B770053" s="23"/>
+    </row>
+    <row r="770054" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770054" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B770054" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="770055" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770055" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B770055" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="770056" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770056" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B770056" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="770057" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770057" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B770057" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="770058" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770058" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B770058" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="770059" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770059" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B770059" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="786434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786434" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B786434" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="786435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786435" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B786435" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="786436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786436" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B786436" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="786437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786437" s="16"/>
+      <c r="B786437" s="23"/>
+    </row>
+    <row r="786438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786438" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B786438" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="786439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786439" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B786439" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="786440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786440" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B786440" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="786441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786441" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B786441" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="786442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786442" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B786442" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="786443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786443" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B786443" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="802818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802818" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B802818" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="802819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802819" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B802819" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="802820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802820" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B802820" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="802821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802821" s="16"/>
+      <c r="B802821" s="23"/>
+    </row>
+    <row r="802822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802822" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B802822" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="802823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802823" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B802823" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="802824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802824" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B802824" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="802825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802825" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B802825" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="802826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802826" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B802826" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="802827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802827" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B802827" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="819202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819202" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B819202" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="819203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819203" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B819203" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="819204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819204" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B819204" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="819205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819205" s="16"/>
+      <c r="B819205" s="23"/>
+    </row>
+    <row r="819206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819206" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B819206" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="819207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819207" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B819207" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="819208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819208" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B819208" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="819209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819209" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B819209" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="819210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819210" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B819210" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="819211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819211" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B819211" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="835586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835586" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B835586" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="835587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835587" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B835587" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="835588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835588" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B835588" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="835589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835589" s="16"/>
+      <c r="B835589" s="23"/>
+    </row>
+    <row r="835590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835590" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B835590" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="835591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835591" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B835591" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="835592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835592" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B835592" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="835593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835593" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B835593" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="835594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835594" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B835594" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="835595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835595" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B835595" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="851970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851970" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B851970" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="851971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851971" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B851971" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="851972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851972" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B851972" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="851973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851973" s="16"/>
+      <c r="B851973" s="23"/>
+    </row>
+    <row r="851974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851974" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B851974" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="851975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851975" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B851975" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="851976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851976" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B851976" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="851977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851977" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B851977" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="851978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851978" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B851978" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="851979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851979" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B851979" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="868354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868354" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B868354" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="868355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868355" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B868355" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="868356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868356" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B868356" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="868357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868357" s="16"/>
+      <c r="B868357" s="23"/>
+    </row>
+    <row r="868358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868358" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B868358" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="868359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868359" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B868359" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="868360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868360" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B868360" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="868361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868361" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B868361" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="868362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868362" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B868362" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="868363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868363" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B868363" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="884738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884738" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B884738" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="884739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884739" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B884739" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="884740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884740" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B884740" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="884741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884741" s="16"/>
+      <c r="B884741" s="23"/>
+    </row>
+    <row r="884742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884742" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B884742" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="884743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884743" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B884743" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="884744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884744" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B884744" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="884745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884745" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B884745" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="884746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884746" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B884746" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="884747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884747" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B884747" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="901122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901122" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B901122" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="901123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901123" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B901123" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="901124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901124" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B901124" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="901125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901125" s="16"/>
+      <c r="B901125" s="23"/>
+    </row>
+    <row r="901126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901126" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B901126" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="901127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901127" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B901127" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="901128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901128" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B901128" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="901129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901129" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B901129" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="901130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901130" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B901130" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="901131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901131" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B901131" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="917506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917506" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B917506" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="917507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917507" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B917507" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="917508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917508" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B917508" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="917509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917509" s="16"/>
+      <c r="B917509" s="23"/>
+    </row>
+    <row r="917510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917510" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B917510" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="917511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917511" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B917511" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="917512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917512" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B917512" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="917513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917513" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B917513" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="917514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917514" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B917514" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="917515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917515" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B917515" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="933890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933890" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B933890" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="933891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933891" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B933891" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="933892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933892" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B933892" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="933893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933893" s="16"/>
+      <c r="B933893" s="23"/>
+    </row>
+    <row r="933894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933894" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B933894" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="933895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933895" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B933895" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="933896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933896" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B933896" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="933897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933897" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B933897" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="933898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933898" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B933898" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="933899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933899" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B933899" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="950274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950274" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B950274" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="950275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950275" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B950275" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="950276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950276" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B950276" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="950277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950277" s="16"/>
+      <c r="B950277" s="23"/>
+    </row>
+    <row r="950278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950278" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B950278" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="950279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950279" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B950279" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="950280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950280" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B950280" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="950281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950281" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B950281" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="950282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950282" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B950282" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="950283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950283" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B950283" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="966658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966658" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B966658" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="966659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966659" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B966659" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="966660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966660" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B966660" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="966661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966661" s="16"/>
+      <c r="B966661" s="23"/>
+    </row>
+    <row r="966662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966662" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B966662" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="966663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966663" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B966663" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="966664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966664" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B966664" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="966665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966665" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B966665" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="966666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966666" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B966666" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="966667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966667" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B966667" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="983042" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983042" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B983042" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="983043" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983043" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B983043" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="983044" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983044" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B983044" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="983045" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983045" s="16"/>
+      <c r="B983045" s="23"/>
+    </row>
+    <row r="983046" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983046" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B983046" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="983047" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983047" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B983047" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="983048" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983048" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B983048" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="983049" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983049" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B983049" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="983050" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983050" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B983050" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="983051" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983051" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B983051" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="999426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999426" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B999426" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="999427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999427" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B999427" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="999428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999428" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B999428" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="999429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999429" s="16"/>
+      <c r="B999429" s="23"/>
+    </row>
+    <row r="999430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999430" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B999430" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="999431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999431" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B999431" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="999432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999432" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B999432" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="999433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999433" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B999433" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="999434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999434" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B999434" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="999435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999435" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B999435" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1015810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015810" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1015810" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1015811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015811" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1015811" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1015812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015812" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1015812" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1015813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015813" s="16"/>
+      <c r="B1015813" s="23"/>
+    </row>
+    <row r="1015814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015814" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1015814" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1015815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015815" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1015815" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1015816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015816" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1015816" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1015817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015817" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1015817" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1015818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015818" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1015818" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1015819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1015819" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1015819" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="1032194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032194" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1032194" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1032195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032195" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1032195" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1032196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032196" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1032196" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="1032197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032197" s="16"/>
+      <c r="B1032197" s="23"/>
+    </row>
+    <row r="1032198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032198" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1032198" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="1032199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032199" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1032199" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="1032200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032200" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1032200" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="1032201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032201" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1032201" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="1032202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032202" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1032202" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="1032203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1032203" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1032203" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76FE17-2B20-44FC-8C00-69B301B54089}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="20"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="20"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="20"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="20"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
   <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5438,7 +11301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC383F5-4855-4EBE-B9F7-715B010D4044}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -5501,7 +11364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -5997,8 +11860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72153495-9548-4082-9176-2E3A9CF38348}">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6014,10 +11877,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -6025,22 +11888,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -6061,10 +11924,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="81" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -6087,8 +11950,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -6109,8 +11972,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -6128,8 +11991,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="79"/>
-      <c r="B16" s="80"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -6150,8 +12013,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -6172,8 +12035,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -6191,8 +12054,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -6210,8 +12073,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -6229,8 +12092,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79" t="s">
+      <c r="A21" s="81"/>
+      <c r="B21" s="81" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -6253,8 +12116,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -6275,8 +12138,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="79"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -6297,8 +12160,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -6319,8 +12182,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80" t="s">
+      <c r="A25" s="81"/>
+      <c r="B25" s="82" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -6340,8 +12203,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="81"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -6359,8 +12222,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="81"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -6378,8 +12241,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -6397,7 +12260,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="79"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -6758,7 +12621,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6805,7 +12668,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -6832,7 +12695,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -6857,7 +12720,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="85" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -6881,7 +12744,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -6906,7 +12769,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -6928,7 +12791,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="83"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -6950,7 +12813,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -6975,7 +12838,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -6997,7 +12860,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -7019,7 +12882,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -7044,7 +12907,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -7066,7 +12929,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -7088,7 +12951,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -7113,7 +12976,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -7135,7 +12998,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="83"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -7154,7 +13017,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="85" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -7181,7 +13044,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -7203,7 +13066,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -7225,7 +13088,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="85" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -7255,7 +13118,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -7283,7 +13146,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="85" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -7310,7 +13173,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -7335,7 +13198,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
+      <c r="A24" s="85"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -7360,7 +13223,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -7385,7 +13248,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -7410,7 +13273,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -7552,10 +13415,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="84" t="s">
+      <c r="H8" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="84"/>
+      <c r="I8" s="86"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35406391-86F6-404E-B45E-58C5A72D282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA2E761-2E40-40C7-920D-0CFEE7B3E9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" firstSheet="2" activeTab="12" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" firstSheet="2" activeTab="11" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId1"/>
@@ -2065,19 +2065,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2088,6 +2085,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2106,9 +2109,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3330,13 +3330,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="73" t="s">
+      <c r="E27" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="73" t="s">
+      <c r="G27" s="80" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3348,13 +3348,13 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="78" t="s">
+      <c r="K27" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="78" t="s">
+      <c r="L27" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="75" t="s">
+      <c r="M27" s="74" t="s">
         <v>26</v>
       </c>
       <c r="N27" s="76"/>
@@ -3366,9 +3366,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -3378,9 +3378,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="78" t="s">
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="77" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -3394,9 +3394,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -3406,9 +3406,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -3420,21 +3420,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73" t="s">
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="73"/>
+      <c r="H30" s="80"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -3446,11 +3446,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="73"/>
-      <c r="F31" s="73" t="s">
+      <c r="E31" s="80"/>
+      <c r="F31" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="73" t="s">
+      <c r="G31" s="80" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3462,9 +3462,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="79"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -3476,9 +3476,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -3488,11 +3488,11 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="79"/>
-      <c r="L32" s="78" t="s">
+      <c r="K32" s="78"/>
+      <c r="L32" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="75" t="s">
+      <c r="M32" s="74" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="76"/>
@@ -3504,9 +3504,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -3516,9 +3516,9 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="79"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="75" t="s">
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="74" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="76"/>
@@ -3530,9 +3530,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -3542,25 +3542,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="79"/>
-      <c r="L34" s="78" t="s">
+      <c r="K34" s="78"/>
+      <c r="L34" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="75" t="s">
+      <c r="M34" s="74" t="s">
         <v>32</v>
       </c>
       <c r="N34" s="76"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="74" t="s">
+      <c r="P34" s="81" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -3570,21 +3570,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="75" t="s">
+      <c r="K35" s="78"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="74" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="76"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="74"/>
+      <c r="P35" s="81"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73" t="s">
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -3596,21 +3596,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="79"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="75" t="s">
+      <c r="K36" s="78"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="74" t="s">
         <v>34</v>
       </c>
       <c r="N36" s="76"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="74"/>
+      <c r="P36" s="81"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3620,8 +3620,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="79"/>
-      <c r="L37" s="78" t="s">
+      <c r="K37" s="78"/>
+      <c r="L37" s="77" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -3638,9 +3638,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73" t="s">
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -3652,8 +3652,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="79"/>
-      <c r="L38" s="80"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="79"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -3668,9 +3668,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -3680,11 +3680,11 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="80"/>
-      <c r="L39" s="75" t="s">
+      <c r="K39" s="79"/>
+      <c r="L39" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="77"/>
+      <c r="M39" s="75"/>
       <c r="N39" s="76"/>
       <c r="O39" s="5">
         <v>1</v>
@@ -3694,14 +3694,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="73"/>
-      <c r="F40" s="73" t="s">
+      <c r="E40" s="80"/>
+      <c r="F40" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="73" t="s">
+      <c r="G40" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="73"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -3710,12 +3710,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73" t="s">
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="73"/>
+      <c r="H41" s="80"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -3724,8 +3724,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="73"/>
-      <c r="F42" s="73" t="s">
+      <c r="E42" s="80"/>
+      <c r="F42" s="80" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -3742,8 +3742,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3758,12 +3758,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="73"/>
-      <c r="F44" s="73" t="s">
+      <c r="E44" s="80"/>
+      <c r="F44" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -3773,17 +3773,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -3800,6 +3789,17 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4119,8 +4119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8C9F-ED82-4199-A277-15B9B10D1C28}">
   <dimension ref="A1:G1032203"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4186,7 +4186,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="73" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9204,7 +9204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76FE17-2B20-44FC-8C00-69B301B54089}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -11877,10 +11877,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -11888,22 +11888,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82" t="s">
+      <c r="A12" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -11924,10 +11924,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="82" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -11950,8 +11950,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -11972,8 +11972,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="81"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -11991,8 +11991,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="81"/>
-      <c r="B16" s="82"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -12013,8 +12013,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="81"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -12035,8 +12035,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="82"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -12054,8 +12054,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="81"/>
-      <c r="B19" s="82"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -12073,8 +12073,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="81"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -12092,8 +12092,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81" t="s">
+      <c r="A21" s="82"/>
+      <c r="B21" s="82" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -12116,8 +12116,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -12138,8 +12138,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -12160,8 +12160,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -12182,8 +12182,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-      <c r="B25" s="82" t="s">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -12203,8 +12203,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="82"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -12222,8 +12222,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -12241,8 +12241,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -12260,7 +12260,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
+      <c r="A29" s="82"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -12668,7 +12668,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -12695,7 +12695,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -12720,7 +12720,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="86" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -12744,7 +12744,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -12769,7 +12769,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -12791,7 +12791,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
+      <c r="A7" s="86"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -12813,7 +12813,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -12838,7 +12838,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -12860,7 +12860,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -12882,7 +12882,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -12907,7 +12907,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -12929,7 +12929,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
+      <c r="A13" s="86"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -12951,7 +12951,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -12976,7 +12976,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
+      <c r="A16" s="86"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -13017,7 +13017,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="86" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -13044,7 +13044,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -13066,7 +13066,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="86" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -13118,7 +13118,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -13146,7 +13146,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="86" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -13173,7 +13173,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -13198,7 +13198,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -13223,7 +13223,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -13248,7 +13248,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -13273,7 +13273,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -13415,10 +13415,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="86"/>
+      <c r="I8" s="87"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C53730C-B303-4E72-A36D-81280FFD0271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE0198-2B9B-4540-ACD5-7F299A3001E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="1" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 효과 텍스트" sheetId="17" r:id="rId1"/>
-    <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId2"/>
-    <sheet name="카드 ID 규칙" sheetId="5" r:id="rId3"/>
-    <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId4"/>
-    <sheet name="카드 데이터 목록(Card Data List)" sheetId="8" r:id="rId5"/>
-    <sheet name="카드 필터 테이블" sheetId="3" r:id="rId6"/>
-    <sheet name="고유 키워드 테이블" sheetId="12" r:id="rId7"/>
-    <sheet name="고유 키워드 목록(Origin Ketword List)" sheetId="11" r:id="rId8"/>
-    <sheet name="종족 테이블" sheetId="13" r:id="rId9"/>
-    <sheet name="소속 테이블" sheetId="14" r:id="rId10"/>
-    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId11"/>
-    <sheet name="유저 DB" sheetId="9" r:id="rId12"/>
-    <sheet name="유저 Card 테이블" sheetId="16" r:id="rId13"/>
-    <sheet name="유저 Card DB" sheetId="15" r:id="rId14"/>
-    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId15"/>
-    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId16"/>
-    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId17"/>
+    <sheet name="효과 텍스트 속도" sheetId="18" r:id="rId2"/>
+    <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId3"/>
+    <sheet name="카드 ID 규칙" sheetId="5" r:id="rId4"/>
+    <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId5"/>
+    <sheet name="카드 데이터 목록(Card Data List)" sheetId="8" r:id="rId6"/>
+    <sheet name="카드 필터 테이블" sheetId="3" r:id="rId7"/>
+    <sheet name="고유 키워드 테이블" sheetId="12" r:id="rId8"/>
+    <sheet name="고유 키워드 목록(Origin Ketword List)" sheetId="11" r:id="rId9"/>
+    <sheet name="종족 테이블" sheetId="13" r:id="rId10"/>
+    <sheet name="소속 테이블" sheetId="14" r:id="rId11"/>
+    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId12"/>
+    <sheet name="유저 DB" sheetId="9" r:id="rId13"/>
+    <sheet name="유저 Card 테이블" sheetId="16" r:id="rId14"/>
+    <sheet name="유저 Card DB" sheetId="15" r:id="rId15"/>
+    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId16"/>
+    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId17"/>
+    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="442">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1601,18 +1602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1637,14 +1626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>피해 발생 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해 발생 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>턴 시작 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1725,15 +1706,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기물 명력 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>본인 턴 + 0.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>상대 턴 - 0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(32자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 없음, 1 = 턴 시작시, 2 = 턴 시작 후, 3 = 드로우 시, 4 = 드로우 후, 5 = 카드 사용 시, 6 = 기물 명령 시, 7 = 소환 시, 8 = 스킬 사용 시, 9 = 이벤트 발동 시, 10 = 전투 시, 11 = 이동 시, 12 = 스킬 효과 적용 시, 13 = 공격 시, 14 = 피격 시, 15 = 공격 후, 16 = 스킬 효과 적용 후, 17 = 피격 후, 18 = 카드 사용 후, 19 = 기물 명령 후, 20 = 소환 후, 21 = 스킬 사용 후, 22 = 이벤트 발동 후, 23 = 전투 후, 24 = 이동 후, 25 = 턴 종료 시, 26 = 턴 종료 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기물 명령 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과가 1개면 0으로 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Start Timing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect End Timing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Etc Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 타이밍 표 참조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2050,7 +2079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2273,46 +2302,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
@@ -2341,6 +2334,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3471,10 +3506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F5862-3BE2-4CE3-A882-CC5CEAE6B0AD}">
-  <dimension ref="A7:O52"/>
+  <dimension ref="A6:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3486,472 +3521,387 @@
     <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.625" customWidth="1"/>
+    <col min="15" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.3">
+        <v>430</v>
+      </c>
+      <c r="I7" t="s">
+        <v>436</v>
+      </c>
+      <c r="J7" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="75">
+        <v>0</v>
+      </c>
+      <c r="L7" s="75">
+        <v>0</v>
+      </c>
+      <c r="M7" s="75">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H8" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+      <c r="I8" t="s">
+        <v>437</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="K8" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>438</v>
+      </c>
+      <c r="J9" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="75">
+        <v>0</v>
+      </c>
+      <c r="L9" s="75">
+        <v>0</v>
+      </c>
+      <c r="M9" s="75">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>439</v>
+      </c>
+      <c r="J10" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="75">
+        <v>0</v>
+      </c>
+      <c r="L10" s="75">
+        <v>0</v>
+      </c>
+      <c r="M10" s="75">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H11" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>433</v>
-      </c>
-      <c r="C29" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K11" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="K12" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+    </row>
+    <row r="15" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+    </row>
+    <row r="16" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H17" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I17" t="s">
+        <v>436</v>
+      </c>
+      <c r="J17" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="75">
+        <v>0</v>
+      </c>
+      <c r="L17" s="75">
+        <v>0</v>
+      </c>
+      <c r="M17" s="75">
+        <v>6</v>
+      </c>
+      <c r="N17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H18" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="I18" t="s">
+        <v>437</v>
+      </c>
+      <c r="J18" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="K18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>438</v>
+      </c>
+      <c r="J19" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="75">
+        <v>0</v>
+      </c>
+      <c r="L19" s="75">
+        <v>0</v>
+      </c>
+      <c r="M19" s="75">
+        <v>26</v>
+      </c>
+      <c r="N19" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" t="s">
+        <v>439</v>
+      </c>
+      <c r="J20" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="75">
+        <v>0</v>
+      </c>
+      <c r="L20" s="75">
+        <v>0</v>
+      </c>
+      <c r="M20" s="75">
+        <v>26</v>
+      </c>
+      <c r="N20" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H22" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="I22" t="s">
+        <v>440</v>
+      </c>
+      <c r="J22" s="75" t="s">
+        <v>429</v>
+      </c>
+      <c r="K22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
-      <c r="B32" s="89" t="s">
-        <v>412</v>
-      </c>
-      <c r="C32" s="89" t="s">
-        <v>413</v>
-      </c>
-      <c r="D32" s="89" t="s">
-        <v>416</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>417</v>
-      </c>
-      <c r="F32" s="88" t="s">
-        <v>426</v>
-      </c>
-      <c r="G32" s="92"/>
-      <c r="H32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="88" t="s">
-        <v>430</v>
-      </c>
-      <c r="M32" s="92"/>
-      <c r="N32" s="89" t="s">
-        <v>414</v>
-      </c>
-      <c r="O32" s="89" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
-      <c r="B33" s="15">
-        <v>1</v>
-      </c>
-      <c r="C33" s="15">
-        <v>2</v>
-      </c>
-      <c r="D33" s="15">
-        <v>3</v>
-      </c>
-      <c r="E33" s="91">
-        <v>4</v>
-      </c>
-      <c r="F33" s="94">
-        <v>5</v>
-      </c>
-      <c r="G33" s="95"/>
-      <c r="H33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="94">
-        <v>11</v>
-      </c>
-      <c r="M33" s="95"/>
-      <c r="N33" s="15">
-        <v>13</v>
-      </c>
-      <c r="O33" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="89" t="s">
-        <v>418</v>
-      </c>
-      <c r="H34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="89" t="s">
-        <v>419</v>
-      </c>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="15">
-        <v>6</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="15">
-        <v>12</v>
-      </c>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="89" t="s">
-        <v>422</v>
-      </c>
-      <c r="H36" s="92" t="s">
-        <v>431</v>
-      </c>
-      <c r="K36" s="90" t="s">
-        <v>425</v>
-      </c>
-      <c r="L36" s="96"/>
-      <c r="M36" s="89" t="s">
-        <v>423</v>
-      </c>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="15">
-        <v>6</v>
-      </c>
-      <c r="H37" s="93">
-        <v>7</v>
-      </c>
-      <c r="K37" s="91">
-        <v>10</v>
-      </c>
-      <c r="L37" s="96"/>
-      <c r="M37" s="15">
-        <v>12</v>
-      </c>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="89" t="s">
-        <v>427</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="89" t="s">
-        <v>429</v>
-      </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="15">
-        <v>6</v>
-      </c>
-      <c r="H39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="15">
-        <v>12</v>
-      </c>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-    </row>
-    <row r="41" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="88" t="s">
-        <v>428</v>
-      </c>
-      <c r="G42" s="92"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="88" t="s">
-        <v>432</v>
-      </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-    </row>
-    <row r="43" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="94">
-        <v>5</v>
-      </c>
-      <c r="G43" s="95"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="94">
-        <v>11</v>
-      </c>
-      <c r="M43" s="95"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="89" t="s">
-        <v>409</v>
-      </c>
-      <c r="H44" s="92" t="s">
-        <v>404</v>
-      </c>
-      <c r="I44" s="89" t="s">
-        <v>410</v>
-      </c>
-      <c r="J44" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="K44" s="90" t="s">
-        <v>405</v>
-      </c>
-      <c r="L44" s="96"/>
-      <c r="M44" s="89" t="s">
-        <v>408</v>
-      </c>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="15">
-        <v>6</v>
-      </c>
-      <c r="H45" s="93">
-        <v>7</v>
-      </c>
-      <c r="I45" s="15">
-        <v>8</v>
-      </c>
-      <c r="J45" s="15">
-        <v>9</v>
-      </c>
-      <c r="K45" s="91">
-        <v>10</v>
-      </c>
-      <c r="L45" s="96"/>
-      <c r="M45" s="15">
-        <v>12</v>
-      </c>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="89" t="s">
-        <v>420</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="89" t="s">
-        <v>421</v>
-      </c>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="15">
-        <v>6</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="15">
-        <v>12</v>
-      </c>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="89" t="s">
-        <v>422</v>
-      </c>
-      <c r="H48" s="92" t="s">
-        <v>424</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="90" t="s">
-        <v>425</v>
-      </c>
-      <c r="L48" s="96"/>
-      <c r="M48" s="89" t="s">
-        <v>423</v>
-      </c>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="91"/>
-      <c r="G49" s="15">
-        <v>6</v>
-      </c>
-      <c r="H49" s="93">
-        <v>7</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="91">
-        <v>10</v>
-      </c>
-      <c r="L49" s="91"/>
-      <c r="M49" s="15">
-        <v>12</v>
-      </c>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
@@ -3970,14 +3920,6 @@
       <c r="N50" s="20"/>
       <c r="O50" s="20"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="K52" t="s">
-        <v>406</v>
-      </c>
-      <c r="L52" t="s">
-        <v>407</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3986,6 +3928,118 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC2B69-7636-4277-9E5D-AA8DB636965C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.375" style="70" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="67" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="68">
+        <v>0</v>
+      </c>
+      <c r="F3" s="68">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66DDCA0-CAA8-48DF-83E9-F0C266CF081C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -4095,7 +4149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4BDA6-A75A-4CD0-B541-2D711F682760}">
   <dimension ref="A1:K26"/>
   <sheetViews>
@@ -4302,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72089A79-3CDA-403E-B10C-170E55E77B53}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -4404,7 +4458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8C9F-ED82-4199-A277-15B9B10D1C28}">
   <dimension ref="A1:G1032203"/>
   <sheetViews>
@@ -9489,7 +9543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76FE17-2B20-44FC-8C00-69B301B54089}">
   <dimension ref="A1:J56"/>
   <sheetViews>
@@ -10224,7 +10278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
   <dimension ref="A1:G56"/>
   <sheetViews>
@@ -11590,7 +11644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC383F5-4855-4EBE-B9F7-715B010D4044}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -11653,7 +11707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -12074,6 +12128,456 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6635F9C0-D6D1-466C-8BEB-172F112AE75B}">
+  <dimension ref="D3:Q30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D13" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="E13" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="H13" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="I13" s="80"/>
+      <c r="J13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="76" t="s">
+        <v>425</v>
+      </c>
+      <c r="O13" s="80"/>
+      <c r="P13" s="77" t="s">
+        <v>409</v>
+      </c>
+      <c r="Q13" s="77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="15">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>3</v>
+      </c>
+      <c r="G14" s="79">
+        <v>4</v>
+      </c>
+      <c r="H14" s="82">
+        <v>5</v>
+      </c>
+      <c r="I14" s="83"/>
+      <c r="J14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="82">
+        <v>11</v>
+      </c>
+      <c r="O14" s="83"/>
+      <c r="P14" s="15">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="77" t="s">
+        <v>413</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="77" t="s">
+        <v>414</v>
+      </c>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="15">
+        <v>6</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="15">
+        <v>12</v>
+      </c>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="M17" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="N17" s="84"/>
+      <c r="O17" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="15">
+        <v>6</v>
+      </c>
+      <c r="J18" s="81">
+        <v>7</v>
+      </c>
+      <c r="M18" s="79">
+        <v>10</v>
+      </c>
+      <c r="N18" s="84"/>
+      <c r="O18" s="15">
+        <v>12</v>
+      </c>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="15">
+        <v>6</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="15">
+        <v>12</v>
+      </c>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="76" t="s">
+        <v>423</v>
+      </c>
+      <c r="I23" s="80"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="76" t="s">
+        <v>434</v>
+      </c>
+      <c r="O23" s="80"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="82">
+        <v>5</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="82">
+        <v>11</v>
+      </c>
+      <c r="O24" s="83"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="J25" s="80" t="s">
+        <v>401</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>403</v>
+      </c>
+      <c r="L25" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="M25" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="N25" s="84"/>
+      <c r="O25" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="15">
+        <v>6</v>
+      </c>
+      <c r="J26" s="81">
+        <v>7</v>
+      </c>
+      <c r="K26" s="15">
+        <v>8</v>
+      </c>
+      <c r="L26" s="15">
+        <v>9</v>
+      </c>
+      <c r="M26" s="79">
+        <v>10</v>
+      </c>
+      <c r="N26" s="84"/>
+      <c r="O26" s="15">
+        <v>12</v>
+      </c>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="77" t="s">
+        <v>415</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="15">
+        <v>6</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="15">
+        <v>12</v>
+      </c>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="J29" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="N29" s="84"/>
+      <c r="O29" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="15">
+        <v>6</v>
+      </c>
+      <c r="J30" s="81">
+        <v>7</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="79">
+        <v>10</v>
+      </c>
+      <c r="N30" s="79"/>
+      <c r="O30" s="15">
+        <v>12</v>
+      </c>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA1A161-0C4C-475C-B0F1-516A38CD99D8}">
   <dimension ref="E4:P44"/>
   <sheetViews>
@@ -12166,13 +12670,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="74" t="s">
+      <c r="E27" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="74" t="s">
+      <c r="G27" s="91" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -12184,16 +12688,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="79" t="s">
+      <c r="K27" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="79" t="s">
+      <c r="L27" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="76" t="s">
+      <c r="M27" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="77"/>
+      <c r="N27" s="87"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -12202,9 +12706,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -12214,9 +12718,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="79" t="s">
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="88" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -12230,9 +12734,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -12242,9 +12746,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -12256,21 +12760,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74" t="s">
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="74"/>
+      <c r="H30" s="91"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -12282,11 +12786,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="74"/>
-      <c r="F31" s="74" t="s">
+      <c r="E31" s="91"/>
+      <c r="F31" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="74" t="s">
+      <c r="G31" s="91" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -12298,9 +12802,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -12312,9 +12816,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -12324,14 +12828,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="80"/>
-      <c r="L32" s="79" t="s">
+      <c r="K32" s="89"/>
+      <c r="L32" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="76" t="s">
+      <c r="M32" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="77"/>
+      <c r="N32" s="87"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -12340,9 +12844,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -12352,12 +12856,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="80"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="76" t="s">
+      <c r="K33" s="89"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="77"/>
+      <c r="N33" s="87"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -12366,9 +12870,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -12378,25 +12882,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="80"/>
-      <c r="L34" s="79" t="s">
+      <c r="K34" s="89"/>
+      <c r="L34" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="76" t="s">
+      <c r="M34" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="77"/>
+      <c r="N34" s="87"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="75" t="s">
+      <c r="P34" s="92" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12406,21 +12910,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="76" t="s">
+      <c r="K35" s="89"/>
+      <c r="L35" s="89"/>
+      <c r="M35" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="77"/>
+      <c r="N35" s="87"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="75"/>
+      <c r="P35" s="92"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74" t="s">
+      <c r="E36" s="91"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -12432,21 +12936,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="80"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="76" t="s">
+      <c r="K36" s="89"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="77"/>
+      <c r="N36" s="87"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="75"/>
+      <c r="P36" s="92"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -12456,8 +12960,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="80"/>
-      <c r="L37" s="79" t="s">
+      <c r="K37" s="89"/>
+      <c r="L37" s="88" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -12474,9 +12978,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74" t="s">
+      <c r="E38" s="91"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -12488,8 +12992,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="80"/>
-      <c r="L38" s="81"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="90"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -12504,9 +13008,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -12516,12 +13020,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="81"/>
-      <c r="L39" s="76" t="s">
+      <c r="K39" s="90"/>
+      <c r="L39" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="78"/>
-      <c r="N39" s="77"/>
+      <c r="M39" s="86"/>
+      <c r="N39" s="87"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -12530,14 +13034,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="74"/>
-      <c r="F40" s="74" t="s">
+      <c r="E40" s="91"/>
+      <c r="F40" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="74" t="s">
+      <c r="G40" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="74"/>
+      <c r="H40" s="91"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -12546,12 +13050,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74" t="s">
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="74"/>
+      <c r="H41" s="91"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -12560,8 +13064,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="74"/>
-      <c r="F42" s="74" t="s">
+      <c r="E42" s="91"/>
+      <c r="F42" s="91" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -12578,8 +13082,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
+      <c r="E43" s="91"/>
+      <c r="F43" s="91"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -12594,12 +13098,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="74"/>
-      <c r="F44" s="74" t="s">
+      <c r="E44" s="91"/>
+      <c r="F44" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -12609,17 +13113,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -12636,13 +13129,24 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C330B8B-7716-47B7-B95A-E7C6A0C56460}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -12714,12 +13218,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72153495-9548-4082-9176-2E3A9CF38348}">
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E30"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12735,10 +13239,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -12746,22 +13250,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83" t="s">
+      <c r="A12" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="83"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -12782,10 +13286,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="93" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -12808,8 +13312,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -12830,8 +13334,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -12849,8 +13353,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -12871,8 +13375,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -12893,8 +13397,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -12912,8 +13416,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -12931,8 +13435,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -12950,8 +13454,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82" t="s">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -12974,8 +13478,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -12996,8 +13500,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -13018,8 +13522,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -13040,8 +13544,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83" t="s">
+      <c r="A25" s="93"/>
+      <c r="B25" s="94" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -13061,8 +13565,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -13080,8 +13584,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -13099,8 +13603,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -13118,7 +13622,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -13158,7 +13662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BE4AE5-CC00-456F-97C8-6738E7AE37B6}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -13474,7 +13978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5928B3-5658-40D5-928F-81A696B143DF}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -13526,7 +14030,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="97" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -13553,7 +14057,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -13578,7 +14082,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="97" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -13602,7 +14106,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -13627,7 +14131,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -13649,7 +14153,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -13671,7 +14175,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -13696,7 +14200,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -13718,7 +14222,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -13740,7 +14244,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -13765,7 +14269,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -13787,7 +14291,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -13809,7 +14313,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -13834,7 +14338,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -13856,7 +14360,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -13875,7 +14379,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="97" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -13902,7 +14406,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -13924,7 +14428,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -13946,7 +14450,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="97" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -13976,7 +14480,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -14004,7 +14508,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="97" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -14031,7 +14535,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -14056,7 +14560,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -14081,7 +14585,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -14106,7 +14610,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -14131,7 +14635,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -14169,7 +14673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5993F062-1B6D-42AC-8A51-B80D4F3A6590}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -14273,10 +14777,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="98" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="98"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">
@@ -14304,7 +14808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBDA5C5-1E84-4FC4-BA50-59C258431472}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -14367,116 +14871,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC2B69-7636-4277-9E5D-AA8DB636965C}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="70" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="67" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>387</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>303</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="68">
-        <v>0</v>
-      </c>
-      <c r="F3" s="68">
-        <v>99</v>
-      </c>
-      <c r="G3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>388</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="68" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FE0198-2B9B-4540-ACD5-7F299A3001E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1B8FF-C7EF-4672-A10A-FECDB4DECC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" activeTab="1" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="4395" yWindow="465" windowWidth="24555" windowHeight="15090" tabRatio="900" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
-    <sheet name="카드 효과 텍스트" sheetId="17" r:id="rId1"/>
+    <sheet name="카드 효과 텍스트 테이블" sheetId="17" r:id="rId1"/>
     <sheet name="효과 텍스트 속도" sheetId="18" r:id="rId2"/>
     <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId3"/>
     <sheet name="카드 ID 규칙" sheetId="5" r:id="rId4"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="451">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1618,10 +1618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1638,10 +1634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>턴 종료 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>드로우 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1662,10 +1654,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 사용 시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1674,10 +1662,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스킬 효과 전용 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스킬 효과 적용 후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1714,18 +1698,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문자(32자)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건 텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1734,35 +1706,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기물 명령 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과가 1개면 0으로 표기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect Order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Condition Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect Start Timing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Effect End Timing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Etc Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과 타이밍 표 참조</t>
+    <t>타이밍 명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종류 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이밍 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 타입 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 숫자 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 요소 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 요소 수치 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 타입 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 타입 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 플레이어, 1 = 카드, 2 = 기물 카드, 3 = 스킬 카드, 4 = 이벤트 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 킹 클래스, 1 = 퀸 클래스, 2 = 나이트 클래스, 3 = 비숍 클래스, 4 = 루크 클래스, 5 = 폰 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 요소 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 필드 위, 1 = 손패, 2 = 묘지, 3 = 덱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 일치, 1 = 미만, 2 = 이하, 3 = 이상, 4 = 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 숫자, 1 = 체력, 2 = 공격력, 3 = 사거리, 4 = 이동 속도, 5 = 스킬 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00 = 피해를 받은 경우, 01 = 최대 체력인 경우, 02 = 공격을 한 경우, ······ 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 자신, 1 = 상대, 2 = 적군, 3 = 아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 요소의 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상의 숫자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1812,7 +1848,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2006,36 +2042,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2048,29 +2064,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2079,7 +2075,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2302,46 +2298,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2352,12 +2330,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2376,6 +2348,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3506,419 +3505,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F5862-3BE2-4CE3-A882-CC5CEAE6B0AD}">
-  <dimension ref="A6:O50"/>
+  <dimension ref="C5:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
-    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.625" customWidth="1"/>
-    <col min="15" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="98"/>
+    <col min="4" max="4" width="13" style="98" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="97" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="97" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="97" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="97" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="68.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="98" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="98" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="98" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="98" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.625" style="98" customWidth="1"/>
+    <col min="17" max="20" width="10.25" style="98" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="98"/>
   </cols>
   <sheetData>
-    <row r="6" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H6" s="8" t="s">
+    <row r="5" spans="4:15" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="97" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="F5" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="K6" s="74" t="s">
+      <c r="G5" s="97" t="s">
+        <v>438</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="74" t="s">
+      <c r="I5" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="98" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
+    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E7" s="98" t="s">
         <v>430</v>
       </c>
-      <c r="I7" t="s">
+      <c r="G7" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="97">
+        <v>0</v>
+      </c>
+      <c r="J7" s="97">
+        <v>3</v>
+      </c>
+      <c r="K7" s="98" t="s">
+        <v>444</v>
+      </c>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>440</v>
+      </c>
+      <c r="G8" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="97">
+        <v>0</v>
+      </c>
+      <c r="I8" s="97">
+        <v>0</v>
+      </c>
+      <c r="J8" s="97">
+        <v>3</v>
+      </c>
+      <c r="K8" s="98" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>431</v>
+      </c>
+      <c r="G9" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D10" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>439</v>
+      </c>
+      <c r="G10" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="98" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="98" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D12" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="98" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="J7" s="75" t="s">
+      <c r="G13" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="K7" s="75">
-        <v>0</v>
-      </c>
-      <c r="L7" s="75">
-        <v>0</v>
-      </c>
-      <c r="M7" s="75">
-        <v>6</v>
-      </c>
-      <c r="N7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
+      <c r="H13" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E14" s="98" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="98" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E15" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="I8" t="s">
-        <v>437</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="K8" s="75" t="s">
+      <c r="G15" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="75" t="s">
+      <c r="K15" s="98" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="98" t="s">
+        <v>425</v>
+      </c>
+      <c r="E16" s="98" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="M8" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>438</v>
-      </c>
-      <c r="J9" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="75">
-        <v>0</v>
-      </c>
-      <c r="L9" s="75">
-        <v>0</v>
-      </c>
-      <c r="M9" s="75">
-        <v>26</v>
-      </c>
-      <c r="N9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>439</v>
-      </c>
-      <c r="J10" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10" s="75">
-        <v>0</v>
-      </c>
-      <c r="L10" s="75">
-        <v>0</v>
-      </c>
-      <c r="M10" s="75">
-        <v>26</v>
-      </c>
-      <c r="N10" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="11" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="K11" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H12" t="s">
-        <v>431</v>
-      </c>
-      <c r="I12" t="s">
-        <v>440</v>
-      </c>
-      <c r="J12" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="K12" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="M12" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-    </row>
-    <row r="14" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-    </row>
-    <row r="15" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-    </row>
-    <row r="16" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H16" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="74" t="s">
-        <v>140</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="74" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H17" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="I17" t="s">
-        <v>436</v>
-      </c>
-      <c r="J17" s="75" t="s">
-        <v>85</v>
-      </c>
-      <c r="K17" s="75">
-        <v>0</v>
-      </c>
-      <c r="L17" s="75">
-        <v>0</v>
-      </c>
-      <c r="M17" s="75">
-        <v>6</v>
-      </c>
-      <c r="N17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H18" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="I18" t="s">
-        <v>437</v>
-      </c>
-      <c r="J18" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="K18" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="L18" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>438</v>
-      </c>
-      <c r="J19" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="75">
-        <v>0</v>
-      </c>
-      <c r="L19" s="75">
-        <v>0</v>
-      </c>
-      <c r="M19" s="75">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" t="s">
-        <v>439</v>
-      </c>
-      <c r="J20" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="75">
-        <v>0</v>
-      </c>
-      <c r="L20" s="75">
-        <v>0</v>
-      </c>
-      <c r="M20" s="75">
-        <v>26</v>
-      </c>
-      <c r="N20" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J21" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="K21" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H22" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I22" t="s">
-        <v>440</v>
-      </c>
-      <c r="J22" s="75" t="s">
-        <v>429</v>
-      </c>
-      <c r="K22" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="L22" s="75" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="75" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="K16" s="98" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="57"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="57"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="57"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="57"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="57"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="57"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="57"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="57"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="57"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="57"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="57"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="57"/>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="57"/>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="57"/>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="57"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C49" s="57"/>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C50" s="57"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C51" s="57"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C52" s="57"/>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12129,41 +12048,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6635F9C0-D6D1-466C-8BEB-172F112AE75B}">
-  <dimension ref="D3:Q30"/>
+  <dimension ref="A2:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E10" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>423</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -12179,401 +12095,624 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D13" s="77" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="91"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="91"/>
+      <c r="O16" s="91"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="91"/>
+      <c r="R16" s="91"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
+      <c r="N17" s="91"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="91"/>
+      <c r="R17" s="91"/>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D18" s="91"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
+      <c r="N18" s="91"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="91"/>
+      <c r="R18" s="91"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D19" s="91"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="91"/>
+      <c r="N19" s="91"/>
+      <c r="O19" s="91"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="91"/>
+      <c r="R19" s="91"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+      <c r="N20" s="91"/>
+      <c r="O20" s="91"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="91"/>
+      <c r="R20" s="91"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="91"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="91"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="91"/>
+      <c r="R22" s="91"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="91"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="91"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="91"/>
+      <c r="N23" s="91"/>
+      <c r="O23" s="91"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="91"/>
+      <c r="R23" s="91"/>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="91"/>
+      <c r="N24" s="91"/>
+      <c r="O24" s="91"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="91"/>
+      <c r="R24" s="91"/>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="91"/>
+      <c r="N25" s="91"/>
+      <c r="O25" s="91"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="91"/>
+      <c r="R25" s="91"/>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="91"/>
+      <c r="N26" s="91"/>
+      <c r="O26" s="91"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="91"/>
+      <c r="R26" s="91"/>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="91"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="91"/>
+      <c r="O27" s="91"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="91"/>
+      <c r="R27" s="91"/>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="91"/>
+      <c r="O28" s="91"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="91"/>
+      <c r="R28" s="91"/>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D29" s="91"/>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+    </row>
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+    </row>
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+    </row>
+    <row r="34" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="94" t="s">
+        <v>429</v>
+      </c>
+      <c r="D34" s="94">
+        <v>1</v>
+      </c>
+      <c r="E34" s="94">
+        <v>2</v>
+      </c>
+      <c r="F34" s="94">
+        <v>3</v>
+      </c>
+      <c r="G34" s="95">
+        <v>4</v>
+      </c>
+      <c r="H34" s="95">
+        <v>5</v>
+      </c>
+      <c r="I34" s="94">
+        <v>6</v>
+      </c>
+      <c r="J34" s="94">
+        <v>7</v>
+      </c>
+      <c r="K34" s="94">
+        <v>8</v>
+      </c>
+      <c r="L34" s="94">
+        <v>9</v>
+      </c>
+      <c r="M34" s="94">
+        <v>10</v>
+      </c>
+      <c r="N34" s="94">
+        <v>11</v>
+      </c>
+      <c r="O34" s="94">
+        <v>12</v>
+      </c>
+      <c r="P34" s="94">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="94">
+        <v>14</v>
+      </c>
+      <c r="R34" s="92">
+        <v>15</v>
+      </c>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+    </row>
+    <row r="35" spans="3:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="F35" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="G35" s="96" t="s">
+        <v>410</v>
+      </c>
+      <c r="H35" s="96" t="s">
+        <v>417</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="F13" s="77" t="s">
+      <c r="R35" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="96" t="s">
         <v>411</v>
       </c>
-      <c r="G13" s="78" t="s">
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14" t="s">
         <v>412</v>
       </c>
-      <c r="H13" s="76" t="s">
-        <v>421</v>
-      </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="O13" s="80"/>
-      <c r="P13" s="77" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q13" s="77" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="14" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
-        <v>2</v>
-      </c>
-      <c r="F14" s="15">
-        <v>3</v>
-      </c>
-      <c r="G14" s="79">
-        <v>4</v>
-      </c>
-      <c r="H14" s="82">
-        <v>5</v>
-      </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="82">
-        <v>11</v>
-      </c>
-      <c r="O14" s="83"/>
-      <c r="P14" s="15">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="77" t="s">
+      <c r="Q36" s="14"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="K37" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96" t="s">
+        <v>419</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="L40" s="96" t="s">
+        <v>403</v>
+      </c>
+      <c r="M40" s="96" t="s">
+        <v>404</v>
+      </c>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="77" t="s">
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="93"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="15">
-        <v>6</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="15">
-        <v>12</v>
-      </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="J17" s="80" t="s">
-        <v>426</v>
-      </c>
-      <c r="M17" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="N17" s="84"/>
-      <c r="O17" s="77" t="s">
-        <v>418</v>
-      </c>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="15">
-        <v>6</v>
-      </c>
-      <c r="J18" s="81">
-        <v>7</v>
-      </c>
-      <c r="M18" s="79">
-        <v>10</v>
-      </c>
-      <c r="N18" s="84"/>
-      <c r="O18" s="15">
-        <v>12</v>
-      </c>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="77" t="s">
+      <c r="K42" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="77" t="s">
-        <v>424</v>
-      </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="15">
-        <v>6</v>
-      </c>
-      <c r="J20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="15">
-        <v>12</v>
-      </c>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="76" t="s">
-        <v>423</v>
-      </c>
-      <c r="I23" s="80"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="76" t="s">
-        <v>434</v>
-      </c>
-      <c r="O23" s="80"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" spans="4:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="82">
-        <v>5</v>
-      </c>
-      <c r="I24" s="83"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="82">
-        <v>11</v>
-      </c>
-      <c r="O24" s="83"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="77" t="s">
-        <v>406</v>
-      </c>
-      <c r="J25" s="80" t="s">
-        <v>401</v>
-      </c>
-      <c r="K25" s="77" t="s">
-        <v>403</v>
-      </c>
-      <c r="L25" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="M25" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="N25" s="84"/>
-      <c r="O25" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="15">
-        <v>6</v>
-      </c>
-      <c r="J26" s="81">
-        <v>7</v>
-      </c>
-      <c r="K26" s="15">
-        <v>8</v>
-      </c>
-      <c r="L26" s="15">
-        <v>9</v>
-      </c>
-      <c r="M26" s="79">
-        <v>10</v>
-      </c>
-      <c r="N26" s="84"/>
-      <c r="O26" s="15">
-        <v>12</v>
-      </c>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="77" t="s">
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15" t="s">
         <v>415</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="77" t="s">
-        <v>416</v>
-      </c>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="15">
-        <v>6</v>
-      </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="15">
-        <v>12</v>
-      </c>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="77" t="s">
-        <v>417</v>
-      </c>
-      <c r="J29" s="80" t="s">
-        <v>419</v>
-      </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="N29" s="84"/>
-      <c r="O29" s="77" t="s">
-        <v>418</v>
-      </c>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-    </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="15">
-        <v>6</v>
-      </c>
-      <c r="J30" s="81">
-        <v>7</v>
-      </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="79">
-        <v>10</v>
-      </c>
-      <c r="N30" s="79"/>
-      <c r="O30" s="15">
-        <v>12</v>
-      </c>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12670,13 +12809,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="91" t="s">
+      <c r="E27" s="77" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="91" t="s">
+      <c r="G27" s="77" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -12688,16 +12827,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="88" t="s">
+      <c r="K27" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="88" t="s">
+      <c r="L27" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="85" t="s">
+      <c r="M27" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="80"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -12706,9 +12845,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -12718,9 +12857,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="88" t="s">
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="82" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -12734,9 +12873,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -12746,9 +12885,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -12760,21 +12899,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91" t="s">
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="91"/>
+      <c r="H30" s="77"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
+      <c r="K30" s="83"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="83"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -12786,11 +12925,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="91"/>
-      <c r="F31" s="91" t="s">
+      <c r="E31" s="77"/>
+      <c r="F31" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="91" t="s">
+      <c r="G31" s="77" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -12802,9 +12941,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -12816,9 +12955,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -12828,14 +12967,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="88" t="s">
+      <c r="K32" s="83"/>
+      <c r="L32" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="85" t="s">
+      <c r="M32" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="80"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -12844,9 +12983,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -12856,12 +12995,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="89"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="85" t="s">
+      <c r="K33" s="83"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="80"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -12870,9 +13009,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -12882,25 +13021,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="89"/>
-      <c r="L34" s="88" t="s">
+      <c r="K34" s="83"/>
+      <c r="L34" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="85" t="s">
+      <c r="M34" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="80"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="92" t="s">
+      <c r="P34" s="78" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -12910,21 +13049,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="89"/>
-      <c r="L35" s="89"/>
-      <c r="M35" s="85" t="s">
+      <c r="K35" s="83"/>
+      <c r="L35" s="83"/>
+      <c r="M35" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="80"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="92"/>
+      <c r="P35" s="78"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91" t="s">
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -12936,21 +13075,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="89"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="85" t="s">
+      <c r="K36" s="83"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="80"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="92"/>
+      <c r="P36" s="78"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -12960,8 +13099,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="89"/>
-      <c r="L37" s="88" t="s">
+      <c r="K37" s="83"/>
+      <c r="L37" s="82" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -12978,9 +13117,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91" t="s">
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -12992,8 +13131,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="89"/>
-      <c r="L38" s="90"/>
+      <c r="K38" s="83"/>
+      <c r="L38" s="84"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -13008,9 +13147,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -13020,12 +13159,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="90"/>
-      <c r="L39" s="85" t="s">
+      <c r="K39" s="84"/>
+      <c r="L39" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="86"/>
-      <c r="N39" s="87"/>
+      <c r="M39" s="81"/>
+      <c r="N39" s="80"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -13034,14 +13173,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="91"/>
-      <c r="F40" s="91" t="s">
+      <c r="E40" s="77"/>
+      <c r="F40" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="91"/>
+      <c r="H40" s="77"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -13050,12 +13189,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91" t="s">
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="91"/>
+      <c r="H41" s="77"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -13064,8 +13203,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="91"/>
-      <c r="F42" s="91" t="s">
+      <c r="E42" s="77"/>
+      <c r="F42" s="77" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -13082,8 +13221,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -13098,12 +13237,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="91"/>
-      <c r="F44" s="91" t="s">
+      <c r="E44" s="77"/>
+      <c r="F44" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -13113,6 +13252,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -13129,17 +13279,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13239,10 +13378,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -13250,22 +13389,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="86"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -13286,10 +13425,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93" t="s">
+      <c r="A13" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="85" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -13312,8 +13451,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -13334,8 +13473,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="93"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -13353,8 +13492,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -13375,8 +13514,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -13397,8 +13536,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -13416,8 +13555,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -13435,8 +13574,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -13454,8 +13593,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -13478,8 +13617,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="93"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -13500,8 +13639,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="86"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -13522,8 +13661,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="93"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -13544,8 +13683,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="93"/>
-      <c r="B25" s="94" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="86" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -13565,8 +13704,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="86"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -13584,8 +13723,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="93"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -13603,8 +13742,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -13622,7 +13761,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="93"/>
+      <c r="A29" s="85"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -14030,7 +14169,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="89" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -14057,7 +14196,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -14082,7 +14221,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="89" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -14106,7 +14245,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -14131,7 +14270,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
+      <c r="A6" s="89"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -14153,7 +14292,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -14175,7 +14314,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -14200,7 +14339,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -14222,7 +14361,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -14244,7 +14383,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
+      <c r="A11" s="89"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -14269,7 +14408,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -14291,7 +14430,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -14313,7 +14452,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -14338,7 +14477,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -14360,7 +14499,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
+      <c r="A16" s="89"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -14379,7 +14518,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="89" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -14406,7 +14545,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -14428,7 +14567,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -14450,7 +14589,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="89" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -14480,7 +14619,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -14508,7 +14647,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="89" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -14535,7 +14674,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
+      <c r="A23" s="89"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -14560,7 +14699,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
+      <c r="A24" s="89"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -14585,7 +14724,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -14610,7 +14749,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
+      <c r="A26" s="89"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -14635,7 +14774,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -14777,10 +14916,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="98"/>
+      <c r="I8" s="90"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B1B8FF-C7EF-4672-A10A-FECDB4DECC86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F62F8-9590-4BF6-917E-253573CE9AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="465" windowWidth="24555" windowHeight="15090" tabRatio="900" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 효과 텍스트 테이블" sheetId="17" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="538">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,26 +1702,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 = 없음, 1 = 턴 시작시, 2 = 턴 시작 후, 3 = 드로우 시, 4 = 드로우 후, 5 = 카드 사용 시, 6 = 기물 명령 시, 7 = 소환 시, 8 = 스킬 사용 시, 9 = 이벤트 발동 시, 10 = 전투 시, 11 = 이동 시, 12 = 스킬 효과 적용 시, 13 = 공격 시, 14 = 피격 시, 15 = 공격 후, 16 = 스킬 효과 적용 후, 17 = 피격 후, 18 = 카드 사용 후, 19 = 기물 명령 후, 20 = 소환 후, 21 = 스킬 사용 후, 22 = 이벤트 발동 후, 23 = 전투 후, 24 = 이동 후, 25 = 턴 종료 시, 26 = 턴 종료 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타이밍 명칭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>턴 종류 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타이밍 속도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대상 타입 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1734,18 +1722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상 요소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상 요소 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상 요소 수치 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건 유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1762,43 +1738,407 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 = 플레이어, 1 = 카드, 2 = 기물 카드, 3 = 스킬 카드, 4 = 이벤트 카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 = 킹 클래스, 1 = 퀸 클래스, 2 = 나이트 클래스, 3 = 비숍 클래스, 4 = 루크 클래스, 5 = 폰 클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상 요소 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = 필드 위, 1 = 손패, 2 = 묘지, 3 = 덱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 = 일치, 1 = 미만, 2 = 이하, 3 = 이상, 4 = 초과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 = 숫자, 1 = 체력, 2 = 공격력, 3 = 사거리, 4 = 이동 속도, 5 = 스킬 사거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00 = 피해를 받은 경우, 01 = 최대 체력인 경우, 02 = 공격을 한 경우, ······ 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = 자신, 1 = 상대, 2 = 적군, 3 = 아군</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상 요소의 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대상의 숫자</t>
+    <t>Condition Used</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Type 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Type 2</t>
+  </si>
+  <si>
+    <t>Target Type 3</t>
+  </si>
+  <si>
+    <t>Target Element Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Count Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Element Count Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이밍 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Start Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect End Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000 = 없음, 010 = 턴 시작 시, 020 = 턴 시작 후, 030 = 드로우 시, 040 = 드로우 후, 050 = 카드 사용 시, 051 = 기물 명령 시, 060 = 전투 시, 070 = 소환 시, 071 = 스킬 사용 시, 072 = 이벤트 발동 시, 073 = 공격 시, 074 = 이동 시, 080 = 스킬 효과 적용 시, 081 = 공격 후, 090 = 피격 시, 100 = 피격 후, 110 = 스킬 효과 적용 후, 120 = 카드 사용 후, 130 = 소환 후, 131 = 스킬 사용 후, 132 = 이벤트 발동 후, 140 = 턴 종료 시, 150 = 턴 종료 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 종료 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사거리 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 기물 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 기물 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 드로우 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 기물 타입 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 기물 타입 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환 기물 타입 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 손패, 1 = 묘지, 2 = 덱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 타입 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 타입 2</t>
+  </si>
+  <si>
+    <t>Effect Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP Enchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk Enchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range Enchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed Enchant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Piece Type 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Piece Type 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Piece Type 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Piece Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summon Piece Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Draw Card Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Card Type 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Card Type 2</t>
+  </si>
+  <si>
+    <t>Search Card Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 제약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 가능 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 제한 없음, 1 = 게임당 제한, 2= 턴당 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Limit Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 제한 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Limit-Game Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임당 제한 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴당 제한 숫자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Limit-turn Benchmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using Limit-turn Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자(3자)</t>
+  </si>
+  <si>
+    <t>숫자(4자)</t>
+  </si>
+  <si>
+    <t>효과 조건 장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Condition Location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyword Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 키워드 목록(Public Keyword List), 고유 키워드 목록(Origin Keyword List) 참조.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false = 공용 키워드, true = 고유 키워드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회복 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Healing Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damege Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 대상 불필요, 1 = 본인,  2 = 아군, 3 = 적군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false = 조건 불필요, true = 조건 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 장소 불필요, 1= 필드 위, 2 = 손패, 3 = 묘지, 4 = 덱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 1 = 체력, 2 = 공격력, 3 = 사거리, 4 = 속도</t>
+  </si>
+  <si>
+    <t>000 = 미사용, 010 = 턴 시작 시, 020 = 턴 시작 후, 030 = 드로우 시, 040 = 드로우 후, 050 = 카드 사용 시, 051 = 기물 명령 시, 060 = 전투 시, 070 = 소환 시, 071 = 스킬 사용 시, 072 = 이벤트 발동 시, 073 = 공격 시, 074 = 이동 시, 080 = 스킬 효과 적용 시, 081 = 공격 후, 090 = 피격 시, 100 = 피격 후, 110 = 스킬 효과 적용 후, 120 = 카드 사용 후, 130 = 소환 후, 131 = 스킬 사용 후, 132 = 이벤트 발동 후, 140 = 턴 종료 시, 150 = 턴 종료 후</t>
+  </si>
+  <si>
+    <t>대상 능력치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 능력치 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대상 능력치 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 대상 능력치 수치 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 대상에게 데미지.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 대상의 체력 회복.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 해당 능력치 부여.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자는 키워드 수치 만큼 부여.(키워드 수치 미 적용 키워드는 해당 항목 1로 고정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 1 = 해당 기물, 2 = 자신(아군), 3 = 상대(적군)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(대상 타입 1 = 1일 때 고정), 1 = 플레이어, 2 = 카드, 3 = 기물 카드, 4 = 스킬 카드, 5 = 이벤트 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(대상 타입 2 ≠ 3 or 4일 때 고정), 1 = 킹 클래스, 2 = 퀸 클래스, 3 = 나이트 클래스, 4 = 비숍 클래스, 5 = 루크 클래스, 6 = 폰 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 대상 타입에 모두 부합하는 대상 숫자(개수) 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 대상 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETC Target Condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 01 = 피해를 받은 경우, 02 = 최대 체력인 경우, 03 = 공격을 한 경우, ······ 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 메인 덱에서 카드 드로우.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 메인 덱에서 카드 서치 타입을 모두 부합하는 카드 숫자 만큼 서치.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 1 = 기물 카드, 2 = 이벤트 카드, 3 = 원하는 아무 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(카드 서치 타입 ≠ 1일때 고정), 1 = 킹 클래스, 2 = 퀸 클래스, 3 = 나이트 클래스, 4 = 비숍 클래스, 5 = 루크 클래스, 6 = 폰 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 범위 종족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 범위 소속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 범위 종족 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 서치 범위 소속 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2075,7 +2415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2307,6 +2647,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2348,33 +2736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3505,339 +3866,1086 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F5862-3BE2-4CE3-A882-CC5CEAE6B0AD}">
-  <dimension ref="C5:Q53"/>
+  <dimension ref="C5:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="98"/>
-    <col min="4" max="4" width="13" style="98" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="97" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="97" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="97" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="97" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="68.5" style="98" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="98" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="98" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="98" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="98" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.625" style="98" customWidth="1"/>
-    <col min="17" max="20" width="10.25" style="98" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="98"/>
+    <col min="1" max="3" width="9" style="86"/>
+    <col min="4" max="4" width="13" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="91" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="85" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="137.5" style="86" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="86" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="86" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="86" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="86" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.625" style="86" customWidth="1"/>
+    <col min="17" max="20" width="10.25" style="86" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="86"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:15" s="97" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="97" t="s">
+    <row r="5" spans="4:15" s="85" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="97" t="s">
+      <c r="E5" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F5" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="97" t="s">
+      <c r="G5" s="85" t="s">
+        <v>432</v>
+      </c>
+      <c r="H5" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="85" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="91" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>431</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="86" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="91"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="91"/>
+      <c r="E8" s="90" t="s">
+        <v>498</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>499</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="85">
+        <v>0</v>
+      </c>
+      <c r="J8" s="85">
+        <v>3</v>
+      </c>
+      <c r="K8" s="86" t="s">
+        <v>511</v>
+      </c>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D9" s="91"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D10" s="91"/>
+      <c r="E10" s="90" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="91" t="s">
         <v>438</v>
       </c>
-      <c r="H5" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="98" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>437</v>
-      </c>
-      <c r="G6" s="97" t="s">
+      <c r="G10" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="85">
+        <v>0</v>
+      </c>
+      <c r="I10" s="85">
+        <v>0</v>
+      </c>
+      <c r="J10" s="85">
+        <v>3</v>
+      </c>
+      <c r="K10" s="86" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D11" s="91"/>
+      <c r="E11" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>439</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="85">
+        <v>0</v>
+      </c>
+      <c r="J11" s="85">
+        <v>4</v>
+      </c>
+      <c r="K11" s="86" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D12" s="91"/>
+      <c r="E12" s="90" t="s">
+        <v>433</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>440</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="85">
+        <v>0</v>
+      </c>
+      <c r="J12" s="85">
+        <v>5</v>
+      </c>
+      <c r="K12" s="86" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D13" s="91"/>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D14" s="91"/>
+      <c r="E14" s="90" t="s">
+        <v>514</v>
+      </c>
+      <c r="F14" s="91" t="s">
+        <v>515</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="85">
+        <v>0</v>
+      </c>
+      <c r="J14" s="85">
+        <v>4</v>
+      </c>
+      <c r="K14" s="86" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D15" s="91"/>
+      <c r="E15" s="90" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="91" t="s">
+        <v>441</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="85">
+        <v>0</v>
+      </c>
+      <c r="J15" s="85">
+        <v>99</v>
+      </c>
+      <c r="K15" s="86" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D16" s="91"/>
+      <c r="E16" s="90" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>444</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="85">
+        <v>0</v>
+      </c>
+      <c r="J16" s="85">
+        <v>4</v>
+      </c>
+      <c r="K16" s="86" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="91"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="91"/>
+      <c r="E18" s="90" t="s">
+        <v>527</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>528</v>
+      </c>
+      <c r="G18" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="85">
+        <v>0</v>
+      </c>
+      <c r="J18" s="85">
+        <v>99</v>
+      </c>
+      <c r="K18" s="86" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19" s="91"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="91"/>
+      <c r="E20" s="90" t="s">
+        <v>429</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>442</v>
+      </c>
+      <c r="G20" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="85">
+        <v>0</v>
+      </c>
+      <c r="J20" s="85">
+        <v>99</v>
+      </c>
+      <c r="K20" s="86" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D21" s="91"/>
+      <c r="E21" s="90" t="s">
+        <v>430</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="85">
+        <v>0</v>
+      </c>
+      <c r="J21" s="85">
+        <v>4</v>
+      </c>
+      <c r="K21" s="86" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22" s="91"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="91" t="s">
+        <v>445</v>
+      </c>
+      <c r="E24" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="91" t="s">
+        <v>446</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="85">
+        <v>0</v>
+      </c>
+      <c r="I24" s="85">
+        <v>0</v>
+      </c>
+      <c r="J24" s="85">
+        <v>999</v>
+      </c>
+      <c r="K24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25" s="91"/>
+      <c r="E25" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="91" t="s">
+        <v>447</v>
+      </c>
+      <c r="G25" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="85">
+        <v>0</v>
+      </c>
+      <c r="I25" s="85">
+        <v>0</v>
+      </c>
+      <c r="J25" s="85">
+        <v>999</v>
+      </c>
+      <c r="K25" t="s">
+        <v>513</v>
+      </c>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E27" s="90" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D29" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="90" t="s">
+        <v>450</v>
+      </c>
+      <c r="F29" s="86" t="s">
+        <v>466</v>
+      </c>
+      <c r="G29" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I29" s="77">
+        <v>0</v>
+      </c>
+      <c r="J29" s="77">
+        <v>3</v>
+      </c>
+      <c r="K29" s="86" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="F30" s="86"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E31" s="90" t="s">
+        <v>505</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="G31" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="77">
+        <v>0</v>
+      </c>
+      <c r="J31" s="77">
+        <v>2</v>
+      </c>
+      <c r="K31" s="86" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E32" s="90" t="s">
+        <v>506</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>507</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H32" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" s="77">
+        <v>0</v>
+      </c>
+      <c r="J32" s="77">
+        <v>99</v>
+      </c>
+      <c r="K32" s="86" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E34" s="90" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="G34" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="77">
+        <v>-99</v>
+      </c>
+      <c r="J34" s="77">
+        <v>99</v>
+      </c>
+      <c r="K34" s="86" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E35" s="90" t="s">
+        <v>451</v>
+      </c>
+      <c r="F35" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="G35" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="88">
+        <v>-99</v>
+      </c>
+      <c r="J35" s="77">
+        <v>99</v>
+      </c>
+      <c r="K35" s="86" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E36" s="90" t="s">
+        <v>453</v>
+      </c>
+      <c r="F36" s="91" t="s">
+        <v>469</v>
+      </c>
+      <c r="G36" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="88">
+        <v>-99</v>
+      </c>
+      <c r="J36" s="77">
+        <v>99</v>
+      </c>
+      <c r="K36" s="86" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E37" s="90" t="s">
+        <v>454</v>
+      </c>
+      <c r="F37" s="91" t="s">
+        <v>470</v>
+      </c>
+      <c r="G37" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="88">
+        <v>-99</v>
+      </c>
+      <c r="J37" s="77">
+        <v>99</v>
+      </c>
+      <c r="K37" s="86" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E39" s="90" t="s">
+        <v>501</v>
+      </c>
+      <c r="F39" s="91" t="s">
+        <v>502</v>
+      </c>
+      <c r="G39" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="85">
+        <v>0</v>
+      </c>
+      <c r="I39" s="88">
+        <v>0</v>
+      </c>
+      <c r="J39" s="88">
+        <v>99</v>
+      </c>
+      <c r="K39" s="86" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E40" s="90" t="s">
+        <v>481</v>
+      </c>
+      <c r="F40" s="91" t="s">
+        <v>482</v>
+      </c>
+      <c r="G40" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="97" t="s">
+      <c r="H40" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="I40" s="85" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>430</v>
-      </c>
-      <c r="G7" s="97" t="s">
+      <c r="J40" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="86" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E41" s="90" t="s">
+        <v>459</v>
+      </c>
+      <c r="F41" s="91" t="s">
+        <v>471</v>
+      </c>
+      <c r="G41" s="85" t="s">
+        <v>383</v>
+      </c>
+      <c r="H41" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="77">
+        <v>0</v>
+      </c>
+      <c r="J41" s="77">
+        <v>9999</v>
+      </c>
+      <c r="K41" s="86" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E44" s="90" t="s">
+        <v>461</v>
+      </c>
+      <c r="F44" s="91" t="s">
+        <v>472</v>
+      </c>
+      <c r="G44" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="97" t="s">
+      <c r="H44" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="97">
-        <v>0</v>
-      </c>
-      <c r="J7" s="97">
-        <v>3</v>
-      </c>
-      <c r="K7" s="98" t="s">
-        <v>444</v>
-      </c>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D8" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>440</v>
-      </c>
-      <c r="G8" s="97" t="s">
+      <c r="I44" s="77">
+        <v>0</v>
+      </c>
+      <c r="J44" s="77">
+        <v>5</v>
+      </c>
+      <c r="K44" s="86" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E45" s="90" t="s">
+        <v>460</v>
+      </c>
+      <c r="F45" s="91" t="s">
+        <v>473</v>
+      </c>
+      <c r="G45" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H45" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" s="77">
+        <v>0</v>
+      </c>
+      <c r="J45" s="77">
+        <v>99</v>
+      </c>
+      <c r="K45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E46" s="90" t="s">
+        <v>462</v>
+      </c>
+      <c r="F46" s="91" t="s">
+        <v>474</v>
+      </c>
+      <c r="G46" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H46" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I46" s="77">
+        <v>0</v>
+      </c>
+      <c r="J46" s="77">
+        <v>99</v>
+      </c>
+      <c r="K46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="E47" s="90" t="s">
+        <v>455</v>
+      </c>
+      <c r="F47" s="91" t="s">
+        <v>475</v>
+      </c>
+      <c r="G47" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="97">
-        <v>0</v>
-      </c>
-      <c r="I8" s="97">
-        <v>0</v>
-      </c>
-      <c r="J8" s="97">
-        <v>3</v>
-      </c>
-      <c r="K8" s="98" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D9" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>431</v>
-      </c>
-      <c r="G9" s="97" t="s">
+      <c r="H47" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I47" s="77">
+        <v>0</v>
+      </c>
+      <c r="J47" s="77">
+        <v>2</v>
+      </c>
+      <c r="K47" s="86" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C48" s="57"/>
+      <c r="E48" s="90" t="s">
+        <v>456</v>
+      </c>
+      <c r="F48" s="91" t="s">
+        <v>476</v>
+      </c>
+      <c r="G48" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H48" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="77">
+        <v>0</v>
+      </c>
+      <c r="J48" s="77">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C49" s="57"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C50" s="57"/>
+      <c r="E50" s="90" t="s">
+        <v>457</v>
+      </c>
+      <c r="F50" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="G50" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I50" s="77">
+        <v>0</v>
+      </c>
+      <c r="J50" s="77">
+        <v>99</v>
+      </c>
+      <c r="K50" s="86" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C51" s="57"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C52" s="57"/>
+      <c r="E52" s="90" t="s">
+        <v>458</v>
+      </c>
+      <c r="F52" s="91" t="s">
+        <v>480</v>
+      </c>
+      <c r="G52" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I52" s="77">
+        <v>0</v>
+      </c>
+      <c r="J52" s="77">
+        <v>99</v>
+      </c>
+      <c r="K52" s="86" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C53" s="57"/>
+      <c r="E53" s="90" t="s">
+        <v>464</v>
+      </c>
+      <c r="F53" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="G53" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="H53" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="98" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D10" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="G10" s="97" t="s">
+      <c r="I53" s="77">
+        <v>0</v>
+      </c>
+      <c r="J53" s="77">
+        <v>1</v>
+      </c>
+      <c r="K53" s="86" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C54" s="57"/>
+      <c r="E54" s="90" t="s">
+        <v>465</v>
+      </c>
+      <c r="F54" s="91" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="97" t="s">
+      <c r="H54" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="98" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E11" s="98" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" s="97" t="s">
+      <c r="I54" s="77">
+        <v>0</v>
+      </c>
+      <c r="J54" s="77">
+        <v>5</v>
+      </c>
+      <c r="K54" s="86" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C55" s="57"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="88"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C56" s="57"/>
+      <c r="E56" s="90" t="s">
+        <v>534</v>
+      </c>
+      <c r="I56" s="88"/>
+      <c r="J56" s="88"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C57" s="57"/>
+      <c r="E57" s="90" t="s">
+        <v>536</v>
+      </c>
+      <c r="I57" s="88"/>
+      <c r="J57" s="88"/>
+      <c r="K57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C58" s="57"/>
+      <c r="E58" s="90" t="s">
+        <v>535</v>
+      </c>
+      <c r="I58" s="88"/>
+      <c r="J58" s="88"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C59" s="57"/>
+      <c r="E59" s="90" t="s">
+        <v>537</v>
+      </c>
+      <c r="I59" s="88"/>
+      <c r="J59" s="88"/>
+      <c r="K59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C60" s="57"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C61" s="57"/>
+      <c r="I61" s="88"/>
+      <c r="J61" s="88"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C62" s="57"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C63" s="57"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C64" s="57"/>
+      <c r="D64" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="E64" s="90" t="s">
+        <v>489</v>
+      </c>
+      <c r="F64" s="91" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="H11" s="97" t="s">
+      <c r="H64" s="77">
+        <v>0</v>
+      </c>
+      <c r="I64" s="77">
+        <v>0</v>
+      </c>
+      <c r="J64" s="77">
+        <v>2</v>
+      </c>
+      <c r="K64" s="86" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C65" s="57"/>
+      <c r="D65" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="E65" s="90" t="s">
+        <v>491</v>
+      </c>
+      <c r="F65" s="91" t="s">
+        <v>490</v>
+      </c>
+      <c r="G65" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="H65" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="98" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E12" s="98" t="s">
-        <v>435</v>
-      </c>
-      <c r="G12" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="97" t="s">
+      <c r="I65" s="77">
+        <v>0</v>
+      </c>
+      <c r="J65" s="77">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C66" s="57"/>
+      <c r="D66" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="E66" s="90" t="s">
+        <v>492</v>
+      </c>
+      <c r="F66" s="91" t="s">
+        <v>494</v>
+      </c>
+      <c r="G66" s="85" t="s">
+        <v>496</v>
+      </c>
+      <c r="H66" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="98" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E13" s="98" t="s">
-        <v>436</v>
-      </c>
-      <c r="G13" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="97" t="s">
+      <c r="I66" s="77">
+        <v>0</v>
+      </c>
+      <c r="J66" s="77">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C67" s="57"/>
+      <c r="D67" s="85" t="s">
+        <v>483</v>
+      </c>
+      <c r="E67" s="90" t="s">
+        <v>493</v>
+      </c>
+      <c r="F67" s="91" t="s">
+        <v>495</v>
+      </c>
+      <c r="G67" s="85" t="s">
+        <v>497</v>
+      </c>
+      <c r="H67" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="K13" s="98" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D14" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E14" s="98" t="s">
-        <v>443</v>
-      </c>
-      <c r="G14" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="98" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E15" s="98" t="s">
-        <v>432</v>
-      </c>
-      <c r="G15" s="97" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="98" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D16" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>433</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16" s="98" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
-      <c r="N19" s="99"/>
-      <c r="O19" s="99"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="57"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="57"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="57"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="57"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="57"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="57"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="57"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="57"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="57"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="57"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="57"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="57"/>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="57"/>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="57"/>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="57"/>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C49" s="57"/>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C50" s="57"/>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C51" s="57"/>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C52" s="57"/>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="76"/>
-      <c r="H53" s="76"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="76"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="57"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="57"/>
+      <c r="I67" s="77">
+        <v>0</v>
+      </c>
+      <c r="J67" s="77">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C68" s="57"/>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="77"/>
+    </row>
+    <row r="69" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C69" s="57"/>
+    </row>
+    <row r="70" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C70" s="57"/>
+    </row>
+    <row r="71" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C71" s="57"/>
+    </row>
+    <row r="72" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C72" s="57"/>
+    </row>
+    <row r="73" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C73" s="57"/>
+    </row>
+    <row r="74" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C74" s="57"/>
+    </row>
+    <row r="75" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C75" s="57"/>
+    </row>
+    <row r="76" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C76" s="57"/>
+    </row>
+    <row r="77" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C77" s="57"/>
+      <c r="D77" s="89"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="76"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12048,17 +13156,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6635F9C0-D6D1-466C-8BEB-172F112AE75B}">
-  <dimension ref="A2:T43"/>
+  <dimension ref="C12:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
@@ -12071,12 +13180,7 @@
     <col min="17" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>423</v>
       </c>
@@ -12095,379 +13199,379 @@
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>424</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="91"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="91"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="79"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
     </row>
     <row r="28" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
     </row>
     <row r="29" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
     </row>
     <row r="34" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="94" t="s">
-        <v>429</v>
-      </c>
-      <c r="D34" s="94">
+      <c r="C34" s="82" t="s">
+        <v>427</v>
+      </c>
+      <c r="D34" s="82">
         <v>1</v>
       </c>
-      <c r="E34" s="94">
+      <c r="E34" s="82">
         <v>2</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="82">
         <v>3</v>
       </c>
-      <c r="G34" s="95">
+      <c r="G34" s="83">
         <v>4</v>
       </c>
-      <c r="H34" s="95">
+      <c r="H34" s="83">
         <v>5</v>
       </c>
-      <c r="I34" s="94">
+      <c r="I34" s="82">
         <v>6</v>
       </c>
-      <c r="J34" s="94">
+      <c r="J34" s="82">
         <v>7</v>
       </c>
-      <c r="K34" s="94">
+      <c r="K34" s="82">
         <v>8</v>
       </c>
-      <c r="L34" s="94">
+      <c r="L34" s="82">
         <v>9</v>
       </c>
-      <c r="M34" s="94">
+      <c r="M34" s="82">
         <v>10</v>
       </c>
-      <c r="N34" s="94">
+      <c r="N34" s="82">
         <v>11</v>
       </c>
-      <c r="O34" s="94">
+      <c r="O34" s="82">
         <v>12</v>
       </c>
-      <c r="P34" s="94">
+      <c r="P34" s="82">
         <v>13</v>
       </c>
-      <c r="Q34" s="94">
+      <c r="Q34" s="82">
         <v>14</v>
       </c>
-      <c r="R34" s="92">
+      <c r="R34" s="80">
         <v>15</v>
       </c>
       <c r="S34" s="20"/>
@@ -12475,7 +13579,7 @@
     </row>
     <row r="35" spans="3:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C35" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>406</v>
@@ -12486,10 +13590,10 @@
       <c r="F35" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="G35" s="96" t="s">
+      <c r="G35" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="H35" s="96" t="s">
+      <c r="H35" s="84" t="s">
         <v>417</v>
       </c>
       <c r="I35" s="14"/>
@@ -12506,7 +13610,7 @@
         <v>408</v>
       </c>
       <c r="R35" s="75" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
@@ -12516,10 +13620,10 @@
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="84"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="96" t="s">
+      <c r="J36" s="84" t="s">
         <v>411</v>
       </c>
       <c r="K36" s="14"/>
@@ -12540,8 +13644,8 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14" t="s">
         <v>414</v>
@@ -12568,8 +13672,8 @@
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14" t="s">
         <v>418</v>
@@ -12592,8 +13696,8 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96" t="s">
+      <c r="G39" s="84"/>
+      <c r="H39" s="84" t="s">
         <v>419</v>
       </c>
       <c r="I39" s="14"/>
@@ -12614,8 +13718,8 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
       <c r="I40" s="14" t="s">
         <v>405</v>
       </c>
@@ -12625,10 +13729,10 @@
       <c r="K40" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="L40" s="96" t="s">
+      <c r="L40" s="84" t="s">
         <v>403</v>
       </c>
-      <c r="M40" s="96" t="s">
+      <c r="M40" s="84" t="s">
         <v>404</v>
       </c>
       <c r="N40" s="14"/>
@@ -12644,8 +13748,8 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14" t="s">
         <v>413</v>
@@ -12666,8 +13770,8 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="93"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
         <v>414</v>
@@ -12708,6 +13812,26 @@
       <c r="R43" s="20"/>
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>486</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12809,13 +13933,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="77" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="77" t="s">
+      <c r="E27" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="77" t="s">
+      <c r="G27" s="93" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -12827,16 +13951,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="82" t="s">
+      <c r="K27" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="82" t="s">
+      <c r="L27" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="79" t="s">
+      <c r="M27" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="80"/>
+      <c r="N27" s="96"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -12845,9 +13969,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -12857,9 +13981,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="82" t="s">
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="98" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -12873,9 +13997,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -12885,9 +14009,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -12899,21 +14023,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77" t="s">
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="77"/>
+      <c r="H30" s="93"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -12925,11 +14049,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="77"/>
-      <c r="F31" s="77" t="s">
+      <c r="E31" s="93"/>
+      <c r="F31" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="77" t="s">
+      <c r="G31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -12941,9 +14065,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="83"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -12955,9 +14079,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -12967,14 +14091,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="82" t="s">
+      <c r="K32" s="99"/>
+      <c r="L32" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="79" t="s">
+      <c r="M32" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="80"/>
+      <c r="N32" s="96"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -12983,9 +14107,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -12995,12 +14119,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="79" t="s">
+      <c r="K33" s="99"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="80"/>
+      <c r="N33" s="96"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -13009,9 +14133,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -13021,25 +14145,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="82" t="s">
+      <c r="K34" s="99"/>
+      <c r="L34" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="79" t="s">
+      <c r="M34" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="80"/>
+      <c r="N34" s="96"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="78" t="s">
+      <c r="P34" s="94" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -13049,21 +14173,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="79" t="s">
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="80"/>
+      <c r="N35" s="96"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="78"/>
+      <c r="P35" s="94"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77" t="s">
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -13075,21 +14199,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="83"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="79" t="s">
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="95" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="80"/>
+      <c r="N36" s="96"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="78"/>
+      <c r="P36" s="94"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -13099,8 +14223,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="83"/>
-      <c r="L37" s="82" t="s">
+      <c r="K37" s="99"/>
+      <c r="L37" s="98" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -13117,9 +14241,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77" t="s">
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="93" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -13131,8 +14255,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="84"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -13147,9 +14271,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="93"/>
+      <c r="G39" s="93"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -13159,12 +14283,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="84"/>
-      <c r="L39" s="79" t="s">
+      <c r="K39" s="100"/>
+      <c r="L39" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="81"/>
-      <c r="N39" s="80"/>
+      <c r="M39" s="97"/>
+      <c r="N39" s="96"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -13173,14 +14297,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="77"/>
-      <c r="F40" s="77" t="s">
+      <c r="E40" s="93"/>
+      <c r="F40" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="77" t="s">
+      <c r="G40" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="77"/>
+      <c r="H40" s="93"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -13189,12 +14313,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77" t="s">
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="77"/>
+      <c r="H41" s="93"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -13203,8 +14327,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="77"/>
-      <c r="F42" s="77" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="93" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -13221,8 +14345,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="93"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -13237,12 +14361,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="77"/>
-      <c r="F44" s="77" t="s">
+      <c r="E44" s="93"/>
+      <c r="F44" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -13362,7 +14486,7 @@
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H23" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13378,10 +14502,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -13389,22 +14513,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -13425,10 +14549,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="101" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -13451,8 +14575,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -13473,8 +14597,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="102"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -13492,8 +14616,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="85"/>
-      <c r="B16" s="86"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="102"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -13514,8 +14638,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="102"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -13536,8 +14660,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -13555,8 +14679,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -13574,8 +14698,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -13593,8 +14717,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="101" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -13617,8 +14741,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -13639,8 +14763,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="102"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -13661,8 +14785,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -13683,8 +14807,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86" t="s">
+      <c r="A25" s="101"/>
+      <c r="B25" s="102" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -13704,8 +14828,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="102"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -13723,8 +14847,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -13742,8 +14866,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -13761,7 +14885,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -14169,7 +15293,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="105" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -14196,7 +15320,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
+      <c r="A3" s="105"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -14221,7 +15345,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="105" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -14245,7 +15369,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
+      <c r="A5" s="105"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -14270,7 +15394,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
+      <c r="A6" s="105"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -14292,7 +15416,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -14314,7 +15438,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
+      <c r="A8" s="105"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -14339,7 +15463,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -14361,7 +15485,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
+      <c r="A10" s="105"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -14383,7 +15507,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
+      <c r="A11" s="105"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -14408,7 +15532,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
+      <c r="A12" s="105"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -14430,7 +15554,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
+      <c r="A13" s="105"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -14452,7 +15576,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
+      <c r="A14" s="105"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -14477,7 +15601,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
+      <c r="A15" s="105"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -14499,7 +15623,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
+      <c r="A16" s="105"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -14518,7 +15642,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="105" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -14545,7 +15669,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
+      <c r="A18" s="105"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -14567,7 +15691,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
+      <c r="A19" s="105"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -14589,7 +15713,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="89" t="s">
+      <c r="A20" s="105" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -14619,7 +15743,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
+      <c r="A21" s="105"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -14647,7 +15771,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="105" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -14674,7 +15798,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
+      <c r="A23" s="105"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -14699,7 +15823,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -14724,7 +15848,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -14749,7 +15873,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
+      <c r="A26" s="105"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -14774,7 +15898,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
+      <c r="A27" s="105"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -14916,10 +16040,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="90" t="s">
+      <c r="H8" s="106" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="90"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,29 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677F62F8-9590-4BF6-917E-253573CE9AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D92BCE-2700-46BB-BEB0-46EE0E5EED27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="900" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="729" firstSheet="10" activeTab="17" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 효과 텍스트 테이블" sheetId="17" r:id="rId1"/>
-    <sheet name="효과 텍스트 속도" sheetId="18" r:id="rId2"/>
-    <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId3"/>
-    <sheet name="카드 ID 규칙" sheetId="5" r:id="rId4"/>
-    <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId5"/>
-    <sheet name="카드 데이터 목록(Card Data List)" sheetId="8" r:id="rId6"/>
-    <sheet name="카드 필터 테이블" sheetId="3" r:id="rId7"/>
-    <sheet name="고유 키워드 테이블" sheetId="12" r:id="rId8"/>
-    <sheet name="고유 키워드 목록(Origin Ketword List)" sheetId="11" r:id="rId9"/>
-    <sheet name="종족 테이블" sheetId="13" r:id="rId10"/>
-    <sheet name="소속 테이블" sheetId="14" r:id="rId11"/>
-    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId12"/>
-    <sheet name="유저 DB" sheetId="9" r:id="rId13"/>
-    <sheet name="유저 Card 테이블" sheetId="16" r:id="rId14"/>
-    <sheet name="유저 Card DB" sheetId="15" r:id="rId15"/>
-    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId16"/>
-    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId17"/>
-    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId18"/>
+    <sheet name="타이밍 텍스트 규칙" sheetId="19" r:id="rId2"/>
+    <sheet name="효과 텍스트 속도" sheetId="18" r:id="rId3"/>
+    <sheet name="카드 텍스트 파워표" sheetId="1" r:id="rId4"/>
+    <sheet name="카드 ID 규칙" sheetId="5" r:id="rId5"/>
+    <sheet name="카드 데이터 테이블" sheetId="2" r:id="rId6"/>
+    <sheet name="카드 데이터 목록(Card Data List)" sheetId="8" r:id="rId7"/>
+    <sheet name="카드 필터 테이블" sheetId="3" r:id="rId8"/>
+    <sheet name="고유 키워드 테이블" sheetId="12" r:id="rId9"/>
+    <sheet name="고유 키워드 목록(Origin Ketword List)" sheetId="11" r:id="rId10"/>
+    <sheet name="종족 테이블" sheetId="13" r:id="rId11"/>
+    <sheet name="소속 테이블" sheetId="14" r:id="rId12"/>
+    <sheet name="제작, 분해 테이블" sheetId="20" r:id="rId13"/>
+    <sheet name="유저 DB 테이블" sheetId="4" r:id="rId14"/>
+    <sheet name="유저 DB" sheetId="9" r:id="rId15"/>
+    <sheet name="유저 Card 테이블" sheetId="16" r:id="rId16"/>
+    <sheet name="유저 Card DB" sheetId="15" r:id="rId17"/>
+    <sheet name="유저 Deck 테이블" sheetId="23" r:id="rId18"/>
+    <sheet name="유저 Deck DB" sheetId="22" r:id="rId19"/>
+    <sheet name="유저 DB_보유 카드 목록(Held Card List)" sheetId="6" r:id="rId20"/>
+    <sheet name="UI_ID 규칙" sheetId="10" r:id="rId21"/>
+    <sheet name="UI 목록(UI List)" sheetId="7" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="608">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1690,14 +1694,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>본인 턴 + 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상대 턴 - 0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건 텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1718,10 +1714,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대상 숫자 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조건 유무</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1768,10 +1760,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Target Count Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Target Element Count Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1788,10 +1776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000 = 없음, 010 = 턴 시작 시, 020 = 턴 시작 후, 030 = 드로우 시, 040 = 드로우 후, 050 = 카드 사용 시, 051 = 기물 명령 시, 060 = 전투 시, 070 = 소환 시, 071 = 스킬 사용 시, 072 = 이벤트 발동 시, 073 = 공격 시, 074 = 이동 시, 080 = 스킬 효과 적용 시, 081 = 공격 후, 090 = 피격 시, 100 = 피격 후, 110 = 스킬 효과 적용 후, 120 = 카드 사용 후, 130 = 소환 후, 131 = 스킬 사용 후, 132 = 이벤트 발동 후, 140 = 턴 종료 시, 150 = 턴 종료 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>턴 종료 후</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1832,10 +1816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>키워드 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소환 기물 타입 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1879,10 +1859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Keyword ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Summon Piece Type 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1918,30 +1894,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>키워드 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyword Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타 텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>턴 제약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준 턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 가능 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 = 제한 없음, 1 = 게임당 제한, 2= 턴당 제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1978,12 +1934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>숫자(3자)</t>
-  </si>
-  <si>
-    <t>숫자(4자)</t>
-  </si>
-  <si>
     <t>효과 조건 장소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1992,26 +1942,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>효과 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키워드 수치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyword Count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공용 키워드 목록(Public Keyword List), 고유 키워드 목록(Origin Keyword List) 참조.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false = 공용 키워드, true = 고유 키워드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데미지 수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2043,9 +1973,6 @@
     <t>0 = 미사용, 1 = 체력, 2 = 공격력, 3 = 사거리, 4 = 속도</t>
   </si>
   <si>
-    <t>000 = 미사용, 010 = 턴 시작 시, 020 = 턴 시작 후, 030 = 드로우 시, 040 = 드로우 후, 050 = 카드 사용 시, 051 = 기물 명령 시, 060 = 전투 시, 070 = 소환 시, 071 = 스킬 사용 시, 072 = 이벤트 발동 시, 073 = 공격 시, 074 = 이동 시, 080 = 스킬 효과 적용 시, 081 = 공격 후, 090 = 피격 시, 100 = 피격 후, 110 = 스킬 효과 적용 후, 120 = 카드 사용 후, 130 = 소환 후, 131 = 스킬 사용 후, 132 = 이벤트 발동 후, 140 = 턴 종료 시, 150 = 턴 종료 후</t>
-  </si>
-  <si>
     <t>대상 능력치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2078,10 +2005,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 = 미사용, 그 외에는 숫자는 키워드 수치 만큼 부여.(키워드 수치 미 적용 키워드는 해당 항목 1로 고정)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 = 미사용, 1 = 해당 기물, 2 = 자신(아군), 3 = 상대(적군)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2134,11 +2057,373 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카드 서치 범위 종족 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드 서치 범위 소속 ID</t>
+    <t>지정 카드 서치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designation Card Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에 숫자는 카드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Card Tribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Search Card Affiliation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tribe ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Affiliation ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종족 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false  = 미사용, true = 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 키워드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Keyword ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 키워드 목록(Public Keyword List) 참조.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드 목록(Origin Keyword List) 참조.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에 숫자는 게임당 입력 숫자 만큼 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에 숫자는 턴당 제한 숫자의 턴 기준으로 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에 숫자는 턴 기준(Using Limit-turn Benchmark)에 입력된 턴 동안 입력된 숫자 만큼 사용 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 구분 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Division Number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 보유 카드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect Holding Card ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 효과 보유 카드 ID(Effect Holding Card ID)에 종속된 효과가 1개 일 경우, 그 외에는 종속된 효과의 순서에 따라 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종속 대상 카드 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용 효과 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apply Effect Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용, 그 외에는 숫자 만큼 기물 카드 소환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 텍스트의 타이밍 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일한 타이밍 속도를 가진 효과 텍스트의 구분 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>031</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>051</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>072</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>073</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>074</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>081</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 효과 텍스트에 포함된 효과의 종류 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공용 키워드 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 키워드 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Public Keyword Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Origin Keyword Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(공용 키워드 목록(Public Keyword List) 항목이 0일 경우), 그 외에 숫자 만큼 공용 키워드 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(고유 키워드 목록(Origin Keyword List) 항목이 0일 경우), 그 외에 숫자 만큼 공용 키워드 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0  = 미사용, 그 외에 숫자는 타이밍 텍스트 규칙 및 효과 텍스트 속도 항목 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0  = 미사용(시작 타이밍(Effect Start Time) 항목이 0일 경우 0으로 고정), 그 외에 숫자는 타이밍 텍스트 규칙 및 효과 텍스트 속도 항목 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소유 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에픽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노멀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 소비 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해 획득 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construct Necessarry Frangment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Tire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Decomposition Gain Fragment </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레어도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Rarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 널, 1 = 레어, 2 = 에픽, 3 = 유니크, 4 = 레전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 노멀, 1 = 실버, 2 = 골드, 3 = 슈퍼, 4 = 울트라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱 아이콘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(16자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자(2048자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱 배치 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덱 배치 2</t>
+  </si>
+  <si>
+    <t>덱 배치 3</t>
+  </si>
+  <si>
+    <t>문자(1024자)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2146,7 +2431,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2179,16 +2464,42 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2409,13 +2720,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2644,15 +2979,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2677,8 +3003,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2686,28 +3024,130 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2718,6 +3158,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2738,7 +3184,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3866,1088 +4314,1218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F5862-3BE2-4CE3-A882-CC5CEAE6B0AD}">
-  <dimension ref="C5:Q86"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9" style="86"/>
-    <col min="4" max="4" width="13" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="90" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="85" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="137.5" style="86" customWidth="1"/>
-    <col min="12" max="12" width="11.5" style="86" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.625" style="86" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.875" style="86" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.375" style="86" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.625" style="86" customWidth="1"/>
-    <col min="17" max="20" width="10.25" style="86" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="86"/>
+    <col min="1" max="1" width="17.25" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="111" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="118" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.125" style="115" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="118" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="134.375" style="82" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="82" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="137.5" style="83" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="83" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.625" style="83" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.875" style="83" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" style="83" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.625" style="83" customWidth="1"/>
+    <col min="17" max="20" width="10.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="83"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:15" s="85" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="85" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="B1" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="C1" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="85" t="s">
+      <c r="D1" s="41" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="106" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="112" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="E2" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="97"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+    </row>
+    <row r="3" spans="1:15" s="99" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
+        <v>532</v>
+      </c>
+      <c r="B3" s="107" t="s">
+        <v>532</v>
+      </c>
+      <c r="C3" s="113" t="s">
+        <v>533</v>
+      </c>
+      <c r="D3" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="106">
+        <v>0</v>
+      </c>
+      <c r="F3" s="106">
+        <v>0</v>
+      </c>
+      <c r="G3" s="106">
+        <v>5</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>536</v>
+      </c>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+    </row>
+    <row r="4" spans="1:15" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="127" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>428</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="84" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="129"/>
+      <c r="B5" s="109" t="s">
+        <v>484</v>
+      </c>
+      <c r="C5" s="115" t="s">
+        <v>485</v>
+      </c>
+      <c r="D5" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="118">
+        <v>0</v>
+      </c>
+      <c r="G5" s="118">
+        <v>3</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="129"/>
+      <c r="B6" s="109" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="115" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="118">
+        <v>0</v>
+      </c>
+      <c r="F6" s="118">
+        <v>0</v>
+      </c>
+      <c r="G6" s="118">
+        <v>3</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+    </row>
+    <row r="7" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="129"/>
+      <c r="B7" s="109" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="118">
+        <v>0</v>
+      </c>
+      <c r="G7" s="118">
+        <v>4</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+    </row>
+    <row r="8" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="129"/>
+      <c r="B8" s="109" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="118">
+        <v>0</v>
+      </c>
+      <c r="G8" s="118">
+        <v>5</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="129"/>
+      <c r="B9" s="109" t="s">
+        <v>494</v>
+      </c>
+      <c r="C9" s="115" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="118">
+        <v>0</v>
+      </c>
+      <c r="G9" s="118">
+        <v>4</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>493</v>
+      </c>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+    </row>
+    <row r="10" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="129"/>
+      <c r="B10" s="109" t="s">
+        <v>496</v>
+      </c>
+      <c r="C10" s="115" t="s">
+        <v>438</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="118">
+        <v>0</v>
+      </c>
+      <c r="G10" s="118">
+        <v>99</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+    </row>
+    <row r="11" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="129"/>
+      <c r="B11" s="109" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" s="115" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="118">
+        <v>0</v>
+      </c>
+      <c r="G11" s="118">
+        <v>4</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+    </row>
+    <row r="12" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="129"/>
+      <c r="B12" s="109" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" s="115" t="s">
+        <v>507</v>
+      </c>
+      <c r="D12" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="118">
+        <v>0</v>
+      </c>
+      <c r="G12" s="118">
+        <v>99</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>508</v>
+      </c>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+    </row>
+    <row r="13" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="128"/>
+      <c r="B13" s="110" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="116" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="119">
+        <v>0</v>
+      </c>
+      <c r="G13" s="119">
+        <v>99</v>
+      </c>
+      <c r="H13" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+    </row>
+    <row r="14" spans="1:15" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="127" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>442</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="117">
+        <v>0</v>
+      </c>
+      <c r="F14" s="117">
+        <v>0</v>
+      </c>
+      <c r="G14" s="117">
+        <v>999</v>
+      </c>
+      <c r="H14" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+    </row>
+    <row r="15" spans="1:15" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="128"/>
+      <c r="B15" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="116" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="119">
+        <v>0</v>
+      </c>
+      <c r="F15" s="119">
+        <v>0</v>
+      </c>
+      <c r="G15" s="119">
+        <v>999</v>
+      </c>
+      <c r="H15" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+    </row>
+    <row r="16" spans="1:15" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>538</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="101" t="s">
+        <v>568</v>
+      </c>
+      <c r="I16" s="100"/>
+      <c r="J16" s="100"/>
+    </row>
+    <row r="17" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="129"/>
+      <c r="B17" s="109" t="s">
+        <v>445</v>
+      </c>
+      <c r="C17" s="111" t="s">
+        <v>460</v>
+      </c>
+      <c r="D17" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0</v>
+      </c>
+      <c r="G17" s="86">
+        <v>3</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>490</v>
+      </c>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+    </row>
+    <row r="18" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="129"/>
+      <c r="B18" s="109" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="115" t="s">
+        <v>489</v>
+      </c>
+      <c r="D18" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="86">
+        <v>0</v>
+      </c>
+      <c r="G18" s="86">
+        <v>2</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>499</v>
+      </c>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="129"/>
+      <c r="B19" s="109" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>488</v>
+      </c>
+      <c r="D19" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="86">
+        <v>0</v>
+      </c>
+      <c r="G19" s="86">
+        <v>99</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+    </row>
+    <row r="20" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="129"/>
+      <c r="B20" s="109" t="s">
+        <v>447</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>461</v>
+      </c>
+      <c r="D20" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="86">
+        <v>-99</v>
+      </c>
+      <c r="G20" s="86">
+        <v>99</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+    </row>
+    <row r="21" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="129"/>
+      <c r="B21" s="109" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="115" t="s">
+        <v>462</v>
+      </c>
+      <c r="D21" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="86">
+        <v>-99</v>
+      </c>
+      <c r="G21" s="86">
+        <v>99</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>501</v>
+      </c>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="129"/>
+      <c r="B22" s="109" t="s">
+        <v>448</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>463</v>
+      </c>
+      <c r="D22" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="86">
+        <v>-99</v>
+      </c>
+      <c r="G22" s="86">
+        <v>99</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="129"/>
+      <c r="B23" s="109" t="s">
+        <v>449</v>
+      </c>
+      <c r="C23" s="115" t="s">
+        <v>464</v>
+      </c>
+      <c r="D23" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="86">
+        <v>-99</v>
+      </c>
+      <c r="G23" s="86">
+        <v>99</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="129"/>
+      <c r="B24" s="109" t="s">
+        <v>525</v>
+      </c>
+      <c r="C24" s="115" t="s">
+        <v>526</v>
+      </c>
+      <c r="D24" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="86">
+        <v>0</v>
+      </c>
+      <c r="G24" s="86">
+        <v>9999</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="129"/>
+      <c r="B25" s="109" t="s">
+        <v>569</v>
+      </c>
+      <c r="C25" s="115" t="s">
+        <v>571</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="57" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="129"/>
+      <c r="B26" s="109" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="115" t="s">
+        <v>379</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>383</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="86">
+        <v>0</v>
+      </c>
+      <c r="G26" s="86">
+        <v>9999</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="129"/>
+      <c r="B27" s="109" t="s">
+        <v>570</v>
+      </c>
+      <c r="C27" s="115" t="s">
+        <v>572</v>
+      </c>
+      <c r="D27" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="57" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="129"/>
+      <c r="B28" s="109" t="s">
+        <v>455</v>
+      </c>
+      <c r="C28" s="115" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="86">
+        <v>0</v>
+      </c>
+      <c r="G28" s="86">
+        <v>5</v>
+      </c>
+      <c r="H28" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="H5" s="85" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="85" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="K5" s="85" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="91" t="s">
-        <v>425</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>431</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>437</v>
-      </c>
-      <c r="G6" s="85" t="s">
+    </row>
+    <row r="29" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="129"/>
+      <c r="B29" s="109" t="s">
+        <v>454</v>
+      </c>
+      <c r="C29" s="115" t="s">
+        <v>466</v>
+      </c>
+      <c r="D29" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="86">
+        <v>0</v>
+      </c>
+      <c r="G29" s="86">
+        <v>99</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="129"/>
+      <c r="B30" s="109" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="D30" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="86">
+        <v>0</v>
+      </c>
+      <c r="G30" s="86">
+        <v>99</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="129"/>
+      <c r="B31" s="109" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="D31" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="86">
+        <v>0</v>
+      </c>
+      <c r="G31" s="86">
+        <v>2</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="129"/>
+      <c r="B32" s="109" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" s="115" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="86">
+        <v>0</v>
+      </c>
+      <c r="G32" s="86">
+        <v>99</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="129"/>
+      <c r="B33" s="109" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33" s="115" t="s">
+        <v>470</v>
+      </c>
+      <c r="D33" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="86">
+        <v>0</v>
+      </c>
+      <c r="G33" s="86">
+        <v>99</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="129"/>
+      <c r="B34" s="109" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="115" t="s">
+        <v>473</v>
+      </c>
+      <c r="D34" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="86">
+        <v>0</v>
+      </c>
+      <c r="G34" s="86">
+        <v>99</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="129"/>
+      <c r="B35" s="109" t="s">
+        <v>458</v>
+      </c>
+      <c r="C35" s="115" t="s">
+        <v>471</v>
+      </c>
+      <c r="D35" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="86">
+        <v>0</v>
+      </c>
+      <c r="G35" s="86">
+        <v>1</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="129"/>
+      <c r="B36" s="109" t="s">
+        <v>459</v>
+      </c>
+      <c r="C36" s="115" t="s">
+        <v>472</v>
+      </c>
+      <c r="D36" s="118" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="86">
+        <v>0</v>
+      </c>
+      <c r="G36" s="86">
+        <v>5</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="129"/>
+      <c r="B37" s="109" t="s">
+        <v>515</v>
+      </c>
+      <c r="C37" s="115" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="118" t="s">
+        <v>233</v>
+      </c>
+      <c r="E37" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="129"/>
+      <c r="B38" s="109" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" s="115" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="85" t="s">
+      <c r="E38" s="118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="85" t="s">
+      <c r="G38" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="86" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="91"/>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D8" s="91"/>
-      <c r="E8" s="90" t="s">
-        <v>498</v>
-      </c>
-      <c r="F8" s="91" t="s">
-        <v>499</v>
-      </c>
-      <c r="G8" s="85" t="s">
+      <c r="H38" s="57" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="129"/>
+      <c r="B39" s="109" t="s">
+        <v>522</v>
+      </c>
+      <c r="C39" s="115" t="s">
+        <v>520</v>
+      </c>
+      <c r="D39" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="F39" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="129"/>
+      <c r="B40" s="109" t="s">
+        <v>514</v>
+      </c>
+      <c r="C40" s="115" t="s">
+        <v>519</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="128"/>
+      <c r="B41" s="110" t="s">
+        <v>523</v>
+      </c>
+      <c r="C41" s="116" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" s="105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="101" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="127" t="s">
+        <v>474</v>
+      </c>
+      <c r="B42" s="108" t="s">
+        <v>477</v>
+      </c>
+      <c r="C42" s="114" t="s">
+        <v>476</v>
+      </c>
+      <c r="D42" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="E42" s="85">
+        <v>0</v>
+      </c>
+      <c r="F42" s="85">
+        <v>0</v>
+      </c>
+      <c r="G42" s="85">
+        <v>2</v>
+      </c>
+      <c r="H42" s="101" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="129"/>
+      <c r="B43" s="109" t="s">
+        <v>479</v>
+      </c>
+      <c r="C43" s="115" t="s">
+        <v>478</v>
+      </c>
+      <c r="D43" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="85">
-        <v>0</v>
-      </c>
-      <c r="J8" s="85">
-        <v>3</v>
-      </c>
-      <c r="K8" s="86" t="s">
-        <v>511</v>
-      </c>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-    </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D9" s="91"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-    </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D10" s="91"/>
-      <c r="E10" s="90" t="s">
-        <v>434</v>
-      </c>
-      <c r="F10" s="91" t="s">
-        <v>438</v>
-      </c>
-      <c r="G10" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="85">
-        <v>0</v>
-      </c>
-      <c r="I10" s="85">
-        <v>0</v>
-      </c>
-      <c r="J10" s="85">
-        <v>3</v>
-      </c>
-      <c r="K10" s="86" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="91"/>
-      <c r="E11" s="90" t="s">
-        <v>428</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>439</v>
-      </c>
-      <c r="G11" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="85" t="s">
+      <c r="F43" s="86">
+        <v>0</v>
+      </c>
+      <c r="G43" s="86">
+        <v>99</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="129"/>
+      <c r="B44" s="109" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" s="115" t="s">
+        <v>482</v>
+      </c>
+      <c r="D44" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="85">
-        <v>0</v>
-      </c>
-      <c r="J11" s="85">
-        <v>4</v>
-      </c>
-      <c r="K11" s="86" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="91"/>
-      <c r="E12" s="90" t="s">
-        <v>433</v>
-      </c>
-      <c r="F12" s="91" t="s">
-        <v>440</v>
-      </c>
-      <c r="G12" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="85" t="s">
+      <c r="F44" s="86">
+        <v>0</v>
+      </c>
+      <c r="G44" s="86">
+        <v>99</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="104" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="128"/>
+      <c r="B45" s="110" t="s">
+        <v>481</v>
+      </c>
+      <c r="C45" s="116" t="s">
+        <v>483</v>
+      </c>
+      <c r="D45" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="85">
-        <v>0</v>
-      </c>
-      <c r="J12" s="85">
-        <v>5</v>
-      </c>
-      <c r="K12" s="86" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="91"/>
-    </row>
-    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D14" s="91"/>
-      <c r="E14" s="90" t="s">
-        <v>514</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>515</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="85">
-        <v>0</v>
-      </c>
-      <c r="J14" s="85">
-        <v>4</v>
-      </c>
-      <c r="K14" s="86" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="91"/>
-      <c r="E15" s="90" t="s">
-        <v>516</v>
-      </c>
-      <c r="F15" s="91" t="s">
-        <v>441</v>
-      </c>
-      <c r="G15" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="85">
-        <v>0</v>
-      </c>
-      <c r="J15" s="85">
+      <c r="F45" s="87">
+        <v>0</v>
+      </c>
+      <c r="G45" s="87">
         <v>99</v>
       </c>
-      <c r="K15" s="86" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D16" s="91"/>
-      <c r="E16" s="90" t="s">
-        <v>517</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>444</v>
-      </c>
-      <c r="G16" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="85">
-        <v>0</v>
-      </c>
-      <c r="J16" s="85">
-        <v>4</v>
-      </c>
-      <c r="K16" s="86" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D17" s="91"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D18" s="91"/>
-      <c r="E18" s="90" t="s">
-        <v>527</v>
-      </c>
-      <c r="F18" s="91" t="s">
-        <v>528</v>
-      </c>
-      <c r="G18" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="85">
-        <v>0</v>
-      </c>
-      <c r="J18" s="85">
-        <v>99</v>
-      </c>
-      <c r="K18" s="86" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D19" s="91"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D20" s="91"/>
-      <c r="E20" s="90" t="s">
-        <v>429</v>
-      </c>
-      <c r="F20" s="91" t="s">
-        <v>442</v>
-      </c>
-      <c r="G20" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I20" s="85">
-        <v>0</v>
-      </c>
-      <c r="J20" s="85">
-        <v>99</v>
-      </c>
-      <c r="K20" s="86" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D21" s="91"/>
-      <c r="E21" s="90" t="s">
-        <v>430</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>443</v>
-      </c>
-      <c r="G21" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H21" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="85">
-        <v>0</v>
-      </c>
-      <c r="J21" s="85">
-        <v>4</v>
-      </c>
-      <c r="K21" s="86" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D22" s="91"/>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D24" s="91" t="s">
-        <v>445</v>
-      </c>
-      <c r="E24" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="91" t="s">
-        <v>446</v>
-      </c>
-      <c r="G24" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="85">
-        <v>0</v>
-      </c>
-      <c r="I24" s="85">
-        <v>0</v>
-      </c>
-      <c r="J24" s="85">
-        <v>999</v>
-      </c>
-      <c r="K24" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D25" s="91"/>
-      <c r="E25" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="91" t="s">
-        <v>447</v>
-      </c>
-      <c r="G25" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="85">
-        <v>0</v>
-      </c>
-      <c r="I25" s="85">
-        <v>0</v>
-      </c>
-      <c r="J25" s="85">
-        <v>999</v>
-      </c>
-      <c r="K25" t="s">
-        <v>513</v>
-      </c>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-    </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="90" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D29" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="90" t="s">
-        <v>450</v>
-      </c>
-      <c r="F29" s="86" t="s">
-        <v>466</v>
-      </c>
-      <c r="G29" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H29" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="77">
-        <v>0</v>
-      </c>
-      <c r="J29" s="77">
-        <v>3</v>
-      </c>
-      <c r="K29" s="86" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="F30" s="86"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E31" s="90" t="s">
-        <v>505</v>
-      </c>
-      <c r="F31" s="91" t="s">
-        <v>508</v>
-      </c>
-      <c r="G31" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I31" s="77">
-        <v>0</v>
-      </c>
-      <c r="J31" s="77">
-        <v>2</v>
-      </c>
-      <c r="K31" s="86" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="E32" s="90" t="s">
-        <v>506</v>
-      </c>
-      <c r="F32" s="91" t="s">
-        <v>507</v>
-      </c>
-      <c r="G32" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="77">
-        <v>0</v>
-      </c>
-      <c r="J32" s="77">
-        <v>99</v>
-      </c>
-      <c r="K32" s="86" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E34" s="90" t="s">
-        <v>452</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>467</v>
-      </c>
-      <c r="G34" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="77">
-        <v>-99</v>
-      </c>
-      <c r="J34" s="77">
-        <v>99</v>
-      </c>
-      <c r="K34" s="86" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E35" s="90" t="s">
-        <v>451</v>
-      </c>
-      <c r="F35" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="G35" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="88">
-        <v>-99</v>
-      </c>
-      <c r="J35" s="77">
-        <v>99</v>
-      </c>
-      <c r="K35" s="86" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E36" s="90" t="s">
-        <v>453</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="G36" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I36" s="88">
-        <v>-99</v>
-      </c>
-      <c r="J36" s="77">
-        <v>99</v>
-      </c>
-      <c r="K36" s="86" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E37" s="90" t="s">
-        <v>454</v>
-      </c>
-      <c r="F37" s="91" t="s">
-        <v>470</v>
-      </c>
-      <c r="G37" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I37" s="88">
-        <v>-99</v>
-      </c>
-      <c r="J37" s="77">
-        <v>99</v>
-      </c>
-      <c r="K37" s="86" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E39" s="90" t="s">
-        <v>501</v>
-      </c>
-      <c r="F39" s="91" t="s">
-        <v>502</v>
-      </c>
-      <c r="G39" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="85">
-        <v>0</v>
-      </c>
-      <c r="I39" s="88">
-        <v>0</v>
-      </c>
-      <c r="J39" s="88">
-        <v>99</v>
-      </c>
-      <c r="K39" s="86" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E40" s="90" t="s">
-        <v>481</v>
-      </c>
-      <c r="F40" s="91" t="s">
-        <v>482</v>
-      </c>
-      <c r="G40" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="J40" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="86" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E41" s="90" t="s">
-        <v>459</v>
-      </c>
-      <c r="F41" s="91" t="s">
-        <v>471</v>
-      </c>
-      <c r="G41" s="85" t="s">
-        <v>383</v>
-      </c>
-      <c r="H41" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" s="77">
-        <v>0</v>
-      </c>
-      <c r="J41" s="77">
-        <v>9999</v>
-      </c>
-      <c r="K41" s="86" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E44" s="90" t="s">
-        <v>461</v>
-      </c>
-      <c r="F44" s="91" t="s">
-        <v>472</v>
-      </c>
-      <c r="G44" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I44" s="77">
-        <v>0</v>
-      </c>
-      <c r="J44" s="77">
-        <v>5</v>
-      </c>
-      <c r="K44" s="86" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E45" s="90" t="s">
-        <v>460</v>
-      </c>
-      <c r="F45" s="91" t="s">
-        <v>473</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I45" s="77">
-        <v>0</v>
-      </c>
-      <c r="J45" s="77">
-        <v>99</v>
-      </c>
-      <c r="K45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E46" s="90" t="s">
-        <v>462</v>
-      </c>
-      <c r="F46" s="91" t="s">
-        <v>474</v>
-      </c>
-      <c r="G46" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I46" s="77">
-        <v>0</v>
-      </c>
-      <c r="J46" s="77">
-        <v>99</v>
-      </c>
-      <c r="K46" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E47" s="90" t="s">
-        <v>455</v>
-      </c>
-      <c r="F47" s="91" t="s">
-        <v>475</v>
-      </c>
-      <c r="G47" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I47" s="77">
-        <v>0</v>
-      </c>
-      <c r="J47" s="77">
-        <v>2</v>
-      </c>
-      <c r="K47" s="86" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C48" s="57"/>
-      <c r="E48" s="90" t="s">
-        <v>456</v>
-      </c>
-      <c r="F48" s="91" t="s">
-        <v>476</v>
-      </c>
-      <c r="G48" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H48" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="77">
-        <v>0</v>
-      </c>
-      <c r="J48" s="77">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C49" s="57"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C50" s="57"/>
-      <c r="E50" s="90" t="s">
-        <v>457</v>
-      </c>
-      <c r="F50" s="91" t="s">
-        <v>477</v>
-      </c>
-      <c r="G50" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I50" s="77">
-        <v>0</v>
-      </c>
-      <c r="J50" s="77">
-        <v>99</v>
-      </c>
-      <c r="K50" s="86" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C51" s="57"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C52" s="57"/>
-      <c r="E52" s="90" t="s">
-        <v>458</v>
-      </c>
-      <c r="F52" s="91" t="s">
-        <v>480</v>
-      </c>
-      <c r="G52" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H52" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I52" s="77">
-        <v>0</v>
-      </c>
-      <c r="J52" s="77">
-        <v>99</v>
-      </c>
-      <c r="K52" s="86" t="s">
+      <c r="H45" s="104" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C53" s="57"/>
-      <c r="E53" s="90" t="s">
-        <v>464</v>
-      </c>
-      <c r="F53" s="91" t="s">
-        <v>478</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H53" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I53" s="77">
-        <v>0</v>
-      </c>
-      <c r="J53" s="77">
-        <v>1</v>
-      </c>
-      <c r="K53" s="86" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C54" s="57"/>
-      <c r="E54" s="90" t="s">
-        <v>465</v>
-      </c>
-      <c r="F54" s="91" t="s">
-        <v>479</v>
-      </c>
-      <c r="G54" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="77">
-        <v>0</v>
-      </c>
-      <c r="J54" s="77">
-        <v>5</v>
-      </c>
-      <c r="K54" s="86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C55" s="57"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="88"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C56" s="57"/>
-      <c r="E56" s="90" t="s">
-        <v>534</v>
-      </c>
-      <c r="I56" s="88"/>
-      <c r="J56" s="88"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C57" s="57"/>
-      <c r="E57" s="90" t="s">
-        <v>536</v>
-      </c>
-      <c r="I57" s="88"/>
-      <c r="J57" s="88"/>
-      <c r="K57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C58" s="57"/>
-      <c r="E58" s="90" t="s">
-        <v>535</v>
-      </c>
-      <c r="I58" s="88"/>
-      <c r="J58" s="88"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C59" s="57"/>
-      <c r="E59" s="90" t="s">
-        <v>537</v>
-      </c>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C60" s="57"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C61" s="57"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C62" s="57"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C63" s="57"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C64" s="57"/>
-      <c r="D64" s="85" t="s">
-        <v>483</v>
-      </c>
-      <c r="E64" s="90" t="s">
-        <v>489</v>
-      </c>
-      <c r="F64" s="91" t="s">
-        <v>488</v>
-      </c>
-      <c r="G64" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="H64" s="77">
-        <v>0</v>
-      </c>
-      <c r="I64" s="77">
-        <v>0</v>
-      </c>
-      <c r="J64" s="77">
-        <v>2</v>
-      </c>
-      <c r="K64" s="86" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="65" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C65" s="57"/>
-      <c r="D65" s="85" t="s">
-        <v>483</v>
-      </c>
-      <c r="E65" s="90" t="s">
-        <v>491</v>
-      </c>
-      <c r="F65" s="91" t="s">
-        <v>490</v>
-      </c>
-      <c r="G65" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="H65" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="I65" s="77">
-        <v>0</v>
-      </c>
-      <c r="J65" s="77">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C66" s="57"/>
-      <c r="D66" s="85" t="s">
-        <v>483</v>
-      </c>
-      <c r="E66" s="90" t="s">
-        <v>492</v>
-      </c>
-      <c r="F66" s="91" t="s">
-        <v>494</v>
-      </c>
-      <c r="G66" s="85" t="s">
-        <v>496</v>
-      </c>
-      <c r="H66" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="I66" s="77">
-        <v>0</v>
-      </c>
-      <c r="J66" s="77">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C67" s="57"/>
-      <c r="D67" s="85" t="s">
-        <v>483</v>
-      </c>
-      <c r="E67" s="90" t="s">
-        <v>493</v>
-      </c>
-      <c r="F67" s="91" t="s">
-        <v>495</v>
-      </c>
-      <c r="G67" s="85" t="s">
-        <v>497</v>
-      </c>
-      <c r="H67" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="I67" s="77">
-        <v>0</v>
-      </c>
-      <c r="J67" s="77">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C68" s="57"/>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="77"/>
-    </row>
-    <row r="69" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C69" s="57"/>
-    </row>
-    <row r="70" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C70" s="57"/>
-    </row>
-    <row r="71" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C71" s="57"/>
-    </row>
-    <row r="72" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C72" s="57"/>
-    </row>
-    <row r="73" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C73" s="57"/>
-    </row>
-    <row r="74" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C74" s="57"/>
-    </row>
-    <row r="75" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C75" s="57"/>
-    </row>
-    <row r="76" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C76" s="57"/>
-    </row>
-    <row r="77" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C77" s="57"/>
-      <c r="D77" s="89"/>
-      <c r="F77" s="92"/>
-      <c r="G77" s="76"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E86" s="53"/>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
+      <c r="J46" s="83"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="83"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="83"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="83"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="83"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+    </row>
+    <row r="59" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="H59" s="90"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A16:A41"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4955,6 +5533,71 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBDA5C5-1E84-4FC4-BA50-59C258431472}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>377</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11AC2B69-7636-4277-9E5D-AA8DB636965C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5066,7 +5709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66DDCA0-CAA8-48DF-83E9-F0C266CF081C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5176,12 +5819,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A68743-6C31-4859-910F-B4554E6DA673}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="121" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="120" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="120" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="121" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C4" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B5" t="s">
+        <v>594</v>
+      </c>
+      <c r="C5" s="121" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="59"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="59"/>
+      <c r="E9" s="121" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>579</v>
+      </c>
+      <c r="G9" s="121" t="s">
+        <v>585</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>586</v>
+      </c>
+      <c r="I9" s="121" t="s">
+        <v>587</v>
+      </c>
+      <c r="J9" s="121" t="s">
+        <v>588</v>
+      </c>
+      <c r="K9" s="121" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="121" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E11" s="121" t="s">
+        <v>581</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11">
+        <v>60</v>
+      </c>
+      <c r="J11">
+        <v>80</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="121" t="s">
+        <v>584</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>40</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>120</v>
+      </c>
+      <c r="J12">
+        <v>160</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E13" s="121" t="s">
+        <v>582</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13">
+        <v>400</v>
+      </c>
+      <c r="K13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E14" s="121" t="s">
+        <v>583</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="I14">
+        <v>600</v>
+      </c>
+      <c r="J14">
+        <v>800</v>
+      </c>
+      <c r="K14">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB4BDA6-A75A-4CD0-B541-2D711F682760}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5250,7 +6127,7 @@
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>249</v>
+        <v>577</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>250</v>
@@ -5383,7 +6260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72089A79-3CDA-403E-B10C-170E55E77B53}">
   <dimension ref="A1:P2"/>
   <sheetViews>
@@ -5485,11 +6362,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBD8C9F-ED82-4199-A277-15B9B10D1C28}">
   <dimension ref="A1:G1032203"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -10570,7 +11447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB76FE17-2B20-44FC-8C00-69B301B54089}">
   <dimension ref="A1:J56"/>
   <sheetViews>
@@ -11305,7 +12182,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCDE007-E11F-4F18-B7A9-3F60018BF2C3}">
+  <dimension ref="D4:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="6" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>600</v>
+      </c>
+      <c r="F6" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>605</v>
+      </c>
+      <c r="F9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>606</v>
+      </c>
+      <c r="F10" t="s">
+        <v>607</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48924AE-0ACA-48FE-AB7C-57B15B2B9049}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEAF764-EEB8-40E4-A352-37931967C588}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979C70BF-7230-43C9-9DAB-8CEF2C7AA0DD}">
   <dimension ref="A1:G56"/>
   <sheetViews>
@@ -12671,7 +13679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC383F5-4855-4EBE-B9F7-715B010D4044}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -12734,7 +13742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
@@ -13154,684 +14162,919 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6635F9C0-D6D1-466C-8BEB-172F112AE75B}">
-  <dimension ref="C12:T55"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>423</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="1" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" s="79">
+        <v>1</v>
+      </c>
+      <c r="C1" s="79">
+        <v>2</v>
+      </c>
+      <c r="D1" s="79">
+        <v>3</v>
+      </c>
+      <c r="E1" s="80">
+        <v>4</v>
+      </c>
+      <c r="F1" s="80">
+        <v>5</v>
+      </c>
+      <c r="G1" s="79">
+        <v>6</v>
+      </c>
+      <c r="H1" s="79">
+        <v>7</v>
+      </c>
+      <c r="I1" s="79">
+        <v>8</v>
+      </c>
+      <c r="J1" s="79">
+        <v>9</v>
+      </c>
+      <c r="K1" s="79">
+        <v>10</v>
+      </c>
+      <c r="L1" s="79">
+        <v>11</v>
+      </c>
+      <c r="M1" s="79">
+        <v>12</v>
+      </c>
+      <c r="N1" s="79">
+        <v>13</v>
+      </c>
+      <c r="O1" s="79">
+        <v>14</v>
+      </c>
+      <c r="P1" s="77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-    </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-    </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-    </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-    </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-    </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-    </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-    </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-    </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-    </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-    </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-    </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-    </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-    </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-    </row>
-    <row r="34" spans="3:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="82" t="s">
-        <v>427</v>
-      </c>
-      <c r="D34" s="82">
+      <c r="B2" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92" t="s">
+        <v>421</v>
+      </c>
+      <c r="N2" s="92"/>
+      <c r="O2" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92" t="s">
+        <v>412</v>
+      </c>
+      <c r="O3" s="14"/>
+      <c r="P3" s="75"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="75"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93" t="s">
+        <v>418</v>
+      </c>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93" t="s">
+        <v>420</v>
+      </c>
+      <c r="O5" s="14"/>
+      <c r="P5" s="75"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="94" t="s">
+        <v>419</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="75"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>401</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>402</v>
+      </c>
+      <c r="J7" s="95" t="s">
+        <v>403</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>404</v>
+      </c>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="75"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95" t="s">
+        <v>413</v>
+      </c>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="75"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96" t="s">
+        <v>414</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>422</v>
+      </c>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96" t="s">
+        <v>416</v>
+      </c>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96" t="s">
+        <v>415</v>
+      </c>
+      <c r="O9" s="15"/>
+      <c r="P9" s="74"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+    </row>
+    <row r="11" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="125" t="s">
+        <v>425</v>
+      </c>
+      <c r="B11" s="125" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="126" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+    </row>
+    <row r="12" spans="1:18" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
         <v>1</v>
       </c>
-      <c r="E34" s="82">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
         <v>2</v>
       </c>
-      <c r="F34" s="82">
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="122" t="s">
+        <v>546</v>
+      </c>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="G34" s="83">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="122" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
         <v>4</v>
       </c>
-      <c r="H34" s="83">
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="122" t="s">
+        <v>548</v>
+      </c>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="18">
         <v>5</v>
       </c>
-      <c r="I34" s="82">
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="122" t="s">
+        <v>549</v>
+      </c>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>5</v>
+      </c>
+      <c r="B17" s="18">
+        <v>2</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>550</v>
+      </c>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="76"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="76"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="18">
         <v>6</v>
       </c>
-      <c r="J34" s="82">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" s="122" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
         <v>7</v>
       </c>
-      <c r="K34" s="82">
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>544</v>
+      </c>
+      <c r="D19" s="122" t="s">
+        <v>552</v>
+      </c>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>7</v>
+      </c>
+      <c r="B20" s="18">
+        <v>2</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="122" t="s">
+        <v>553</v>
+      </c>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>7</v>
+      </c>
+      <c r="B21" s="18">
+        <v>3</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="D21" s="122" t="s">
+        <v>554</v>
+      </c>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="76"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="76"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="18">
+        <v>7</v>
+      </c>
+      <c r="B22" s="18">
+        <v>4</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="122" t="s">
+        <v>555</v>
+      </c>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="76"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>7</v>
+      </c>
+      <c r="B23" s="18">
+        <v>5</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="D23" s="122" t="s">
+        <v>556</v>
+      </c>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="18">
         <v>8</v>
       </c>
-      <c r="L34" s="82">
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="D24" s="122" t="s">
+        <v>557</v>
+      </c>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="76"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>8</v>
+      </c>
+      <c r="B25" s="18">
+        <v>2</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="76"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="76"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>9</v>
       </c>
-      <c r="M34" s="82">
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="D26" s="122" t="s">
+        <v>559</v>
+      </c>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
         <v>10</v>
       </c>
-      <c r="N34" s="82">
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D27" s="122" t="s">
+        <v>560</v>
+      </c>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="76"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="18">
         <v>11</v>
       </c>
-      <c r="O34" s="82">
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="D28" s="122" t="s">
+        <v>561</v>
+      </c>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>12</v>
       </c>
-      <c r="P34" s="82">
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="123" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="18">
         <v>13</v>
       </c>
-      <c r="Q34" s="82">
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="123" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>13</v>
+      </c>
+      <c r="B31" s="18">
+        <v>2</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="18">
+        <v>13</v>
+      </c>
+      <c r="B32" s="18">
+        <v>3</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="D32" s="123" t="s">
+        <v>565</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
         <v>14</v>
       </c>
-      <c r="R34" s="80">
+      <c r="B33" s="18">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="D33" s="123" t="s">
+        <v>566</v>
+      </c>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" s="18">
         <v>15</v>
+      </c>
+      <c r="B34" s="18">
+        <v>1</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D34" s="123" t="s">
+        <v>567</v>
       </c>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="3:20" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="D35" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="G35" s="84" t="s">
-        <v>410</v>
-      </c>
-      <c r="H35" s="84" t="s">
-        <v>417</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="R35" s="75" t="s">
-        <v>449</v>
-      </c>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="84" t="s">
-        <v>411</v>
-      </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="75"/>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="K37" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="75"/>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="75"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
     </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84" t="s">
-        <v>419</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="75"/>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
     </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="K40" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="L40" s="84" t="s">
-        <v>403</v>
-      </c>
-      <c r="M40" s="84" t="s">
-        <v>404</v>
-      </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="75"/>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="81"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="K42" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q42" s="15"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E54" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E55" t="s">
-        <v>486</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13840,7 +15083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FA1A161-0C4C-475C-B0F1-516A38CD99D8}">
   <dimension ref="E4:P44"/>
   <sheetViews>
@@ -13933,13 +15176,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="93" t="s">
+      <c r="E27" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="136" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="93" t="s">
+      <c r="G27" s="136" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -13951,16 +15194,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="98" t="s">
+      <c r="K27" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="98" t="s">
+      <c r="L27" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="95" t="s">
+      <c r="M27" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="96"/>
+      <c r="N27" s="132"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -13969,9 +15212,9 @@
       </c>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -13981,9 +15224,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="98" t="s">
+      <c r="K28" s="134"/>
+      <c r="L28" s="134"/>
+      <c r="M28" s="133" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -13997,9 +15240,9 @@
       </c>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -14009,9 +15252,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="99"/>
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -14023,21 +15266,21 @@
       </c>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93" t="s">
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="93"/>
+      <c r="H30" s="136"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="99"/>
+      <c r="K30" s="134"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="134"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -14049,11 +15292,11 @@
       </c>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E31" s="93"/>
-      <c r="F31" s="93" t="s">
+      <c r="E31" s="136"/>
+      <c r="F31" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="93" t="s">
+      <c r="G31" s="136" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -14065,9 +15308,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="99"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -14079,9 +15322,9 @@
       </c>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -14091,14 +15334,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="99"/>
-      <c r="L32" s="98" t="s">
+      <c r="K32" s="134"/>
+      <c r="L32" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="95" t="s">
+      <c r="M32" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="96"/>
+      <c r="N32" s="132"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -14107,9 +15350,9 @@
       </c>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -14119,12 +15362,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="99"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="95" t="s">
+      <c r="K33" s="134"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="96"/>
+      <c r="N33" s="132"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -14133,9 +15376,9 @@
       </c>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -14145,25 +15388,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="99"/>
-      <c r="L34" s="98" t="s">
+      <c r="K34" s="134"/>
+      <c r="L34" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="95" t="s">
+      <c r="M34" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="96"/>
+      <c r="N34" s="132"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="94" t="s">
+      <c r="P34" s="137" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -14173,21 +15416,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="95" t="s">
+      <c r="K35" s="134"/>
+      <c r="L35" s="134"/>
+      <c r="M35" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="96"/>
+      <c r="N35" s="132"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="94"/>
+      <c r="P35" s="137"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93" t="s">
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -14199,21 +15442,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="99"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="95" t="s">
+      <c r="K36" s="134"/>
+      <c r="L36" s="135"/>
+      <c r="M36" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="96"/>
+      <c r="N36" s="132"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="94"/>
+      <c r="P36" s="137"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -14223,8 +15466,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="98" t="s">
+      <c r="K37" s="134"/>
+      <c r="L37" s="133" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -14241,9 +15484,9 @@
       </c>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93" t="s">
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -14255,8 +15498,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="100"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="135"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -14271,9 +15514,9 @@
       </c>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
+      <c r="E39" s="136"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="136"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -14283,12 +15526,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="100"/>
-      <c r="L39" s="95" t="s">
+      <c r="K39" s="135"/>
+      <c r="L39" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="97"/>
-      <c r="N39" s="96"/>
+      <c r="M39" s="131"/>
+      <c r="N39" s="132"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -14297,14 +15540,14 @@
       </c>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="93"/>
-      <c r="F40" s="93" t="s">
+      <c r="E40" s="136"/>
+      <c r="F40" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="93" t="s">
+      <c r="G40" s="136" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="93"/>
+      <c r="H40" s="136"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -14313,12 +15556,12 @@
       </c>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93" t="s">
+      <c r="E41" s="136"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="136" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="93"/>
+      <c r="H41" s="136"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -14327,8 +15570,8 @@
       </c>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="93"/>
-      <c r="F42" s="93" t="s">
+      <c r="E42" s="136"/>
+      <c r="F42" s="136" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -14345,8 +15588,8 @@
       </c>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="93"/>
-      <c r="F43" s="93"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -14361,12 +15604,12 @@
       </c>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E44" s="93"/>
-      <c r="F44" s="93" t="s">
+      <c r="E44" s="136"/>
+      <c r="F44" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -14376,17 +15619,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -14403,13 +15635,24 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C330B8B-7716-47B7-B95A-E7C6A0C56460}">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -14481,12 +15724,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72153495-9548-4082-9176-2E3A9CF38348}">
   <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23:H24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14502,10 +15745,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N10" s="10" t="s">
@@ -14513,22 +15756,22 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="141" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -14549,10 +15792,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="138" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -14575,8 +15818,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="101"/>
-      <c r="B14" s="101"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -14597,8 +15840,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="101"/>
-      <c r="B15" s="102"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -14616,8 +15859,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="101"/>
-      <c r="B16" s="102"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="139"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -14638,8 +15881,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="102"/>
+      <c r="A17" s="138"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -14660,8 +15903,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="101"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -14679,8 +15922,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -14698,8 +15941,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -14717,8 +15960,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101" t="s">
+      <c r="A21" s="138"/>
+      <c r="B21" s="138" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -14741,8 +15984,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="101"/>
-      <c r="B22" s="102"/>
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -14763,8 +16006,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="101"/>
-      <c r="B23" s="102"/>
+      <c r="A23" s="138"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -14785,8 +16028,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
+      <c r="A24" s="138"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -14807,8 +16050,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102" t="s">
+      <c r="A25" s="138"/>
+      <c r="B25" s="139" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -14828,8 +16071,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="101"/>
-      <c r="B26" s="102"/>
+      <c r="A26" s="138"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -14847,8 +16090,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
+      <c r="A27" s="138"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -14866,8 +16109,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -14885,7 +16128,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="101"/>
+      <c r="A29" s="138"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -14925,7 +16168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BE4AE5-CC00-456F-97C8-6738E7AE37B6}">
   <dimension ref="A1:R5"/>
   <sheetViews>
@@ -15241,7 +16484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5928B3-5658-40D5-928F-81A696B143DF}">
   <dimension ref="A1:J27"/>
   <sheetViews>
@@ -15293,7 +16536,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="142" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -15320,7 +16563,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="105"/>
+      <c r="A3" s="142"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -15345,7 +16588,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="142" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -15369,7 +16612,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="105"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -15394,7 +16637,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="105"/>
+      <c r="A6" s="142"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -15416,7 +16659,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="105"/>
+      <c r="A7" s="142"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -15438,7 +16681,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="105"/>
+      <c r="A8" s="142"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -15463,7 +16706,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="105"/>
+      <c r="A9" s="142"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -15485,7 +16728,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
+      <c r="A10" s="142"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -15507,7 +16750,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+      <c r="A11" s="142"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -15532,7 +16775,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
+      <c r="A12" s="142"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -15554,7 +16797,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
+      <c r="A13" s="142"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -15576,7 +16819,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
+      <c r="A14" s="142"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -15601,7 +16844,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
+      <c r="A15" s="142"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -15623,7 +16866,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="105"/>
+      <c r="A16" s="142"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -15642,7 +16885,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="142" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -15669,7 +16912,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="105"/>
+      <c r="A18" s="142"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -15691,7 +16934,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="105"/>
+      <c r="A19" s="142"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -15713,7 +16956,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="142" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -15743,7 +16986,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="105"/>
+      <c r="A21" s="142"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -15771,7 +17014,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="142" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -15798,7 +17041,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="105"/>
+      <c r="A23" s="142"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -15823,7 +17066,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="105"/>
+      <c r="A24" s="142"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -15848,7 +17091,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="105"/>
+      <c r="A25" s="142"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -15873,7 +17116,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="105"/>
+      <c r="A26" s="142"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -15898,7 +17141,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="105"/>
+      <c r="A27" s="142"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -15936,7 +17179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5993F062-1B6D-42AC-8A51-B80D4F3A6590}">
   <dimension ref="A1:K11"/>
   <sheetViews>
@@ -16040,10 +17283,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="143" t="s">
         <v>384</v>
       </c>
-      <c r="I8" s="106"/>
+      <c r="I8" s="143"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H9" s="65" t="s">
@@ -16069,69 +17312,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDBDA5C5-1E84-4FC4-BA50-59C258431472}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="45"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="41" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>376</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>377</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="D2" s="45" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>382</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D6B6EF-C599-44F5-961A-554DDB4463F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C22A79B-61EB-447F-8043-F8643718015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2715" yWindow="390" windowWidth="24555" windowHeight="15090" tabRatio="729" firstSheet="15" activeTab="19" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="729" firstSheet="18" activeTab="25" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 효과 텍스트 테이블" sheetId="17" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2509" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="658">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1331,42 +1331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00pb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00sr00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00sb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00cb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00cb01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21ic00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21sb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21ss00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21rb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명 축약</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1376,66 +1340,6 @@
   </si>
   <si>
     <t>SearchRange_RangeBackGround_00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22rg00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22ro00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22rc00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22tb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22nb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22tr00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22ab00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22ub00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22eb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17sb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17rb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15sb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09pb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09sb00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09eb00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3522,6 +3426,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3531,13 +3447,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3548,12 +3470,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3572,18 +3488,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4755,7 +4659,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="E1" s="41" t="s">
         <v>140</v>
@@ -4772,13 +4676,13 @@
     </row>
     <row r="2" spans="1:15" s="99" customFormat="1">
       <c r="A2" s="106" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="D2" s="106" t="s">
         <v>233</v>
@@ -4798,13 +4702,13 @@
     </row>
     <row r="3" spans="1:15" s="99" customFormat="1">
       <c r="A3" s="106" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="D3" s="106" t="s">
         <v>65</v>
@@ -4819,20 +4723,20 @@
         <v>5</v>
       </c>
       <c r="H3" s="99" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="I3" s="98"/>
       <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:15" s="100" customFormat="1">
-      <c r="A4" s="130" t="s">
-        <v>423</v>
+      <c r="A4" s="134" t="s">
+        <v>399</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C4" s="114" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D4" s="117" t="s">
         <v>119</v>
@@ -4847,16 +4751,16 @@
         <v>56</v>
       </c>
       <c r="H4" s="101" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="84" customFormat="1">
-      <c r="A5" s="132"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="109" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C5" s="115" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D5" s="118" t="s">
         <v>85</v>
@@ -4871,16 +4775,16 @@
         <v>3</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="57" customFormat="1">
-      <c r="A6" s="132"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="109" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="D6" s="118" t="s">
         <v>85</v>
@@ -4895,18 +4799,18 @@
         <v>3</v>
       </c>
       <c r="H6" s="57" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="I6" s="90"/>
       <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:15" s="57" customFormat="1">
-      <c r="A7" s="132"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="109" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="C7" s="115" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D7" s="118" t="s">
         <v>85</v>
@@ -4921,18 +4825,18 @@
         <v>4</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:15" s="57" customFormat="1">
-      <c r="A8" s="132"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="109" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="D8" s="118" t="s">
         <v>85</v>
@@ -4947,18 +4851,18 @@
         <v>5</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:15" s="57" customFormat="1">
-      <c r="A9" s="132"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="109" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="C9" s="115" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="D9" s="118" t="s">
         <v>85</v>
@@ -4973,7 +4877,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="57" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -4981,12 +4885,12 @@
       <c r="O9" s="102"/>
     </row>
     <row r="10" spans="1:15" s="57" customFormat="1">
-      <c r="A10" s="132"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="109" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="D10" s="118" t="s">
         <v>65</v>
@@ -5001,18 +4905,18 @@
         <v>99</v>
       </c>
       <c r="H10" s="57" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="I10" s="90"/>
       <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:15" s="57" customFormat="1">
-      <c r="A11" s="132"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="109" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C11" s="115" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="D11" s="118" t="s">
         <v>85</v>
@@ -5027,18 +4931,18 @@
         <v>4</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="I11" s="90"/>
       <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:15" s="57" customFormat="1">
-      <c r="A12" s="132"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="109" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="D12" s="118" t="s">
         <v>65</v>
@@ -5053,18 +4957,18 @@
         <v>99</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:15" s="104" customFormat="1">
-      <c r="A13" s="131"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="110" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D13" s="119" t="s">
         <v>65</v>
@@ -5079,20 +4983,20 @@
         <v>99</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="I13" s="103"/>
       <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:15" s="101" customFormat="1">
-      <c r="A14" s="130" t="s">
-        <v>441</v>
+      <c r="A14" s="134" t="s">
+        <v>417</v>
       </c>
       <c r="B14" s="108" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="114" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D14" s="117" t="s">
         <v>65</v>
@@ -5107,18 +5011,18 @@
         <v>999</v>
       </c>
       <c r="H14" s="101" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="I14" s="100"/>
       <c r="J14" s="100"/>
     </row>
     <row r="15" spans="1:15" s="104" customFormat="1">
-      <c r="A15" s="131"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="110" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D15" s="119" t="s">
         <v>65</v>
@@ -5133,20 +5037,20 @@
         <v>999</v>
       </c>
       <c r="H15" s="101" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="I15" s="103"/>
       <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:15" s="101" customFormat="1">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="134" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="D16" s="117" t="s">
         <v>65</v>
@@ -5161,18 +5065,18 @@
         <v>56</v>
       </c>
       <c r="H16" s="101" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="I16" s="100"/>
       <c r="J16" s="100"/>
     </row>
     <row r="17" spans="1:15" s="57" customFormat="1">
-      <c r="A17" s="132"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="109" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="C17" s="111" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="D17" s="118" t="s">
         <v>85</v>
@@ -5187,7 +5091,7 @@
         <v>3</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="I17" s="90"/>
       <c r="J17" s="90"/>
@@ -5195,12 +5099,12 @@
       <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" s="57" customFormat="1">
-      <c r="A18" s="132"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="109" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D18" s="118" t="s">
         <v>65</v>
@@ -5215,18 +5119,18 @@
         <v>2</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="I18" s="90"/>
       <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:15" s="57" customFormat="1">
-      <c r="A19" s="132"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="109" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D19" s="118" t="s">
         <v>65</v>
@@ -5241,18 +5145,18 @@
         <v>99</v>
       </c>
       <c r="H19" s="57" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="I19" s="90"/>
       <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:15" s="57" customFormat="1">
-      <c r="A20" s="132"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="109" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D20" s="118" t="s">
         <v>65</v>
@@ -5267,18 +5171,18 @@
         <v>99</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="I20" s="90"/>
       <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:15" s="57" customFormat="1">
-      <c r="A21" s="132"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="109" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D21" s="118" t="s">
         <v>65</v>
@@ -5293,18 +5197,18 @@
         <v>99</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="I21" s="90"/>
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:15" s="57" customFormat="1">
-      <c r="A22" s="132"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="109" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D22" s="118" t="s">
         <v>65</v>
@@ -5319,16 +5223,16 @@
         <v>99</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="57" customFormat="1">
-      <c r="A23" s="132"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="109" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C23" s="115" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D23" s="118" t="s">
         <v>65</v>
@@ -5343,19 +5247,19 @@
         <v>99</v>
       </c>
       <c r="H23" s="57" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="57" customFormat="1">
+      <c r="A24" s="136"/>
+      <c r="B24" s="109" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="57" customFormat="1">
-      <c r="A24" s="132"/>
-      <c r="B24" s="109" t="s">
-        <v>525</v>
-      </c>
       <c r="C24" s="115" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="D24" s="118" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E24" s="118" t="s">
         <v>56</v>
@@ -5367,16 +5271,16 @@
         <v>9999</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="57" customFormat="1">
-      <c r="A25" s="132"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="109" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="C25" s="115" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="D25" s="118" t="s">
         <v>65</v>
@@ -5387,19 +5291,19 @@
       <c r="F25" s="91"/>
       <c r="G25" s="91"/>
       <c r="H25" s="57" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="57" customFormat="1">
-      <c r="A26" s="132"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="109" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D26" s="118" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="E26" s="118" t="s">
         <v>56</v>
@@ -5411,16 +5315,16 @@
         <v>9999</v>
       </c>
       <c r="H26" s="57" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="57" customFormat="1">
-      <c r="A27" s="132"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="109" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C27" s="115" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="D27" s="118" t="s">
         <v>65</v>
@@ -5431,16 +5335,16 @@
       <c r="F27" s="91"/>
       <c r="G27" s="91"/>
       <c r="H27" s="57" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="57" customFormat="1">
-      <c r="A28" s="132"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="109" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D28" s="118" t="s">
         <v>85</v>
@@ -5455,16 +5359,16 @@
         <v>5</v>
       </c>
       <c r="H28" s="57" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="57" customFormat="1">
-      <c r="A29" s="132"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="109" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C29" s="115" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D29" s="118" t="s">
         <v>65</v>
@@ -5483,12 +5387,12 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="57" customFormat="1">
-      <c r="A30" s="132"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="109" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="D30" s="118" t="s">
         <v>65</v>
@@ -5507,12 +5411,12 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="57" customFormat="1">
-      <c r="A31" s="132"/>
+      <c r="A31" s="136"/>
       <c r="B31" s="109" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="C31" s="115" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D31" s="118" t="s">
         <v>85</v>
@@ -5527,16 +5431,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="57" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="57" customFormat="1">
-      <c r="A32" s="132"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="109" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="D32" s="118" t="s">
         <v>65</v>
@@ -5551,16 +5455,16 @@
         <v>99</v>
       </c>
       <c r="H32" s="57" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1">
-      <c r="A33" s="132"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="109" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="C33" s="115" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D33" s="118" t="s">
         <v>65</v>
@@ -5575,16 +5479,16 @@
         <v>99</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="132"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="109" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="D34" s="118" t="s">
         <v>65</v>
@@ -5599,16 +5503,16 @@
         <v>99</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="132"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="109" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="C35" s="115" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="D35" s="118" t="s">
         <v>85</v>
@@ -5623,16 +5527,16 @@
         <v>1</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1">
-      <c r="A36" s="132"/>
+      <c r="A36" s="136"/>
       <c r="B36" s="109" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="D36" s="118" t="s">
         <v>85</v>
@@ -5647,16 +5551,16 @@
         <v>5</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1">
-      <c r="A37" s="132"/>
+      <c r="A37" s="136"/>
       <c r="B37" s="109" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D37" s="118" t="s">
         <v>233</v>
@@ -5671,16 +5575,16 @@
         <v>56</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="57" customFormat="1">
-      <c r="A38" s="132"/>
+      <c r="A38" s="136"/>
       <c r="B38" s="109" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="D38" s="86" t="s">
         <v>119</v>
@@ -5695,16 +5599,16 @@
         <v>56</v>
       </c>
       <c r="H38" s="57" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="57" customFormat="1">
-      <c r="A39" s="132"/>
+      <c r="A39" s="136"/>
       <c r="B39" s="109" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="D39" s="86" t="s">
         <v>65</v>
@@ -5723,12 +5627,12 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1">
-      <c r="A40" s="132"/>
+      <c r="A40" s="136"/>
       <c r="B40" s="109" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="D40" s="118" t="s">
         <v>119</v>
@@ -5743,16 +5647,16 @@
         <v>56</v>
       </c>
       <c r="H40" s="57" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="104" customFormat="1">
-      <c r="A41" s="131"/>
+      <c r="A41" s="135"/>
       <c r="B41" s="110" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C41" s="116" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="D41" s="87" t="s">
         <v>65</v>
@@ -5771,14 +5675,14 @@
       </c>
     </row>
     <row r="42" spans="1:10" s="101" customFormat="1">
-      <c r="A42" s="130" t="s">
-        <v>474</v>
+      <c r="A42" s="134" t="s">
+        <v>450</v>
       </c>
       <c r="B42" s="108" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C42" s="114" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="D42" s="117" t="s">
         <v>85</v>
@@ -5793,16 +5697,16 @@
         <v>2</v>
       </c>
       <c r="H42" s="101" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="57" customFormat="1">
-      <c r="A43" s="132"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="109" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C43" s="115" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="D43" s="118" t="s">
         <v>65</v>
@@ -5817,16 +5721,16 @@
         <v>99</v>
       </c>
       <c r="H43" s="57" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="57" customFormat="1">
-      <c r="A44" s="132"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="109" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="D44" s="118" t="s">
         <v>65</v>
@@ -5841,16 +5745,16 @@
         <v>99</v>
       </c>
       <c r="H44" s="57" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="104" customFormat="1">
-      <c r="A45" s="131"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="110" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C45" s="116" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D45" s="119" t="s">
         <v>65</v>
@@ -5865,7 +5769,7 @@
         <v>99</v>
       </c>
       <c r="H45" s="104" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -5956,13 +5860,13 @@
         <v>116</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5970,13 +5874,13 @@
         <v>52</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5987,10 +5891,10 @@
         <v>64</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -6043,10 +5947,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>83</v>
@@ -6086,10 +5990,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>64</v>
@@ -6152,10 +6056,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="C2" s="68" t="s">
         <v>83</v>
@@ -6196,10 +6100,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>64</v>
@@ -6253,24 +6157,24 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C2" s="121" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="121" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="B3" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>63</v>
@@ -6278,24 +6182,24 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C5" s="121" t="s">
         <v>63</v>
@@ -6313,30 +6217,30 @@
     <row r="9" spans="1:11">
       <c r="B9" s="59"/>
       <c r="E9" s="121" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="G9" s="121" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="H9" s="121" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="I9" s="121" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="J9" s="121" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="K9" s="121" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="121" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -6359,7 +6263,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="E11" s="121" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -6382,7 +6286,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="E12" s="121" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="F12">
         <v>200</v>
@@ -6405,7 +6309,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="E13" s="121" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -6428,7 +6332,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="121" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -6533,7 +6437,7 @@
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>250</v>
@@ -6565,25 +6469,25 @@
     </row>
     <row r="8" spans="1:5" s="18" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="24"/>
-      <c r="E8" s="147" t="s">
-        <v>617</v>
+      <c r="E8" s="130" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="18" customFormat="1">
       <c r="A9" s="16" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -6593,10 +6497,10 @@
     </row>
     <row r="10" spans="1:5" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>65</v>
@@ -6857,10 +6761,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
         <v>119</v>
@@ -6869,15 +6773,15 @@
         <v>0</v>
       </c>
       <c r="G3" s="73" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
@@ -6886,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6901,7 +6805,7 @@
         <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D6" t="s">
         <v>56</v>
@@ -6918,10 +6822,10 @@
         <v>171</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="C7" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D7" t="s">
         <v>56</v>
@@ -6941,7 +6845,7 @@
         <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D8" t="s">
         <v>56</v>
@@ -6961,7 +6865,7 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D9" t="s">
         <v>56</v>
@@ -6981,7 +6885,7 @@
         <v>178</v>
       </c>
       <c r="C10" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
@@ -7013,7 +6917,7 @@
         <v>56</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="5:7">
@@ -7098,18 +7002,18 @@
     </row>
     <row r="16387" spans="1:2">
       <c r="A16387" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B16387" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16388" spans="1:2">
       <c r="A16388" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B16388" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16389" spans="1:2">
@@ -7129,7 +7033,7 @@
         <v>171</v>
       </c>
       <c r="B16391" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16392" spans="1:2">
@@ -7174,18 +7078,18 @@
     </row>
     <row r="32771" spans="1:2">
       <c r="A32771" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B32771" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32772" spans="1:2">
       <c r="A32772" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B32772" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32773" spans="1:2">
@@ -7205,7 +7109,7 @@
         <v>171</v>
       </c>
       <c r="B32775" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32776" spans="1:2">
@@ -7250,18 +7154,18 @@
     </row>
     <row r="49155" spans="1:2">
       <c r="A49155" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B49155" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="49156" spans="1:2">
       <c r="A49156" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B49156" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="49157" spans="1:2">
@@ -7281,7 +7185,7 @@
         <v>171</v>
       </c>
       <c r="B49159" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49160" spans="1:2">
@@ -7326,18 +7230,18 @@
     </row>
     <row r="65539" spans="1:2">
       <c r="A65539" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B65539" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65540" spans="1:2">
       <c r="A65540" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B65540" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65541" spans="1:2">
@@ -7357,7 +7261,7 @@
         <v>171</v>
       </c>
       <c r="B65543" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="65544" spans="1:2">
@@ -7402,18 +7306,18 @@
     </row>
     <row r="81923" spans="1:2">
       <c r="A81923" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B81923" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81924" spans="1:2">
       <c r="A81924" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B81924" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="81925" spans="1:2">
@@ -7433,7 +7337,7 @@
         <v>171</v>
       </c>
       <c r="B81927" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81928" spans="1:2">
@@ -7478,18 +7382,18 @@
     </row>
     <row r="98307" spans="1:2">
       <c r="A98307" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B98307" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98308" spans="1:2">
       <c r="A98308" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B98308" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98309" spans="1:2">
@@ -7509,7 +7413,7 @@
         <v>171</v>
       </c>
       <c r="B98311" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98312" spans="1:2">
@@ -7554,18 +7458,18 @@
     </row>
     <row r="114691" spans="1:2">
       <c r="A114691" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B114691" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114692" spans="1:2">
       <c r="A114692" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B114692" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114693" spans="1:2">
@@ -7585,7 +7489,7 @@
         <v>171</v>
       </c>
       <c r="B114695" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114696" spans="1:2">
@@ -7630,18 +7534,18 @@
     </row>
     <row r="131075" spans="1:2">
       <c r="A131075" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B131075" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="131076" spans="1:2">
       <c r="A131076" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B131076" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="131077" spans="1:2">
@@ -7661,7 +7565,7 @@
         <v>171</v>
       </c>
       <c r="B131079" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="131080" spans="1:2">
@@ -7706,18 +7610,18 @@
     </row>
     <row r="147459" spans="1:2">
       <c r="A147459" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B147459" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="147460" spans="1:2">
       <c r="A147460" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B147460" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="147461" spans="1:2">
@@ -7737,7 +7641,7 @@
         <v>171</v>
       </c>
       <c r="B147463" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="147464" spans="1:2">
@@ -7782,18 +7686,18 @@
     </row>
     <row r="163843" spans="1:2">
       <c r="A163843" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B163843" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="163844" spans="1:2">
       <c r="A163844" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B163844" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="163845" spans="1:2">
@@ -7813,7 +7717,7 @@
         <v>171</v>
       </c>
       <c r="B163847" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="163848" spans="1:2">
@@ -7858,18 +7762,18 @@
     </row>
     <row r="180227" spans="1:2">
       <c r="A180227" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B180227" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="180228" spans="1:2">
       <c r="A180228" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B180228" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="180229" spans="1:2">
@@ -7889,7 +7793,7 @@
         <v>171</v>
       </c>
       <c r="B180231" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="180232" spans="1:2">
@@ -7934,18 +7838,18 @@
     </row>
     <row r="196611" spans="1:2">
       <c r="A196611" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B196611" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="196612" spans="1:2">
       <c r="A196612" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B196612" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196613" spans="1:2">
@@ -7965,7 +7869,7 @@
         <v>171</v>
       </c>
       <c r="B196615" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="196616" spans="1:2">
@@ -8010,18 +7914,18 @@
     </row>
     <row r="212995" spans="1:2">
       <c r="A212995" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B212995" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="212996" spans="1:2">
       <c r="A212996" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B212996" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="212997" spans="1:2">
@@ -8041,7 +7945,7 @@
         <v>171</v>
       </c>
       <c r="B212999" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213000" spans="1:2">
@@ -8086,18 +7990,18 @@
     </row>
     <row r="229379" spans="1:2">
       <c r="A229379" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B229379" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="229380" spans="1:2">
       <c r="A229380" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B229380" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="229381" spans="1:2">
@@ -8117,7 +8021,7 @@
         <v>171</v>
       </c>
       <c r="B229383" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="229384" spans="1:2">
@@ -8162,18 +8066,18 @@
     </row>
     <row r="245763" spans="1:2">
       <c r="A245763" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B245763" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="245764" spans="1:2">
       <c r="A245764" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B245764" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="245765" spans="1:2">
@@ -8193,7 +8097,7 @@
         <v>171</v>
       </c>
       <c r="B245767" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245768" spans="1:2">
@@ -8238,18 +8142,18 @@
     </row>
     <row r="262147" spans="1:2">
       <c r="A262147" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B262147" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="262148" spans="1:2">
       <c r="A262148" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B262148" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="262149" spans="1:2">
@@ -8269,7 +8173,7 @@
         <v>171</v>
       </c>
       <c r="B262151" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="262152" spans="1:2">
@@ -8314,18 +8218,18 @@
     </row>
     <row r="278531" spans="1:2">
       <c r="A278531" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B278531" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="278532" spans="1:2">
       <c r="A278532" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B278532" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="278533" spans="1:2">
@@ -8345,7 +8249,7 @@
         <v>171</v>
       </c>
       <c r="B278535" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="278536" spans="1:2">
@@ -8390,18 +8294,18 @@
     </row>
     <row r="294915" spans="1:2">
       <c r="A294915" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B294915" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="294916" spans="1:2">
       <c r="A294916" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B294916" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="294917" spans="1:2">
@@ -8421,7 +8325,7 @@
         <v>171</v>
       </c>
       <c r="B294919" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="294920" spans="1:2">
@@ -8466,18 +8370,18 @@
     </row>
     <row r="311299" spans="1:2">
       <c r="A311299" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B311299" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="311300" spans="1:2">
       <c r="A311300" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B311300" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="311301" spans="1:2">
@@ -8497,7 +8401,7 @@
         <v>171</v>
       </c>
       <c r="B311303" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="311304" spans="1:2">
@@ -8542,18 +8446,18 @@
     </row>
     <row r="327683" spans="1:2">
       <c r="A327683" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B327683" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="327684" spans="1:2">
       <c r="A327684" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B327684" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="327685" spans="1:2">
@@ -8573,7 +8477,7 @@
         <v>171</v>
       </c>
       <c r="B327687" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="327688" spans="1:2">
@@ -8618,18 +8522,18 @@
     </row>
     <row r="344067" spans="1:2">
       <c r="A344067" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B344067" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="344068" spans="1:2">
       <c r="A344068" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B344068" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="344069" spans="1:2">
@@ -8649,7 +8553,7 @@
         <v>171</v>
       </c>
       <c r="B344071" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="344072" spans="1:2">
@@ -8694,18 +8598,18 @@
     </row>
     <row r="360451" spans="1:2">
       <c r="A360451" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B360451" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="360452" spans="1:2">
       <c r="A360452" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B360452" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="360453" spans="1:2">
@@ -8725,7 +8629,7 @@
         <v>171</v>
       </c>
       <c r="B360455" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="360456" spans="1:2">
@@ -8770,18 +8674,18 @@
     </row>
     <row r="376835" spans="1:2">
       <c r="A376835" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B376835" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376836" spans="1:2">
       <c r="A376836" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B376836" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376837" spans="1:2">
@@ -8801,7 +8705,7 @@
         <v>171</v>
       </c>
       <c r="B376839" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="376840" spans="1:2">
@@ -8846,18 +8750,18 @@
     </row>
     <row r="393219" spans="1:2">
       <c r="A393219" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B393219" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="393220" spans="1:2">
       <c r="A393220" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B393220" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="393221" spans="1:2">
@@ -8877,7 +8781,7 @@
         <v>171</v>
       </c>
       <c r="B393223" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="393224" spans="1:2">
@@ -8922,18 +8826,18 @@
     </row>
     <row r="409603" spans="1:2">
       <c r="A409603" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B409603" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="409604" spans="1:2">
       <c r="A409604" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B409604" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="409605" spans="1:2">
@@ -8953,7 +8857,7 @@
         <v>171</v>
       </c>
       <c r="B409607" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="409608" spans="1:2">
@@ -8998,18 +8902,18 @@
     </row>
     <row r="425987" spans="1:2">
       <c r="A425987" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B425987" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="425988" spans="1:2">
       <c r="A425988" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B425988" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="425989" spans="1:2">
@@ -9029,7 +8933,7 @@
         <v>171</v>
       </c>
       <c r="B425991" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="425992" spans="1:2">
@@ -9074,18 +8978,18 @@
     </row>
     <row r="442371" spans="1:2">
       <c r="A442371" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B442371" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="442372" spans="1:2">
       <c r="A442372" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B442372" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="442373" spans="1:2">
@@ -9105,7 +9009,7 @@
         <v>171</v>
       </c>
       <c r="B442375" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="442376" spans="1:2">
@@ -9150,18 +9054,18 @@
     </row>
     <row r="458755" spans="1:2">
       <c r="A458755" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B458755" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="458756" spans="1:2">
       <c r="A458756" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B458756" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="458757" spans="1:2">
@@ -9181,7 +9085,7 @@
         <v>171</v>
       </c>
       <c r="B458759" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="458760" spans="1:2">
@@ -9226,18 +9130,18 @@
     </row>
     <row r="475139" spans="1:2">
       <c r="A475139" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B475139" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="475140" spans="1:2">
       <c r="A475140" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B475140" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="475141" spans="1:2">
@@ -9257,7 +9161,7 @@
         <v>171</v>
       </c>
       <c r="B475143" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="475144" spans="1:2">
@@ -9302,18 +9206,18 @@
     </row>
     <row r="491523" spans="1:2">
       <c r="A491523" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B491523" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="491524" spans="1:2">
       <c r="A491524" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B491524" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="491525" spans="1:2">
@@ -9333,7 +9237,7 @@
         <v>171</v>
       </c>
       <c r="B491527" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="491528" spans="1:2">
@@ -9378,18 +9282,18 @@
     </row>
     <row r="507907" spans="1:2">
       <c r="A507907" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B507907" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="507908" spans="1:2">
       <c r="A507908" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B507908" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="507909" spans="1:2">
@@ -9409,7 +9313,7 @@
         <v>171</v>
       </c>
       <c r="B507911" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="507912" spans="1:2">
@@ -9454,18 +9358,18 @@
     </row>
     <row r="524291" spans="1:2">
       <c r="A524291" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B524291" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="524292" spans="1:2">
       <c r="A524292" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B524292" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="524293" spans="1:2">
@@ -9485,7 +9389,7 @@
         <v>171</v>
       </c>
       <c r="B524295" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="524296" spans="1:2">
@@ -9530,18 +9434,18 @@
     </row>
     <row r="540675" spans="1:2">
       <c r="A540675" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B540675" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="540676" spans="1:2">
       <c r="A540676" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B540676" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="540677" spans="1:2">
@@ -9561,7 +9465,7 @@
         <v>171</v>
       </c>
       <c r="B540679" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="540680" spans="1:2">
@@ -9606,18 +9510,18 @@
     </row>
     <row r="557059" spans="1:2">
       <c r="A557059" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B557059" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="557060" spans="1:2">
       <c r="A557060" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B557060" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="557061" spans="1:2">
@@ -9637,7 +9541,7 @@
         <v>171</v>
       </c>
       <c r="B557063" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="557064" spans="1:2">
@@ -9682,18 +9586,18 @@
     </row>
     <row r="573443" spans="1:2">
       <c r="A573443" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B573443" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="573444" spans="1:2">
       <c r="A573444" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B573444" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="573445" spans="1:2">
@@ -9713,7 +9617,7 @@
         <v>171</v>
       </c>
       <c r="B573447" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="573448" spans="1:2">
@@ -9758,18 +9662,18 @@
     </row>
     <row r="589827" spans="1:2">
       <c r="A589827" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B589827" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="589828" spans="1:2">
       <c r="A589828" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B589828" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="589829" spans="1:2">
@@ -9789,7 +9693,7 @@
         <v>171</v>
       </c>
       <c r="B589831" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="589832" spans="1:2">
@@ -9834,18 +9738,18 @@
     </row>
     <row r="606211" spans="1:2">
       <c r="A606211" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B606211" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="606212" spans="1:2">
       <c r="A606212" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B606212" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="606213" spans="1:2">
@@ -9865,7 +9769,7 @@
         <v>171</v>
       </c>
       <c r="B606215" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="606216" spans="1:2">
@@ -9910,18 +9814,18 @@
     </row>
     <row r="622595" spans="1:2">
       <c r="A622595" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B622595" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="622596" spans="1:2">
       <c r="A622596" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B622596" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="622597" spans="1:2">
@@ -9941,7 +9845,7 @@
         <v>171</v>
       </c>
       <c r="B622599" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="622600" spans="1:2">
@@ -9986,18 +9890,18 @@
     </row>
     <row r="638979" spans="1:2">
       <c r="A638979" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B638979" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="638980" spans="1:2">
       <c r="A638980" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B638980" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="638981" spans="1:2">
@@ -10017,7 +9921,7 @@
         <v>171</v>
       </c>
       <c r="B638983" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="638984" spans="1:2">
@@ -10062,18 +9966,18 @@
     </row>
     <row r="655363" spans="1:2">
       <c r="A655363" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B655363" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="655364" spans="1:2">
       <c r="A655364" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B655364" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="655365" spans="1:2">
@@ -10093,7 +9997,7 @@
         <v>171</v>
       </c>
       <c r="B655367" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="655368" spans="1:2">
@@ -10138,18 +10042,18 @@
     </row>
     <row r="671747" spans="1:2">
       <c r="A671747" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B671747" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="671748" spans="1:2">
       <c r="A671748" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B671748" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="671749" spans="1:2">
@@ -10169,7 +10073,7 @@
         <v>171</v>
       </c>
       <c r="B671751" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="671752" spans="1:2">
@@ -10214,18 +10118,18 @@
     </row>
     <row r="688131" spans="1:2">
       <c r="A688131" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B688131" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="688132" spans="1:2">
       <c r="A688132" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B688132" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="688133" spans="1:2">
@@ -10245,7 +10149,7 @@
         <v>171</v>
       </c>
       <c r="B688135" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="688136" spans="1:2">
@@ -10290,18 +10194,18 @@
     </row>
     <row r="704515" spans="1:2">
       <c r="A704515" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B704515" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="704516" spans="1:2">
       <c r="A704516" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B704516" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="704517" spans="1:2">
@@ -10321,7 +10225,7 @@
         <v>171</v>
       </c>
       <c r="B704519" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="704520" spans="1:2">
@@ -10366,18 +10270,18 @@
     </row>
     <row r="720899" spans="1:2">
       <c r="A720899" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B720899" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="720900" spans="1:2">
       <c r="A720900" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B720900" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="720901" spans="1:2">
@@ -10397,7 +10301,7 @@
         <v>171</v>
       </c>
       <c r="B720903" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="720904" spans="1:2">
@@ -10442,18 +10346,18 @@
     </row>
     <row r="737283" spans="1:2">
       <c r="A737283" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B737283" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="737284" spans="1:2">
       <c r="A737284" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B737284" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="737285" spans="1:2">
@@ -10473,7 +10377,7 @@
         <v>171</v>
       </c>
       <c r="B737287" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="737288" spans="1:2">
@@ -10518,18 +10422,18 @@
     </row>
     <row r="753667" spans="1:2">
       <c r="A753667" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B753667" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="753668" spans="1:2">
       <c r="A753668" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B753668" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="753669" spans="1:2">
@@ -10549,7 +10453,7 @@
         <v>171</v>
       </c>
       <c r="B753671" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="753672" spans="1:2">
@@ -10594,18 +10498,18 @@
     </row>
     <row r="770051" spans="1:2">
       <c r="A770051" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B770051" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="770052" spans="1:2">
       <c r="A770052" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B770052" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="770053" spans="1:2">
@@ -10625,7 +10529,7 @@
         <v>171</v>
       </c>
       <c r="B770055" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="770056" spans="1:2">
@@ -10670,18 +10574,18 @@
     </row>
     <row r="786435" spans="1:2">
       <c r="A786435" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B786435" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="786436" spans="1:2">
       <c r="A786436" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B786436" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="786437" spans="1:2">
@@ -10701,7 +10605,7 @@
         <v>171</v>
       </c>
       <c r="B786439" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="786440" spans="1:2">
@@ -10746,18 +10650,18 @@
     </row>
     <row r="802819" spans="1:2">
       <c r="A802819" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B802819" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="802820" spans="1:2">
       <c r="A802820" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B802820" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="802821" spans="1:2">
@@ -10777,7 +10681,7 @@
         <v>171</v>
       </c>
       <c r="B802823" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="802824" spans="1:2">
@@ -10822,18 +10726,18 @@
     </row>
     <row r="819203" spans="1:2">
       <c r="A819203" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B819203" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="819204" spans="1:2">
       <c r="A819204" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B819204" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="819205" spans="1:2">
@@ -10853,7 +10757,7 @@
         <v>171</v>
       </c>
       <c r="B819207" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="819208" spans="1:2">
@@ -10898,18 +10802,18 @@
     </row>
     <row r="835587" spans="1:2">
       <c r="A835587" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B835587" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="835588" spans="1:2">
       <c r="A835588" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B835588" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="835589" spans="1:2">
@@ -10929,7 +10833,7 @@
         <v>171</v>
       </c>
       <c r="B835591" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="835592" spans="1:2">
@@ -10974,18 +10878,18 @@
     </row>
     <row r="851971" spans="1:2">
       <c r="A851971" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B851971" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="851972" spans="1:2">
       <c r="A851972" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B851972" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="851973" spans="1:2">
@@ -11005,7 +10909,7 @@
         <v>171</v>
       </c>
       <c r="B851975" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="851976" spans="1:2">
@@ -11050,18 +10954,18 @@
     </row>
     <row r="868355" spans="1:2">
       <c r="A868355" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B868355" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="868356" spans="1:2">
       <c r="A868356" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B868356" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="868357" spans="1:2">
@@ -11081,7 +10985,7 @@
         <v>171</v>
       </c>
       <c r="B868359" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="868360" spans="1:2">
@@ -11126,18 +11030,18 @@
     </row>
     <row r="884739" spans="1:2">
       <c r="A884739" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B884739" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="884740" spans="1:2">
       <c r="A884740" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B884740" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="884741" spans="1:2">
@@ -11157,7 +11061,7 @@
         <v>171</v>
       </c>
       <c r="B884743" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="884744" spans="1:2">
@@ -11202,18 +11106,18 @@
     </row>
     <row r="901123" spans="1:2">
       <c r="A901123" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B901123" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="901124" spans="1:2">
       <c r="A901124" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B901124" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="901125" spans="1:2">
@@ -11233,7 +11137,7 @@
         <v>171</v>
       </c>
       <c r="B901127" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="901128" spans="1:2">
@@ -11278,18 +11182,18 @@
     </row>
     <row r="917507" spans="1:2">
       <c r="A917507" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B917507" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="917508" spans="1:2">
       <c r="A917508" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B917508" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="917509" spans="1:2">
@@ -11309,7 +11213,7 @@
         <v>171</v>
       </c>
       <c r="B917511" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="917512" spans="1:2">
@@ -11354,18 +11258,18 @@
     </row>
     <row r="933891" spans="1:2">
       <c r="A933891" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B933891" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="933892" spans="1:2">
       <c r="A933892" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B933892" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="933893" spans="1:2">
@@ -11385,7 +11289,7 @@
         <v>171</v>
       </c>
       <c r="B933895" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="933896" spans="1:2">
@@ -11430,18 +11334,18 @@
     </row>
     <row r="950275" spans="1:2">
       <c r="A950275" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B950275" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="950276" spans="1:2">
       <c r="A950276" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B950276" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="950277" spans="1:2">
@@ -11461,7 +11365,7 @@
         <v>171</v>
       </c>
       <c r="B950279" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="950280" spans="1:2">
@@ -11506,18 +11410,18 @@
     </row>
     <row r="966659" spans="1:2">
       <c r="A966659" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B966659" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="966660" spans="1:2">
       <c r="A966660" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B966660" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="966661" spans="1:2">
@@ -11537,7 +11441,7 @@
         <v>171</v>
       </c>
       <c r="B966663" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="966664" spans="1:2">
@@ -11582,18 +11486,18 @@
     </row>
     <row r="983043" spans="1:2">
       <c r="A983043" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B983043" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="983044" spans="1:2">
       <c r="A983044" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B983044" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="983045" spans="1:2">
@@ -11613,7 +11517,7 @@
         <v>171</v>
       </c>
       <c r="B983047" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="983048" spans="1:2">
@@ -11658,18 +11562,18 @@
     </row>
     <row r="999427" spans="1:2">
       <c r="A999427" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B999427" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="999428" spans="1:2">
       <c r="A999428" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B999428" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="999429" spans="1:2">
@@ -11689,7 +11593,7 @@
         <v>171</v>
       </c>
       <c r="B999431" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="999432" spans="1:2">
@@ -11734,18 +11638,18 @@
     </row>
     <row r="1015811" spans="1:2">
       <c r="A1015811" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B1015811" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1015812" spans="1:2">
       <c r="A1015812" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B1015812" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1015813" spans="1:2">
@@ -11765,7 +11669,7 @@
         <v>171</v>
       </c>
       <c r="B1015815" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1015816" spans="1:2">
@@ -11810,18 +11714,18 @@
     </row>
     <row r="1032195" spans="1:2">
       <c r="A1032195" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="B1032195" s="23" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="1032196" spans="1:2">
       <c r="A1032196" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="B1032196" s="23" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="1032197" spans="1:2">
@@ -11841,7 +11745,7 @@
         <v>171</v>
       </c>
       <c r="B1032199" s="23" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1032200" spans="1:2">
@@ -11908,10 +11812,10 @@
         <v>82</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D1" s="16"/>
       <c r="E1" s="18" t="s">
@@ -11938,17 +11842,17 @@
         <v>81</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>176</v>
@@ -12649,76 +12553,76 @@
     </row>
     <row r="5" spans="4:7">
       <c r="D5" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="E5" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="F5" s="128" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="4:7">
       <c r="D6" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="E6" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="F6" s="128" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="E7" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="F7" s="128" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="E8" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="D9" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="E9" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="F9" s="128" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="E10" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="F10" s="128" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="D11" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="E11" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F11" s="128" t="s">
         <v>65</v>
@@ -12793,15 +12697,15 @@
         <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="D9" s="2" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="E9" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="F9" s="128" t="s">
         <v>65</v>
@@ -12809,10 +12713,10 @@
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="2" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="E10" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="F10" s="128" t="s">
         <v>65</v>
@@ -12820,10 +12724,10 @@
     </row>
     <row r="11" spans="4:7">
       <c r="D11" s="2" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="E11" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="F11" s="128" t="s">
         <v>65</v>
@@ -12831,10 +12735,10 @@
     </row>
     <row r="12" spans="4:7">
       <c r="D12" s="2" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="E12" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="F12" s="128" t="s">
         <v>65</v>
@@ -12842,10 +12746,10 @@
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="E13" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="F13" s="128" t="s">
         <v>65</v>
@@ -12853,100 +12757,100 @@
     </row>
     <row r="16" spans="4:7">
       <c r="D16" s="2" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="E16" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="F16" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="E17" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="F17" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="4:7">
       <c r="D19" s="2" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="E19" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="F19" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="D20" s="2" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="E20" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="F20" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
     </row>
     <row r="21" spans="4:7">
       <c r="D21" s="2" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="E21" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="F21" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="D22" s="2" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="F22" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G22" s="73" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23" spans="4:7">
       <c r="D23" s="2" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="E23" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="F23" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
@@ -12979,10 +12883,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -12995,7 +12899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A54C9E1-F0F6-4E67-94D7-234FCF888941}">
   <dimension ref="C4:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -13022,10 +12926,10 @@
         <v>140</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="H4" s="127" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="I4" s="127" t="s">
         <v>76</v>
@@ -13033,10 +12937,10 @@
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="2" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="F5" s="128" t="s">
         <v>56</v>
@@ -13050,10 +12954,10 @@
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="2" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D7" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>65</v>
@@ -13068,15 +12972,15 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="2" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="D9" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>65</v>
@@ -13093,10 +12997,10 @@
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="2" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="D10" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="E10" s="128" t="s">
         <v>65</v>
@@ -13161,24 +13065,24 @@
         <v>140</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="J5" s="127" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="4:10" s="149" customFormat="1">
-      <c r="D6" s="150" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" s="149" t="s">
-        <v>680</v>
+    <row r="6" spans="4:10" s="132" customFormat="1">
+      <c r="D6" s="133" t="s">
+        <v>655</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>656</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="G6" s="128" t="s">
         <v>56</v>
@@ -13192,10 +13096,10 @@
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F7" s="128" t="s">
         <v>83</v>
@@ -13209,16 +13113,16 @@
       <c r="I7" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="148" t="s">
-        <v>670</v>
+      <c r="J7" s="131" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="2" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="E8" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="F8" s="128" t="s">
         <v>83</v>
@@ -13235,10 +13139,10 @@
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="2" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E9" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="F9" s="128" t="s">
         <v>83</v>
@@ -13255,10 +13159,10 @@
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="2" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="E10" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="F10" s="128" t="s">
         <v>83</v>
@@ -13275,10 +13179,10 @@
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="2" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="E11" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="F11" s="128" t="s">
         <v>83</v>
@@ -13332,24 +13236,24 @@
         <v>140</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="J5" s="127" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="4:10" s="127" customFormat="1">
-      <c r="D6" s="150" t="s">
-        <v>679</v>
-      </c>
-      <c r="E6" s="149" t="s">
-        <v>680</v>
+      <c r="D6" s="133" t="s">
+        <v>655</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>656</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="G6" s="128" t="s">
         <v>56</v>
@@ -13360,14 +13264,14 @@
       <c r="I6" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="149"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F7" s="128" t="s">
         <v>83</v>
@@ -13381,16 +13285,16 @@
       <c r="I7" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="148" t="s">
-        <v>670</v>
+      <c r="J7" s="131" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="2" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="F8" s="128" t="s">
         <v>119</v>
@@ -13461,7 +13365,7 @@
         <v>175</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>176</v>
@@ -14828,10 +14732,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="10" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -14844,7 +14748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -14873,9 +14777,7 @@
       <c r="D1" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="E1" s="43" t="s">
-        <v>303</v>
-      </c>
+      <c r="E1" s="43"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="31" t="s">
@@ -14887,9 +14789,6 @@
       <c r="D2" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>331</v>
-      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="31" t="s">
@@ -14901,9 +14800,6 @@
       <c r="D3" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E3" s="44" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
@@ -14915,9 +14811,6 @@
       <c r="D4" s="29" t="s">
         <v>307</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>333</v>
-      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
@@ -14929,9 +14822,6 @@
       <c r="D5" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="31" t="s">
@@ -14943,9 +14833,6 @@
       <c r="D6" s="29" t="s">
         <v>309</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="31" t="s">
@@ -14957,9 +14844,6 @@
       <c r="D7" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="31" t="s">
@@ -14971,9 +14855,6 @@
       <c r="D8" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>337</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
@@ -14985,9 +14866,6 @@
       <c r="D9" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="E9" s="44" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
@@ -14999,9 +14877,6 @@
       <c r="D10" s="29" t="s">
         <v>327</v>
       </c>
-      <c r="E10" s="44" t="s">
-        <v>339</v>
-      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
@@ -15011,10 +14886,7 @@
         <v>272</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I11" s="42"/>
     </row>
@@ -15028,9 +14900,6 @@
       <c r="D12" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>344</v>
-      </c>
       <c r="I12" s="42"/>
     </row>
     <row r="13" spans="1:9">
@@ -15043,9 +14912,6 @@
       <c r="D13" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="E13" s="44" t="s">
-        <v>345</v>
-      </c>
       <c r="I13" s="42"/>
     </row>
     <row r="14" spans="1:9">
@@ -15061,9 +14927,6 @@
       <c r="D14" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="44" t="s">
-        <v>346</v>
-      </c>
       <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:9">
@@ -15079,9 +14942,6 @@
       <c r="D15" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="44" t="s">
-        <v>347</v>
-      </c>
       <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:9">
@@ -15097,9 +14957,6 @@
       <c r="D16" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>348</v>
-      </c>
       <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9">
@@ -15115,9 +14972,6 @@
       <c r="D17" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>349</v>
-      </c>
       <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9">
@@ -15133,9 +14987,6 @@
       <c r="D18" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="44" t="s">
-        <v>350</v>
-      </c>
       <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9">
@@ -15151,9 +15002,6 @@
       <c r="D19" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>351</v>
-      </c>
       <c r="I19" s="42"/>
     </row>
     <row r="20" spans="1:9">
@@ -15166,9 +15014,6 @@
       <c r="D20" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>352</v>
-      </c>
       <c r="I20" s="42"/>
     </row>
     <row r="21" spans="1:9">
@@ -15181,9 +15026,6 @@
       <c r="D21" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="E21" s="44" t="s">
-        <v>353</v>
-      </c>
       <c r="I21" s="42"/>
     </row>
     <row r="22" spans="1:9">
@@ -15196,9 +15038,6 @@
       <c r="D22" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="44" t="s">
-        <v>354</v>
-      </c>
       <c r="I22" s="42"/>
     </row>
     <row r="23" spans="1:9">
@@ -15211,9 +15050,6 @@
       <c r="D23" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>355</v>
-      </c>
       <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:9">
@@ -15226,9 +15062,6 @@
       <c r="D24" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E24" s="44" t="s">
-        <v>356</v>
-      </c>
       <c r="I24" s="42"/>
     </row>
     <row r="25" spans="1:9">
@@ -15240,9 +15073,6 @@
       </c>
       <c r="D25" s="29" t="s">
         <v>329</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>357</v>
       </c>
       <c r="I25" s="42"/>
     </row>
@@ -15288,7 +15118,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="17.25" thickBot="1">
       <c r="A1" s="79" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B1" s="79">
         <v>1</v>
@@ -15338,22 +15168,22 @@
     </row>
     <row r="2" spans="1:18" ht="17.25" thickTop="1">
       <c r="A2" s="14" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -15362,14 +15192,14 @@
       <c r="K2" s="92"/>
       <c r="L2" s="92"/>
       <c r="M2" s="92" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="N2" s="92"/>
       <c r="O2" s="14" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="P2" s="75" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -15381,7 +15211,7 @@
       <c r="F3" s="92"/>
       <c r="G3" s="92"/>
       <c r="H3" s="92" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="I3" s="92"/>
       <c r="J3" s="92"/>
@@ -15389,7 +15219,7 @@
       <c r="L3" s="92"/>
       <c r="M3" s="92"/>
       <c r="N3" s="92" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="O3" s="14"/>
       <c r="P3" s="75"/>
@@ -15403,19 +15233,19 @@
       <c r="F4" s="92"/>
       <c r="G4" s="92"/>
       <c r="H4" s="92" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="I4" s="92" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="J4" s="92"/>
       <c r="K4" s="92"/>
       <c r="L4" s="92" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="M4" s="92"/>
       <c r="N4" s="92" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="O4" s="14"/>
       <c r="P4" s="75"/>
@@ -15429,7 +15259,7 @@
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="93" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="I5" s="93"/>
       <c r="J5" s="93"/>
@@ -15437,7 +15267,7 @@
       <c r="L5" s="93"/>
       <c r="M5" s="93"/>
       <c r="N5" s="93" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="O5" s="14"/>
       <c r="P5" s="75"/>
@@ -15449,7 +15279,7 @@
       <c r="D6" s="14"/>
       <c r="E6" s="81"/>
       <c r="F6" s="94" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="G6" s="94"/>
       <c r="H6" s="94"/>
@@ -15470,19 +15300,19 @@
       <c r="E7" s="81"/>
       <c r="F7" s="95"/>
       <c r="G7" s="95" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="H7" s="95" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="I7" s="95" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="J7" s="95" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="K7" s="95" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="L7" s="95"/>
       <c r="M7" s="95"/>
@@ -15499,7 +15329,7 @@
       <c r="F8" s="95"/>
       <c r="G8" s="95"/>
       <c r="H8" s="95" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
@@ -15519,19 +15349,19 @@
       <c r="F9" s="96"/>
       <c r="G9" s="96"/>
       <c r="H9" s="96" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="I9" s="96" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="J9" s="96"/>
       <c r="K9" s="96"/>
       <c r="L9" s="96" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="M9" s="96"/>
       <c r="N9" s="96" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="O9" s="15"/>
       <c r="P9" s="74"/>
@@ -15556,16 +15386,16 @@
     </row>
     <row r="11" spans="1:18" ht="17.25" thickBot="1">
       <c r="A11" s="125" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="C11" s="125" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D11" s="126" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -15590,10 +15420,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
@@ -15618,10 +15448,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D13" s="122" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -15646,10 +15476,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
@@ -15674,10 +15504,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
@@ -15702,10 +15532,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
@@ -15730,10 +15560,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="D17" s="122" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
@@ -15758,10 +15588,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
@@ -15786,10 +15616,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
@@ -15814,10 +15644,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="D20" s="122" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
@@ -15842,10 +15672,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
@@ -15870,10 +15700,10 @@
         <v>4</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="D22" s="122" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
@@ -15898,10 +15728,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
@@ -15926,10 +15756,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
@@ -15954,10 +15784,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D25" s="122" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
@@ -15982,10 +15812,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D26" s="122" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
@@ -16010,10 +15840,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="D27" s="122" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
@@ -16038,10 +15868,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="D28" s="122" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
@@ -16066,10 +15896,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D29" s="123" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -16080,10 +15910,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D30" s="123" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -16094,10 +15924,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D31" s="123" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
@@ -16110,10 +15940,10 @@
         <v>3</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D32" s="123" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
@@ -16126,10 +15956,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D33" s="123" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
@@ -16142,10 +15972,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="D34" s="123" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
@@ -16274,13 +16104,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16">
-      <c r="E27" s="139" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="139" t="s">
+      <c r="E27" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="139" t="s">
+      <c r="G27" s="137" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -16292,16 +16122,16 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="136" t="s">
+      <c r="K27" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="136" t="s">
+      <c r="L27" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="133" t="s">
+      <c r="M27" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="N27" s="135"/>
+      <c r="N27" s="140"/>
       <c r="O27" s="5">
         <v>1</v>
       </c>
@@ -16310,9 +16140,9 @@
       </c>
     </row>
     <row r="28" spans="5:16">
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -16322,9 +16152,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="137"/>
-      <c r="L28" s="137"/>
-      <c r="M28" s="136" t="s">
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="142" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -16338,9 +16168,9 @@
       </c>
     </row>
     <row r="29" spans="5:16">
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -16350,9 +16180,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="137"/>
-      <c r="L29" s="137"/>
-      <c r="M29" s="137"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -16364,21 +16194,21 @@
       </c>
     </row>
     <row r="30" spans="5:16">
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139" t="s">
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="139"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="137"/>
-      <c r="L30" s="137"/>
-      <c r="M30" s="137"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -16390,11 +16220,11 @@
       </c>
     </row>
     <row r="31" spans="5:16">
-      <c r="E31" s="139"/>
-      <c r="F31" s="139" t="s">
+      <c r="E31" s="137"/>
+      <c r="F31" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="139" t="s">
+      <c r="G31" s="137" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -16406,9 +16236,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138"/>
-      <c r="M31" s="138"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -16420,9 +16250,9 @@
       </c>
     </row>
     <row r="32" spans="5:16">
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -16432,14 +16262,14 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="137"/>
-      <c r="L32" s="136" t="s">
+      <c r="K32" s="143"/>
+      <c r="L32" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="133" t="s">
+      <c r="M32" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="135"/>
+      <c r="N32" s="140"/>
       <c r="O32" s="5" t="s">
         <v>47</v>
       </c>
@@ -16448,9 +16278,9 @@
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -16460,12 +16290,12 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="137"/>
-      <c r="L33" s="138"/>
-      <c r="M33" s="133" t="s">
+      <c r="K33" s="143"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="N33" s="135"/>
+      <c r="N33" s="140"/>
       <c r="O33" s="5" t="s">
         <v>47</v>
       </c>
@@ -16474,9 +16304,9 @@
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -16486,25 +16316,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="137"/>
-      <c r="L34" s="136" t="s">
+      <c r="K34" s="143"/>
+      <c r="L34" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="133" t="s">
+      <c r="M34" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="N34" s="135"/>
+      <c r="N34" s="140"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="140" t="s">
+      <c r="P34" s="138" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -16514,21 +16344,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="137"/>
-      <c r="L35" s="137"/>
-      <c r="M35" s="133" t="s">
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="N35" s="135"/>
+      <c r="N35" s="140"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="140"/>
+      <c r="P35" s="138"/>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139" t="s">
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -16540,21 +16370,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="137"/>
-      <c r="L36" s="138"/>
-      <c r="M36" s="133" t="s">
+      <c r="K36" s="143"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="139" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="135"/>
+      <c r="N36" s="140"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="140"/>
+      <c r="P36" s="138"/>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -16564,8 +16394,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="137"/>
-      <c r="L37" s="136" t="s">
+      <c r="K37" s="143"/>
+      <c r="L37" s="142" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -16582,9 +16412,9 @@
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139" t="s">
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -16596,8 +16426,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="137"/>
-      <c r="L38" s="138"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="144"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -16612,9 +16442,9 @@
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -16624,12 +16454,12 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="138"/>
-      <c r="L39" s="133" t="s">
+      <c r="K39" s="144"/>
+      <c r="L39" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="134"/>
-      <c r="N39" s="135"/>
+      <c r="M39" s="141"/>
+      <c r="N39" s="140"/>
       <c r="O39" s="5">
         <v>1</v>
       </c>
@@ -16638,14 +16468,14 @@
       </c>
     </row>
     <row r="40" spans="5:16">
-      <c r="E40" s="139"/>
-      <c r="F40" s="139" t="s">
+      <c r="E40" s="137"/>
+      <c r="F40" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="139" t="s">
+      <c r="G40" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="139"/>
+      <c r="H40" s="137"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -16654,12 +16484,12 @@
       </c>
     </row>
     <row r="41" spans="5:16">
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139" t="s">
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="139"/>
+      <c r="H41" s="137"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -16668,8 +16498,8 @@
       </c>
     </row>
     <row r="42" spans="5:16">
-      <c r="E42" s="139"/>
-      <c r="F42" s="139" t="s">
+      <c r="E42" s="137"/>
+      <c r="F42" s="137" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -16686,8 +16516,8 @@
       </c>
     </row>
     <row r="43" spans="5:16">
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -16702,12 +16532,12 @@
       </c>
     </row>
     <row r="44" spans="5:16">
-      <c r="E44" s="139"/>
-      <c r="F44" s="139" t="s">
+      <c r="E44" s="137"/>
+      <c r="F44" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -16717,6 +16547,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -16733,17 +16574,6 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16843,10 +16673,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="10" spans="1:14">
       <c r="N10" s="10" t="s">
@@ -16854,22 +16684,22 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="144" t="s">
+      <c r="A11" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="146" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="142"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -16890,10 +16720,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="145" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -16916,8 +16746,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="141"/>
-      <c r="B14" s="141"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -16938,8 +16768,8 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="141"/>
-      <c r="B15" s="142"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -16957,8 +16787,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="141"/>
-      <c r="B16" s="142"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -16979,8 +16809,8 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="141"/>
-      <c r="B17" s="142"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -17001,8 +16831,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
+      <c r="A18" s="145"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -17020,8 +16850,8 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="141"/>
-      <c r="B19" s="142"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -17039,8 +16869,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="141"/>
-      <c r="B20" s="142"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -17058,8 +16888,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141" t="s">
+      <c r="A21" s="145"/>
+      <c r="B21" s="145" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -17082,8 +16912,8 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -17104,8 +16934,8 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="141"/>
-      <c r="B23" s="142"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -17126,8 +16956,8 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="141"/>
-      <c r="B24" s="142"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -17148,8 +16978,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="141"/>
-      <c r="B25" s="142" t="s">
+      <c r="A25" s="145"/>
+      <c r="B25" s="146" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -17169,8 +16999,8 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="141"/>
-      <c r="B26" s="142"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -17188,8 +17018,8 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="141"/>
-      <c r="B27" s="142"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -17207,8 +17037,8 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="141"/>
-      <c r="B28" s="142"/>
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -17226,7 +17056,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="141"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -17634,14 +17464,14 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="149" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D2" s="54" t="s">
         <v>119</v>
@@ -17656,12 +17486,12 @@
         <v>56</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="145"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -17681,12 +17511,12 @@
         <v>3</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="149" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -17710,7 +17540,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="145"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -17730,12 +17560,12 @@
         <v>56</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="145"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -17757,7 +17587,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="145"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -17779,7 +17609,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="145"/>
+      <c r="A8" s="149"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -17799,12 +17629,12 @@
         <v>56</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="145"/>
+      <c r="A9" s="149"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -17826,7 +17656,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="145"/>
+      <c r="A10" s="149"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -17848,7 +17678,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="145"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -17868,12 +17698,12 @@
         <v>56</v>
       </c>
       <c r="H11" s="57" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="145"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -17895,7 +17725,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="145"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -17917,7 +17747,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="145"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -17937,12 +17767,12 @@
         <v>56</v>
       </c>
       <c r="H14" s="57" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="145"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -17964,7 +17794,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="145"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -17983,7 +17813,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="149" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -18005,12 +17835,12 @@
         <v>56</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="145"/>
+      <c r="A18" s="149"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -18032,7 +17862,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="145"/>
+      <c r="A19" s="149"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -18054,7 +17884,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="149" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -18076,7 +17906,7 @@
         <v>99</v>
       </c>
       <c r="H20" s="57" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="I20" s="47" t="s">
         <v>88</v>
@@ -18084,7 +17914,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="145"/>
+      <c r="A21" s="149"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -18104,7 +17934,7 @@
         <v>99</v>
       </c>
       <c r="H21" s="57" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="I21" s="47" t="s">
         <v>89</v>
@@ -18112,7 +17942,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="149" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -18134,12 +17964,12 @@
         <v>56</v>
       </c>
       <c r="H22" s="57" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="145"/>
+      <c r="A23" s="149"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -18159,12 +17989,12 @@
         <v>56</v>
       </c>
       <c r="H23" s="57" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="145"/>
+      <c r="A24" s="149"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -18184,12 +18014,12 @@
         <v>56</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="145"/>
+      <c r="A25" s="149"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -18209,12 +18039,12 @@
         <v>56</v>
       </c>
       <c r="H25" s="57" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="145"/>
+      <c r="A26" s="149"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -18234,12 +18064,12 @@
         <v>56</v>
       </c>
       <c r="H26" s="57" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="145"/>
+      <c r="A27" s="149"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -18259,7 +18089,7 @@
         <v>56</v>
       </c>
       <c r="H27" s="57" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="J27" s="53"/>
     </row>
@@ -18320,10 +18150,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="C2" s="46" t="s">
         <v>64</v>
@@ -18340,13 +18170,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D3" s="46" t="s">
         <v>56</v>
@@ -18360,13 +18190,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D4" s="46" t="s">
         <v>56</v>
@@ -18381,10 +18211,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="H8" s="146" t="s">
-        <v>384</v>
-      </c>
-      <c r="I8" s="146"/>
+      <c r="H8" s="150" t="s">
+        <v>360</v>
+      </c>
+      <c r="I8" s="150"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="H9" s="65" t="s">
@@ -18396,10 +18226,10 @@
     </row>
     <row r="10" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="H10" s="66" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="I10" s="66" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="17.25" thickTop="1"/>

--- a/기획/체스/카드 체스 엑셀 종합.xlsx
+++ b/기획/체스/카드 체스 엑셀 종합.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\체스\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C22A79B-61EB-447F-8043-F8643718015E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F591C5-A86C-47F0-ADC1-51FE33B46881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="729" firstSheet="18" activeTab="25" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="729" xr2:uid="{F21251AC-B917-4D15-A3C2-9B7BC564FCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="카드 효과 텍스트 테이블" sheetId="17" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="658">
   <si>
     <t>리스크 포인트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1914,14 +1914,6 @@
   </si>
   <si>
     <t>0 = 미사용, 1 = 해당 기물, 2 = 자신(아군), 3 = 상대(적군)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = 미사용(대상 타입 1 = 1일 때 고정), 1 = 플레이어, 2 = 카드, 3 = 기물 카드, 4 = 스킬 카드, 5 = 이벤트 카드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = 미사용(대상 타입 2 ≠ 3 or 4일 때 고정), 1 = 킹 클래스, 2 = 퀸 클래스, 3 = 나이트 클래스, 4 = 비숍 클래스, 5 = 루크 클래스, 6 = 폰 클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2694,6 +2686,14 @@
   </si>
   <si>
     <t>문자(32자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(대상 타입 1의 값이 1일 때 고정적으로 적용), 1 = 플레이어, 2 = 카드, 3 = 기물 카드, 4 = 스킬 카드, 5 = 이벤트 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = 미사용(대상 타입 2의 값이 3 이나 4일 때 고정적으로 적용), 1 = 킹 클래스, 2 = 퀸 클래스, 3 = 나이트 클래스, 4 = 비숍 클래스, 5 = 루크 클래스, 6 = 폰 클래스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3035,7 +3035,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3438,6 +3438,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3447,19 +3450,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3470,6 +3467,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4622,8 +4625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786F5862-3BE2-4CE3-A882-CC5CEAE6B0AD}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4676,13 +4679,13 @@
     </row>
     <row r="2" spans="1:15" s="99" customFormat="1">
       <c r="A2" s="106" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B2" s="107" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C2" s="112" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D2" s="106" t="s">
         <v>233</v>
@@ -4702,13 +4705,13 @@
     </row>
     <row r="3" spans="1:15" s="99" customFormat="1">
       <c r="A3" s="106" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B3" s="107" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D3" s="106" t="s">
         <v>65</v>
@@ -4723,13 +4726,13 @@
         <v>5</v>
       </c>
       <c r="H3" s="99" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I3" s="98"/>
       <c r="J3" s="98"/>
     </row>
     <row r="4" spans="1:15" s="100" customFormat="1">
-      <c r="A4" s="134" t="s">
+      <c r="A4" s="135" t="s">
         <v>399</v>
       </c>
       <c r="B4" s="108" t="s">
@@ -4755,7 +4758,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" s="84" customFormat="1">
-      <c r="A5" s="136"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="109" t="s">
         <v>460</v>
       </c>
@@ -4779,7 +4782,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" s="57" customFormat="1">
-      <c r="A6" s="136"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="109" t="s">
         <v>407</v>
       </c>
@@ -4805,7 +4808,7 @@
       <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:15" s="57" customFormat="1">
-      <c r="A7" s="136"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="109" t="s">
         <v>402</v>
       </c>
@@ -4822,16 +4825,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H7" s="57" t="s">
-        <v>479</v>
+        <v>656</v>
       </c>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:15" s="57" customFormat="1">
-      <c r="A8" s="136"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="109" t="s">
         <v>406</v>
       </c>
@@ -4848,16 +4851,16 @@
         <v>0</v>
       </c>
       <c r="G8" s="118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>480</v>
+        <v>657</v>
       </c>
       <c r="I8" s="90"/>
       <c r="J8" s="90"/>
     </row>
     <row r="9" spans="1:15" s="57" customFormat="1">
-      <c r="A9" s="136"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="109" t="s">
         <v>470</v>
       </c>
@@ -4885,7 +4888,7 @@
       <c r="O9" s="102"/>
     </row>
     <row r="10" spans="1:15" s="57" customFormat="1">
-      <c r="A10" s="136"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="109" t="s">
         <v>472</v>
       </c>
@@ -4911,7 +4914,7 @@
       <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:15" s="57" customFormat="1">
-      <c r="A11" s="136"/>
+      <c r="A11" s="137"/>
       <c r="B11" s="109" t="s">
         <v>473</v>
       </c>
@@ -4937,12 +4940,12 @@
       <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:15" s="57" customFormat="1">
-      <c r="A12" s="136"/>
+      <c r="A12" s="137"/>
       <c r="B12" s="109" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D12" s="118" t="s">
         <v>65</v>
@@ -4957,13 +4960,13 @@
         <v>99</v>
       </c>
       <c r="H12" s="57" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I12" s="90"/>
       <c r="J12" s="90"/>
     </row>
     <row r="13" spans="1:15" s="104" customFormat="1">
-      <c r="A13" s="135"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="110" t="s">
         <v>403</v>
       </c>
@@ -4983,13 +4986,13 @@
         <v>99</v>
       </c>
       <c r="H13" s="104" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I13" s="103"/>
       <c r="J13" s="103"/>
     </row>
     <row r="14" spans="1:15" s="101" customFormat="1">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="135" t="s">
         <v>417</v>
       </c>
       <c r="B14" s="108" t="s">
@@ -5011,13 +5014,13 @@
         <v>999</v>
       </c>
       <c r="H14" s="101" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I14" s="100"/>
       <c r="J14" s="100"/>
     </row>
     <row r="15" spans="1:15" s="104" customFormat="1">
-      <c r="A15" s="135"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="110" t="s">
         <v>21</v>
       </c>
@@ -5037,41 +5040,41 @@
         <v>999</v>
       </c>
       <c r="H15" s="101" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I15" s="103"/>
       <c r="J15" s="103"/>
     </row>
     <row r="16" spans="1:15" s="101" customFormat="1">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="135" t="s">
         <v>50</v>
       </c>
       <c r="B16" s="108" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C16" s="114" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D16" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="117" t="s">
-        <v>56</v>
+      <c r="E16" s="117">
+        <v>0</v>
+      </c>
+      <c r="F16" s="117">
+        <v>0</v>
+      </c>
+      <c r="G16" s="117">
+        <v>99</v>
       </c>
       <c r="H16" s="101" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I16" s="100"/>
       <c r="J16" s="100"/>
     </row>
     <row r="17" spans="1:15" s="57" customFormat="1">
-      <c r="A17" s="136"/>
+      <c r="A17" s="137"/>
       <c r="B17" s="109" t="s">
         <v>421</v>
       </c>
@@ -5081,8 +5084,8 @@
       <c r="D17" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="118" t="s">
-        <v>56</v>
+      <c r="E17" s="118">
+        <v>0</v>
       </c>
       <c r="F17" s="86">
         <v>0</v>
@@ -5099,7 +5102,7 @@
       <c r="O17" s="102"/>
     </row>
     <row r="18" spans="1:15" s="57" customFormat="1">
-      <c r="A18" s="136"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="109" t="s">
         <v>462</v>
       </c>
@@ -5109,14 +5112,14 @@
       <c r="D18" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="118" t="s">
-        <v>56</v>
+      <c r="E18" s="118">
+        <v>0</v>
       </c>
       <c r="F18" s="86">
         <v>0</v>
       </c>
       <c r="G18" s="86">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="H18" s="57" t="s">
         <v>475</v>
@@ -5125,7 +5128,7 @@
       <c r="J18" s="90"/>
     </row>
     <row r="19" spans="1:15" s="57" customFormat="1">
-      <c r="A19" s="136"/>
+      <c r="A19" s="137"/>
       <c r="B19" s="109" t="s">
         <v>463</v>
       </c>
@@ -5135,8 +5138,8 @@
       <c r="D19" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="118" t="s">
-        <v>56</v>
+      <c r="E19" s="118">
+        <v>0</v>
       </c>
       <c r="F19" s="86">
         <v>0</v>
@@ -5151,7 +5154,7 @@
       <c r="J19" s="90"/>
     </row>
     <row r="20" spans="1:15" s="57" customFormat="1">
-      <c r="A20" s="136"/>
+      <c r="A20" s="137"/>
       <c r="B20" s="109" t="s">
         <v>423</v>
       </c>
@@ -5161,8 +5164,8 @@
       <c r="D20" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="118" t="s">
-        <v>56</v>
+      <c r="E20" s="118">
+        <v>0</v>
       </c>
       <c r="F20" s="86">
         <v>-99</v>
@@ -5177,7 +5180,7 @@
       <c r="J20" s="90"/>
     </row>
     <row r="21" spans="1:15" s="57" customFormat="1">
-      <c r="A21" s="136"/>
+      <c r="A21" s="137"/>
       <c r="B21" s="109" t="s">
         <v>422</v>
       </c>
@@ -5187,8 +5190,8 @@
       <c r="D21" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="118" t="s">
-        <v>56</v>
+      <c r="E21" s="118">
+        <v>0</v>
       </c>
       <c r="F21" s="86">
         <v>-99</v>
@@ -5203,7 +5206,7 @@
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:15" s="57" customFormat="1">
-      <c r="A22" s="136"/>
+      <c r="A22" s="137"/>
       <c r="B22" s="109" t="s">
         <v>424</v>
       </c>
@@ -5213,8 +5216,8 @@
       <c r="D22" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="118" t="s">
-        <v>56</v>
+      <c r="E22" s="118">
+        <v>0</v>
       </c>
       <c r="F22" s="86">
         <v>-99</v>
@@ -5227,7 +5230,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" s="57" customFormat="1">
-      <c r="A23" s="136"/>
+      <c r="A23" s="137"/>
       <c r="B23" s="109" t="s">
         <v>425</v>
       </c>
@@ -5237,8 +5240,8 @@
       <c r="D23" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="118" t="s">
-        <v>56</v>
+      <c r="E23" s="134">
+        <v>0</v>
       </c>
       <c r="F23" s="86">
         <v>-99</v>
@@ -5251,18 +5254,18 @@
       </c>
     </row>
     <row r="24" spans="1:15" s="57" customFormat="1">
-      <c r="A24" s="136"/>
+      <c r="A24" s="137"/>
       <c r="B24" s="109" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D24" s="118" t="s">
         <v>359</v>
       </c>
-      <c r="E24" s="118" t="s">
-        <v>56</v>
+      <c r="E24" s="134">
+        <v>0</v>
       </c>
       <c r="F24" s="86">
         <v>0</v>
@@ -5271,31 +5274,35 @@
         <v>9999</v>
       </c>
       <c r="H24" s="57" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="57" customFormat="1">
-      <c r="A25" s="136"/>
+      <c r="A25" s="137"/>
       <c r="B25" s="109" t="s">
+        <v>543</v>
+      </c>
+      <c r="C25" s="115" t="s">
         <v>545</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>547</v>
       </c>
       <c r="D25" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
+      <c r="E25" s="134">
+        <v>0</v>
+      </c>
+      <c r="F25" s="91">
+        <v>0</v>
+      </c>
+      <c r="G25" s="91">
+        <v>99</v>
+      </c>
       <c r="H25" s="57" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="57" customFormat="1">
-      <c r="A26" s="136"/>
+      <c r="A26" s="137"/>
       <c r="B26" s="109" t="s">
         <v>354</v>
       </c>
@@ -5305,8 +5312,8 @@
       <c r="D26" s="118" t="s">
         <v>359</v>
       </c>
-      <c r="E26" s="118" t="s">
-        <v>56</v>
+      <c r="E26" s="134">
+        <v>0</v>
       </c>
       <c r="F26" s="86">
         <v>0</v>
@@ -5315,31 +5322,35 @@
         <v>9999</v>
       </c>
       <c r="H26" s="57" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="57" customFormat="1">
-      <c r="A27" s="136"/>
+      <c r="A27" s="137"/>
       <c r="B27" s="109" t="s">
+        <v>544</v>
+      </c>
+      <c r="C27" s="115" t="s">
         <v>546</v>
-      </c>
-      <c r="C27" s="115" t="s">
-        <v>548</v>
       </c>
       <c r="D27" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="118" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
+      <c r="E27" s="134">
+        <v>0</v>
+      </c>
+      <c r="F27" s="91">
+        <v>0</v>
+      </c>
+      <c r="G27" s="91">
+        <v>99</v>
+      </c>
       <c r="H27" s="57" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="57" customFormat="1">
-      <c r="A28" s="136"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="109" t="s">
         <v>431</v>
       </c>
@@ -5349,8 +5360,8 @@
       <c r="D28" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="E28" s="118" t="s">
-        <v>56</v>
+      <c r="E28" s="134">
+        <v>0</v>
       </c>
       <c r="F28" s="86">
         <v>0</v>
@@ -5363,7 +5374,7 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="57" customFormat="1">
-      <c r="A29" s="136"/>
+      <c r="A29" s="137"/>
       <c r="B29" s="109" t="s">
         <v>430</v>
       </c>
@@ -5373,8 +5384,8 @@
       <c r="D29" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="118" t="s">
-        <v>56</v>
+      <c r="E29" s="134">
+        <v>0</v>
       </c>
       <c r="F29" s="86">
         <v>0</v>
@@ -5387,7 +5398,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" s="57" customFormat="1">
-      <c r="A30" s="136"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="109" t="s">
         <v>432</v>
       </c>
@@ -5397,8 +5408,8 @@
       <c r="D30" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="118" t="s">
-        <v>56</v>
+      <c r="E30" s="134">
+        <v>0</v>
       </c>
       <c r="F30" s="86">
         <v>0</v>
@@ -5411,7 +5422,7 @@
       </c>
     </row>
     <row r="31" spans="1:15" s="57" customFormat="1">
-      <c r="A31" s="136"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="109" t="s">
         <v>426</v>
       </c>
@@ -5421,8 +5432,8 @@
       <c r="D31" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="118" t="s">
-        <v>56</v>
+      <c r="E31" s="134">
+        <v>0</v>
       </c>
       <c r="F31" s="86">
         <v>0</v>
@@ -5435,7 +5446,7 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="57" customFormat="1">
-      <c r="A32" s="136"/>
+      <c r="A32" s="137"/>
       <c r="B32" s="109" t="s">
         <v>427</v>
       </c>
@@ -5445,8 +5456,8 @@
       <c r="D32" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="118" t="s">
-        <v>56</v>
+      <c r="E32" s="134">
+        <v>0</v>
       </c>
       <c r="F32" s="86">
         <v>0</v>
@@ -5455,11 +5466,11 @@
         <v>99</v>
       </c>
       <c r="H32" s="57" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="57" customFormat="1">
-      <c r="A33" s="136"/>
+      <c r="A33" s="137"/>
       <c r="B33" s="109" t="s">
         <v>428</v>
       </c>
@@ -5469,8 +5480,8 @@
       <c r="D33" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="118" t="s">
-        <v>56</v>
+      <c r="E33" s="134">
+        <v>0</v>
       </c>
       <c r="F33" s="86">
         <v>0</v>
@@ -5479,11 +5490,11 @@
         <v>99</v>
       </c>
       <c r="H33" s="57" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="57" customFormat="1">
-      <c r="A34" s="136"/>
+      <c r="A34" s="137"/>
       <c r="B34" s="109" t="s">
         <v>429</v>
       </c>
@@ -5493,8 +5504,8 @@
       <c r="D34" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="118" t="s">
-        <v>56</v>
+      <c r="E34" s="134">
+        <v>0</v>
       </c>
       <c r="F34" s="86">
         <v>0</v>
@@ -5503,11 +5514,11 @@
         <v>99</v>
       </c>
       <c r="H34" s="57" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="57" customFormat="1">
-      <c r="A35" s="136"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="109" t="s">
         <v>434</v>
       </c>
@@ -5517,21 +5528,21 @@
       <c r="D35" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="118" t="s">
-        <v>56</v>
+      <c r="E35" s="134">
+        <v>0</v>
       </c>
       <c r="F35" s="86">
         <v>0</v>
       </c>
       <c r="G35" s="86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="57" customFormat="1">
-      <c r="A36" s="136"/>
+      <c r="A36" s="137"/>
       <c r="B36" s="109" t="s">
         <v>435</v>
       </c>
@@ -5541,31 +5552,31 @@
       <c r="D36" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="118" t="s">
-        <v>56</v>
+      <c r="E36" s="134">
+        <v>0</v>
       </c>
       <c r="F36" s="86">
         <v>0</v>
       </c>
       <c r="G36" s="86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="57" customFormat="1">
-      <c r="A37" s="136"/>
+      <c r="A37" s="137"/>
       <c r="B37" s="109" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D37" s="118" t="s">
         <v>233</v>
       </c>
-      <c r="E37" s="118" t="s">
+      <c r="E37" s="134" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="86" t="s">
@@ -5575,16 +5586,16 @@
         <v>56</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="57" customFormat="1">
-      <c r="A38" s="136"/>
+      <c r="A38" s="137"/>
       <c r="B38" s="109" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D38" s="86" t="s">
         <v>119</v>
@@ -5599,16 +5610,16 @@
         <v>56</v>
       </c>
       <c r="H38" s="57" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="57" customFormat="1">
-      <c r="A39" s="136"/>
+      <c r="A39" s="137"/>
       <c r="B39" s="109" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C39" s="115" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D39" s="86" t="s">
         <v>65</v>
@@ -5616,23 +5627,23 @@
       <c r="E39" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="86" t="s">
-        <v>56</v>
+      <c r="F39" s="86">
+        <v>0</v>
+      </c>
+      <c r="G39" s="86">
+        <v>99</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="57" customFormat="1">
-      <c r="A40" s="136"/>
+      <c r="A40" s="137"/>
       <c r="B40" s="109" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D40" s="118" t="s">
         <v>119</v>
@@ -5647,16 +5658,16 @@
         <v>56</v>
       </c>
       <c r="H40" s="57" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="104" customFormat="1">
-      <c r="A41" s="135"/>
+      <c r="A41" s="136"/>
       <c r="B41" s="110" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C41" s="116" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D41" s="87" t="s">
         <v>65</v>
@@ -5664,18 +5675,18 @@
       <c r="E41" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" s="87" t="s">
-        <v>56</v>
+      <c r="F41" s="87">
+        <v>0</v>
+      </c>
+      <c r="G41" s="87">
+        <v>99</v>
       </c>
       <c r="H41" s="105" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="101" customFormat="1">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="135" t="s">
         <v>450</v>
       </c>
       <c r="B42" s="108" t="s">
@@ -5701,7 +5712,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" s="57" customFormat="1">
-      <c r="A43" s="136"/>
+      <c r="A43" s="137"/>
       <c r="B43" s="109" t="s">
         <v>455</v>
       </c>
@@ -5711,8 +5722,8 @@
       <c r="D43" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="86" t="s">
-        <v>56</v>
+      <c r="E43" s="86">
+        <v>0</v>
       </c>
       <c r="F43" s="86">
         <v>0</v>
@@ -5721,11 +5732,11 @@
         <v>99</v>
       </c>
       <c r="H43" s="57" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="1:10" s="57" customFormat="1">
-      <c r="A44" s="136"/>
+      <c r="A44" s="137"/>
       <c r="B44" s="109" t="s">
         <v>456</v>
       </c>
@@ -5735,8 +5746,8 @@
       <c r="D44" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="86" t="s">
-        <v>56</v>
+      <c r="E44" s="86">
+        <v>0</v>
       </c>
       <c r="F44" s="86">
         <v>0</v>
@@ -5745,11 +5756,11 @@
         <v>99</v>
       </c>
       <c r="H44" s="57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="104" customFormat="1">
-      <c r="A45" s="135"/>
+      <c r="A45" s="136"/>
       <c r="B45" s="110" t="s">
         <v>457</v>
       </c>
@@ -5759,8 +5770,8 @@
       <c r="D45" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="87" t="s">
-        <v>56</v>
+      <c r="E45" s="87">
+        <v>0</v>
       </c>
       <c r="F45" s="87">
         <v>0</v>
@@ -5769,7 +5780,7 @@
         <v>99</v>
       </c>
       <c r="H45" s="104" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -6157,24 +6168,24 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C2" s="121" t="s">
         <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="121" customFormat="1">
       <c r="A3" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" t="s">
         <v>566</v>
-      </c>
-      <c r="B3" t="s">
-        <v>568</v>
       </c>
       <c r="C3" s="121" t="s">
         <v>63</v>
@@ -6182,24 +6193,24 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C4" s="121" t="s">
         <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C5" s="121" t="s">
         <v>63</v>
@@ -6217,30 +6228,30 @@
     <row r="9" spans="1:11">
       <c r="B9" s="59"/>
       <c r="E9" s="121" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F9" s="121" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="G9" s="121" t="s">
+        <v>559</v>
+      </c>
+      <c r="H9" s="121" t="s">
+        <v>560</v>
+      </c>
+      <c r="I9" s="121" t="s">
         <v>561</v>
       </c>
-      <c r="H9" s="121" t="s">
+      <c r="J9" s="121" t="s">
         <v>562</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="K9" s="121" t="s">
         <v>563</v>
-      </c>
-      <c r="J9" s="121" t="s">
-        <v>564</v>
-      </c>
-      <c r="K9" s="121" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="E10" s="121" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F10">
         <v>40</v>
@@ -6263,7 +6274,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="E11" s="121" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -6286,7 +6297,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="E12" s="121" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F12">
         <v>200</v>
@@ -6309,7 +6320,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="E13" s="121" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -6332,7 +6343,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="E14" s="121" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F14">
         <v>1000</v>
@@ -6437,7 +6448,7 @@
     </row>
     <row r="5" spans="1:5" s="18" customFormat="1">
       <c r="A5" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>250</v>
@@ -6469,25 +6480,25 @@
     </row>
     <row r="8" spans="1:5" s="18" customFormat="1">
       <c r="A8" s="16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="130" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="18" customFormat="1">
       <c r="A9" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>65</v>
@@ -6497,10 +6508,10 @@
     </row>
     <row r="10" spans="1:5" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>65</v>
@@ -12553,21 +12564,21 @@
     </row>
     <row r="5" spans="4:7">
       <c r="D5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F5" s="128" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="4:7">
       <c r="D6" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F6" s="128" t="s">
         <v>359</v>
@@ -12575,54 +12586,54 @@
     </row>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F7" s="128" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="4:7">
       <c r="D8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F8" s="128" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="D9" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E9" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F9" s="128" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E10" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F10" s="128" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="D11" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E11" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F11" s="128" t="s">
         <v>65</v>
@@ -12697,15 +12708,15 @@
         <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="D9" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E9" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F9" s="128" t="s">
         <v>65</v>
@@ -12713,10 +12724,10 @@
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F10" s="128" t="s">
         <v>65</v>
@@ -12724,10 +12735,10 @@
     </row>
     <row r="11" spans="4:7">
       <c r="D11" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F11" s="128" t="s">
         <v>65</v>
@@ -12735,10 +12746,10 @@
     </row>
     <row r="12" spans="4:7">
       <c r="D12" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F12" s="128" t="s">
         <v>65</v>
@@ -12746,10 +12757,10 @@
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F13" s="128" t="s">
         <v>65</v>
@@ -12757,100 +12768,100 @@
     </row>
     <row r="16" spans="4:7">
       <c r="D16" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F16" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="4:7">
       <c r="D17" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E17" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F17" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="73" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="4:7">
       <c r="D19" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E19" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F19" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G19" s="73" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="20" spans="4:7">
       <c r="D20" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E20" t="s">
         <v>620</v>
-      </c>
-      <c r="E20" t="s">
-        <v>622</v>
       </c>
       <c r="F20" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G20" s="73" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="21" spans="4:7">
       <c r="D21" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="E21" t="s">
         <v>616</v>
-      </c>
-      <c r="E21" t="s">
-        <v>618</v>
       </c>
       <c r="F21" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="22" spans="4:7">
       <c r="D22" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E22" t="s">
         <v>621</v>
-      </c>
-      <c r="E22" t="s">
-        <v>623</v>
       </c>
       <c r="F22" s="128" t="s">
         <v>119</v>
       </c>
       <c r="G22" s="73" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="4:7">
       <c r="D23" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E23" t="s">
         <v>617</v>
-      </c>
-      <c r="E23" t="s">
-        <v>619</v>
       </c>
       <c r="F23" s="128" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="73" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -12883,10 +12894,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -12926,10 +12937,10 @@
         <v>140</v>
       </c>
       <c r="G4" s="127" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H4" s="127" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I4" s="127" t="s">
         <v>76</v>
@@ -12937,10 +12948,10 @@
     </row>
     <row r="5" spans="3:9">
       <c r="C5" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="F5" s="128" t="s">
         <v>56</v>
@@ -12954,10 +12965,10 @@
     </row>
     <row r="7" spans="3:9">
       <c r="C7" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E7" s="128" t="s">
         <v>65</v>
@@ -12972,15 +12983,15 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E9" s="128" t="s">
         <v>65</v>
@@ -12997,10 +13008,10 @@
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E10" s="128" t="s">
         <v>65</v>
@@ -13065,10 +13076,10 @@
         <v>140</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J5" s="127" t="s">
         <v>76</v>
@@ -13076,13 +13087,13 @@
     </row>
     <row r="6" spans="4:10" s="132" customFormat="1">
       <c r="D6" s="133" t="s">
+        <v>653</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>654</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>655</v>
-      </c>
-      <c r="E6" s="132" t="s">
-        <v>656</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>657</v>
       </c>
       <c r="G6" s="128" t="s">
         <v>56</v>
@@ -13096,10 +13107,10 @@
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F7" s="128" t="s">
         <v>83</v>
@@ -13114,15 +13125,15 @@
         <v>56</v>
       </c>
       <c r="J7" s="131" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F8" s="128" t="s">
         <v>83</v>
@@ -13139,10 +13150,10 @@
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="2" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F9" s="128" t="s">
         <v>83</v>
@@ -13159,10 +13170,10 @@
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E10" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F10" s="128" t="s">
         <v>83</v>
@@ -13179,10 +13190,10 @@
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E11" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F11" s="128" t="s">
         <v>83</v>
@@ -13236,10 +13247,10 @@
         <v>140</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J5" s="127" t="s">
         <v>76</v>
@@ -13247,13 +13258,13 @@
     </row>
     <row r="6" spans="4:10" s="127" customFormat="1">
       <c r="D6" s="133" t="s">
+        <v>653</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>654</v>
+      </c>
+      <c r="F6" s="82" t="s">
         <v>655</v>
-      </c>
-      <c r="E6" s="132" t="s">
-        <v>656</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>657</v>
       </c>
       <c r="G6" s="128" t="s">
         <v>56</v>
@@ -13268,10 +13279,10 @@
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F7" s="128" t="s">
         <v>83</v>
@@ -13286,15 +13297,15 @@
         <v>56</v>
       </c>
       <c r="J7" s="131" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="F8" s="128" t="s">
         <v>119</v>
@@ -14748,7 +14759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{326E922C-C46C-46A6-86BA-E484545855C1}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -15389,7 +15400,7 @@
         <v>401</v>
       </c>
       <c r="B11" s="125" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C11" s="125" t="s">
         <v>400</v>
@@ -15423,7 +15434,7 @@
         <v>382</v>
       </c>
       <c r="D12" s="124" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
@@ -15451,7 +15462,7 @@
         <v>383</v>
       </c>
       <c r="D13" s="122" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -15479,7 +15490,7 @@
         <v>385</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
@@ -15507,7 +15518,7 @@
         <v>386</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E15" s="76"/>
       <c r="F15" s="76"/>
@@ -15535,7 +15546,7 @@
         <v>393</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E16" s="76"/>
       <c r="F16" s="76"/>
@@ -15563,7 +15574,7 @@
         <v>395</v>
       </c>
       <c r="D17" s="122" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E17" s="76"/>
       <c r="F17" s="76"/>
@@ -15591,7 +15602,7 @@
         <v>381</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E18" s="76"/>
       <c r="F18" s="76"/>
@@ -15616,10 +15627,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
@@ -15647,7 +15658,7 @@
         <v>390</v>
       </c>
       <c r="D20" s="122" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E20" s="76"/>
       <c r="F20" s="76"/>
@@ -15675,7 +15686,7 @@
         <v>394</v>
       </c>
       <c r="D21" s="122" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E21" s="76"/>
       <c r="F21" s="76"/>
@@ -15703,7 +15714,7 @@
         <v>377</v>
       </c>
       <c r="D22" s="122" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E22" s="76"/>
       <c r="F22" s="76"/>
@@ -15731,7 +15742,7 @@
         <v>389</v>
       </c>
       <c r="D23" s="122" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E23" s="76"/>
       <c r="F23" s="76"/>
@@ -15759,7 +15770,7 @@
         <v>398</v>
       </c>
       <c r="D24" s="122" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E24" s="76"/>
       <c r="F24" s="76"/>
@@ -15787,7 +15798,7 @@
         <v>378</v>
       </c>
       <c r="D25" s="122" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E25" s="76"/>
       <c r="F25" s="76"/>
@@ -15815,7 +15826,7 @@
         <v>379</v>
       </c>
       <c r="D26" s="122" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E26" s="76"/>
       <c r="F26" s="76"/>
@@ -15843,7 +15854,7 @@
         <v>380</v>
       </c>
       <c r="D27" s="122" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E27" s="76"/>
       <c r="F27" s="76"/>
@@ -15871,7 +15882,7 @@
         <v>392</v>
       </c>
       <c r="D28" s="122" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E28" s="76"/>
       <c r="F28" s="76"/>
@@ -15899,7 +15910,7 @@
         <v>397</v>
       </c>
       <c r="D29" s="123" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -15913,7 +15924,7 @@
         <v>388</v>
       </c>
       <c r="D30" s="123" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -15927,7 +15938,7 @@
         <v>391</v>
       </c>
       <c r="D31" s="123" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
@@ -15943,7 +15954,7 @@
         <v>396</v>
       </c>
       <c r="D32" s="123" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
@@ -15959,7 +15970,7 @@
         <v>384</v>
       </c>
       <c r="D33" s="123" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
@@ -15975,7 +15986,7 @@
         <v>420</v>
       </c>
       <c r="D34" s="123" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
@@ -16104,13 +16115,13 @@
       <c r="J20"/>
     </row>
     <row r="27" spans="5:16">
-      <c r="E27" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="137" t="s">
+      <c r="E27" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="144" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="137" t="s">
+      <c r="G27" s="144" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -16122,13 +16133,13 @@
       <c r="J27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="142" t="s">
+      <c r="K27" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="142" t="s">
+      <c r="L27" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="139" t="s">
+      <c r="M27" s="138" t="s">
         <v>26</v>
       </c>
       <c r="N27" s="140"/>
@@ -16140,9 +16151,9 @@
       </c>
     </row>
     <row r="28" spans="5:16">
-      <c r="E28" s="137"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="137"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
@@ -16152,9 +16163,9 @@
       <c r="J28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="142" t="s">
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="141" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -16168,9 +16179,9 @@
       </c>
     </row>
     <row r="29" spans="5:16">
-      <c r="E29" s="137"/>
-      <c r="F29" s="137"/>
-      <c r="G29" s="137"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
       <c r="H29" s="1" t="s">
         <v>7</v>
       </c>
@@ -16180,9 +16191,9 @@
       <c r="J29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
       <c r="N29" s="1" t="s">
         <v>43</v>
       </c>
@@ -16194,21 +16205,21 @@
       </c>
     </row>
     <row r="30" spans="5:16">
-      <c r="E30" s="137"/>
-      <c r="F30" s="137"/>
-      <c r="G30" s="137" t="s">
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="137"/>
+      <c r="H30" s="144"/>
       <c r="I30" s="5">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
       <c r="N30" s="1" t="s">
         <v>45</v>
       </c>
@@ -16220,11 +16231,11 @@
       </c>
     </row>
     <row r="31" spans="5:16">
-      <c r="E31" s="137"/>
-      <c r="F31" s="137" t="s">
+      <c r="E31" s="144"/>
+      <c r="F31" s="144" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="137" t="s">
+      <c r="G31" s="144" t="s">
         <v>16</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -16236,9 +16247,9 @@
       <c r="J31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K31" s="143"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
       <c r="N31" s="1" t="s">
         <v>46</v>
       </c>
@@ -16250,9 +16261,9 @@
       </c>
     </row>
     <row r="32" spans="5:16">
-      <c r="E32" s="137"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="137"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
@@ -16262,11 +16273,11 @@
       <c r="J32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K32" s="143"/>
-      <c r="L32" s="142" t="s">
+      <c r="K32" s="142"/>
+      <c r="L32" s="141" t="s">
         <v>28</v>
       </c>
-      <c r="M32" s="139" t="s">
+      <c r="M32" s="138" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="140"/>
@@ -16278,9 +16289,9 @@
       </c>
     </row>
     <row r="33" spans="5:16">
-      <c r="E33" s="137"/>
-      <c r="F33" s="137"/>
-      <c r="G33" s="137"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
       <c r="H33" s="1" t="s">
         <v>13</v>
       </c>
@@ -16290,9 +16301,9 @@
       <c r="J33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K33" s="143"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="139" t="s">
+      <c r="K33" s="142"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="138" t="s">
         <v>30</v>
       </c>
       <c r="N33" s="140"/>
@@ -16304,9 +16315,9 @@
       </c>
     </row>
     <row r="34" spans="5:16">
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
       <c r="H34" s="1" t="s">
         <v>15</v>
       </c>
@@ -16316,25 +16327,25 @@
       <c r="J34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K34" s="143"/>
-      <c r="L34" s="142" t="s">
+      <c r="K34" s="142"/>
+      <c r="L34" s="141" t="s">
         <v>31</v>
       </c>
-      <c r="M34" s="139" t="s">
+      <c r="M34" s="138" t="s">
         <v>32</v>
       </c>
       <c r="N34" s="140"/>
       <c r="O34" s="5">
         <v>1</v>
       </c>
-      <c r="P34" s="138" t="s">
+      <c r="P34" s="145" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="35" spans="5:16">
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
       <c r="H35" s="1" t="s">
         <v>11</v>
       </c>
@@ -16344,21 +16355,21 @@
       <c r="J35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="139" t="s">
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="138" t="s">
         <v>33</v>
       </c>
       <c r="N35" s="140"/>
       <c r="O35" s="5">
         <v>2</v>
       </c>
-      <c r="P35" s="138"/>
+      <c r="P35" s="145"/>
     </row>
     <row r="36" spans="5:16">
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="137" t="s">
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -16370,21 +16381,21 @@
       <c r="J36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="143"/>
-      <c r="L36" s="144"/>
-      <c r="M36" s="139" t="s">
+      <c r="K36" s="142"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="138" t="s">
         <v>34</v>
       </c>
       <c r="N36" s="140"/>
       <c r="O36" s="5">
         <v>3</v>
       </c>
-      <c r="P36" s="138"/>
+      <c r="P36" s="145"/>
     </row>
     <row r="37" spans="5:16">
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="137"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
       <c r="H37" s="1" t="s">
         <v>10</v>
       </c>
@@ -16394,8 +16405,8 @@
       <c r="J37" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="143"/>
-      <c r="L37" s="142" t="s">
+      <c r="K37" s="142"/>
+      <c r="L37" s="141" t="s">
         <v>37</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -16412,9 +16423,9 @@
       </c>
     </row>
     <row r="38" spans="5:16">
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137" t="s">
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144" t="s">
         <v>18</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -16426,8 +16437,8 @@
       <c r="J38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="143"/>
-      <c r="L38" s="144"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="143"/>
       <c r="M38" s="1" t="s">
         <v>39</v>
       </c>
@@ -16442,9 +16453,9 @@
       </c>
     </row>
     <row r="39" spans="5:16">
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
       <c r="H39" s="1" t="s">
         <v>10</v>
       </c>
@@ -16454,11 +16465,11 @@
       <c r="J39" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K39" s="144"/>
-      <c r="L39" s="139" t="s">
+      <c r="K39" s="143"/>
+      <c r="L39" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="141"/>
+      <c r="M39" s="139"/>
       <c r="N39" s="140"/>
       <c r="O39" s="5">
         <v>1</v>
@@ -16468,14 +16479,14 @@
       </c>
     </row>
     <row r="40" spans="5:16">
-      <c r="E40" s="137"/>
-      <c r="F40" s="137" t="s">
+      <c r="E40" s="144"/>
+      <c r="F40" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="137" t="s">
+      <c r="G40" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="137"/>
+      <c r="H40" s="144"/>
       <c r="I40" s="5">
         <v>1</v>
       </c>
@@ -16484,12 +16495,12 @@
       </c>
     </row>
     <row r="41" spans="5:16">
-      <c r="E41" s="137"/>
-      <c r="F41" s="137"/>
-      <c r="G41" s="137" t="s">
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="137"/>
+      <c r="H41" s="144"/>
       <c r="I41" s="5">
         <v>1</v>
       </c>
@@ -16498,8 +16509,8 @@
       </c>
     </row>
     <row r="42" spans="5:16">
-      <c r="E42" s="137"/>
-      <c r="F42" s="137" t="s">
+      <c r="E42" s="144"/>
+      <c r="F42" s="144" t="s">
         <v>37</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -16516,8 +16527,8 @@
       </c>
     </row>
     <row r="43" spans="5:16">
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
       <c r="G43" s="1" t="s">
         <v>36</v>
       </c>
@@ -16532,12 +16543,12 @@
       </c>
     </row>
     <row r="44" spans="5:16">
-      <c r="E44" s="137"/>
-      <c r="F44" s="137" t="s">
+      <c r="E44" s="144"/>
+      <c r="F44" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
       <c r="I44" s="5">
         <v>1</v>
       </c>
@@ -16547,17 +16558,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="K27:K39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="L27:L31"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G31:G35"/>
     <mergeCell ref="E27:E44"/>
     <mergeCell ref="F31:F39"/>
     <mergeCell ref="F40:F41"/>
@@ -16574,6 +16574,17 @@
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="G36:G37"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="K27:K39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="L27:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G31:G35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16673,10 +16684,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
     </row>
     <row r="10" spans="1:14">
       <c r="N10" s="10" t="s">
@@ -16684,22 +16695,22 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="146"/>
+      <c r="B12" s="147"/>
       <c r="C12" s="8" t="s">
         <v>51</v>
       </c>
@@ -16720,10 +16731,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="7" customFormat="1">
-      <c r="A13" s="145" t="s">
+      <c r="A13" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="146" t="s">
         <v>104</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -16746,8 +16757,8 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="145"/>
-      <c r="B14" s="145"/>
+      <c r="A14" s="146"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
@@ -16768,8 +16779,8 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="145"/>
-      <c r="B15" s="146"/>
+      <c r="A15" s="146"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="2" t="s">
         <v>49</v>
       </c>
@@ -16787,8 +16798,8 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="145"/>
-      <c r="B16" s="146"/>
+      <c r="A16" s="146"/>
+      <c r="B16" s="147"/>
       <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
@@ -16809,8 +16820,8 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="145"/>
-      <c r="B17" s="146"/>
+      <c r="A17" s="146"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="2" t="s">
         <v>114</v>
       </c>
@@ -16831,8 +16842,8 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="145"/>
-      <c r="B18" s="146"/>
+      <c r="A18" s="146"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="2" t="s">
         <v>48</v>
       </c>
@@ -16850,8 +16861,8 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="145"/>
-      <c r="B19" s="146"/>
+      <c r="A19" s="146"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="2" t="s">
         <v>100</v>
       </c>
@@ -16869,8 +16880,8 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="145"/>
-      <c r="B20" s="146"/>
+      <c r="A20" s="146"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="2" t="s">
         <v>50</v>
       </c>
@@ -16888,8 +16899,8 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="145"/>
-      <c r="B21" s="145" t="s">
+      <c r="A21" s="146"/>
+      <c r="B21" s="146" t="s">
         <v>109</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -16912,8 +16923,8 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146"/>
+      <c r="A22" s="146"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="2" t="s">
         <v>113</v>
       </c>
@@ -16934,8 +16945,8 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
+      <c r="A23" s="146"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="2" t="s">
         <v>107</v>
       </c>
@@ -16956,8 +16967,8 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
+      <c r="A24" s="146"/>
+      <c r="B24" s="147"/>
       <c r="C24" s="2" t="s">
         <v>108</v>
       </c>
@@ -16978,8 +16989,8 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="145"/>
-      <c r="B25" s="146" t="s">
+      <c r="A25" s="146"/>
+      <c r="B25" s="147" t="s">
         <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -16999,8 +17010,8 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="145"/>
-      <c r="B26" s="146"/>
+      <c r="A26" s="146"/>
+      <c r="B26" s="147"/>
       <c r="C26" s="2" t="s">
         <v>70</v>
       </c>
@@ -17018,8 +17029,8 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
+      <c r="A27" s="146"/>
+      <c r="B27" s="147"/>
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
@@ -17037,8 +17048,8 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
+      <c r="A28" s="146"/>
+      <c r="B28" s="147"/>
       <c r="C28" s="2" t="s">
         <v>72</v>
       </c>
@@ -17056,7 +17067,7 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="145"/>
+      <c r="A29" s="146"/>
       <c r="B29" s="9" t="s">
         <v>103</v>
       </c>
@@ -17464,7 +17475,7 @@
       <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>114</v>
       </c>
       <c r="B2" s="53" t="s">
@@ -17491,7 +17502,7 @@
       <c r="J2" s="53"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="149"/>
+      <c r="A3" s="150"/>
       <c r="B3" s="53" t="s">
         <v>114</v>
       </c>
@@ -17516,7 +17527,7 @@
       <c r="J3" s="53"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>120</v>
       </c>
       <c r="B4" s="53" t="s">
@@ -17540,7 +17551,7 @@
       <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="149"/>
+      <c r="A5" s="150"/>
       <c r="B5" s="53" t="s">
         <v>143</v>
       </c>
@@ -17565,7 +17576,7 @@
       <c r="J5" s="53"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="149"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="53" t="s">
         <v>122</v>
       </c>
@@ -17587,7 +17598,7 @@
       <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="149"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="53" t="s">
         <v>124</v>
       </c>
@@ -17609,7 +17620,7 @@
       <c r="J7" s="53"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="149"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="53" t="s">
         <v>145</v>
       </c>
@@ -17634,7 +17645,7 @@
       <c r="J8" s="53"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="149"/>
+      <c r="A9" s="150"/>
       <c r="B9" s="53" t="s">
         <v>128</v>
       </c>
@@ -17656,7 +17667,7 @@
       <c r="J9" s="53"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="149"/>
+      <c r="A10" s="150"/>
       <c r="B10" s="53" t="s">
         <v>126</v>
       </c>
@@ -17678,7 +17689,7 @@
       <c r="J10" s="53"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="149"/>
+      <c r="A11" s="150"/>
       <c r="B11" s="53" t="s">
         <v>147</v>
       </c>
@@ -17703,7 +17714,7 @@
       <c r="J11" s="53"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="149"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="53" t="s">
         <v>130</v>
       </c>
@@ -17725,7 +17736,7 @@
       <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="149"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="53" t="s">
         <v>132</v>
       </c>
@@ -17747,7 +17758,7 @@
       <c r="J13" s="53"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="149"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="53" t="s">
         <v>148</v>
       </c>
@@ -17772,7 +17783,7 @@
       <c r="J14" s="53"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="149"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="53" t="s">
         <v>134</v>
       </c>
@@ -17794,7 +17805,7 @@
       <c r="J15" s="53"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="149"/>
+      <c r="A16" s="150"/>
       <c r="B16" s="53" t="s">
         <v>135</v>
       </c>
@@ -17813,7 +17824,7 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="150" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="53" t="s">
@@ -17840,7 +17851,7 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="149"/>
+      <c r="A18" s="150"/>
       <c r="B18" s="53" t="s">
         <v>138</v>
       </c>
@@ -17862,7 +17873,7 @@
       <c r="J18" s="53"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="149"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="53" t="s">
         <v>139</v>
       </c>
@@ -17884,7 +17895,7 @@
       <c r="J19" s="53"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="149" t="s">
+      <c r="A20" s="150" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="53" t="s">
@@ -17914,7 +17925,7 @@
       <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="149"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="53" t="s">
         <v>108</v>
       </c>
@@ -17942,7 +17953,7 @@
       <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="150" t="s">
         <v>121</v>
       </c>
       <c r="B22" s="53" t="s">
@@ -17969,7 +17980,7 @@
       <c r="J22" s="53"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="149"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="53" t="s">
         <v>157</v>
       </c>
@@ -17994,7 +18005,7 @@
       <c r="J23" s="53"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="149"/>
+      <c r="A24" s="150"/>
       <c r="B24" s="53" t="s">
         <v>159</v>
       </c>
@@ -18019,7 +18030,7 @@
       <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="149"/>
+      <c r="A25" s="150"/>
       <c r="B25" s="53" t="s">
         <v>161</v>
       </c>
@@ -18044,7 +18055,7 @@
       <c r="J25" s="53"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="149"/>
+      <c r="A26" s="150"/>
       <c r="B26" s="53" t="s">
         <v>162</v>
       </c>
@@ -18069,7 +18080,7 @@
       <c r="J26" s="53"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="149"/>
+      <c r="A27" s="150"/>
       <c r="B27" s="53" t="s">
         <v>164</v>
       </c>
@@ -18211,10 +18222,10 @@
     </row>
     <row r="7" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="8" spans="1:11" ht="18" thickTop="1" thickBot="1">
-      <c r="H8" s="150" t="s">
+      <c r="H8" s="151" t="s">
         <v>360</v>
       </c>
-      <c r="I8" s="150"/>
+      <c r="I8" s="151"/>
     </row>
     <row r="9" spans="1:11" ht="18" thickTop="1" thickBot="1">
       <c r="H9" s="65" t="s">
